--- a/1 - Homelessness/data/Deinstitutionalization.xlsx
+++ b/1 - Homelessness/data/Deinstitutionalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="14000" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17600" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inpatient_Outpatient_Episodes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>Number of patient care episodes</t>
   </si>
@@ -118,6 +118,18 @@
   <si>
     <t>OP CMHCs</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Equal intervals for years</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -488,8 +500,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -558,8 +574,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +584,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -574,6 +593,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,16 +841,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>539750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1861,15 +1882,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A6:K6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:11" ht="45">
       <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="22">
         <v>1950</v>
       </c>
@@ -1926,16 +1947,15 @@
       <c r="H2" s="23">
         <v>41280</v>
       </c>
-      <c r="I2" s="29">
-        <f>VLOOKUP(A2, HomicideTrends!$A$1:$C$60,2,FALSE)</f>
-        <v>4.5999999999999996</v>
+      <c r="I2" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="J2" s="29">
         <f>C2/100000</f>
         <v>5.1250099999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="24">
         <v>1951</v>
       </c>
@@ -1969,7 +1989,7 @@
         <v>5.2032600000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="24">
         <v>1952</v>
       </c>
@@ -2003,7 +2023,7 @@
         <v>5.3198100000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="24">
         <v>1953</v>
       </c>
@@ -2037,7 +2057,7 @@
         <v>5.45045</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="24">
         <v>1954</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>5.53979</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="24">
         <v>1955</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>5.5892200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="24">
         <v>1956</v>
       </c>
@@ -2139,7 +2159,7 @@
         <v>5.5138999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="24">
         <v>1957</v>
       </c>
@@ -2173,7 +2193,7 @@
         <v>5.4862599999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="24">
         <v>1958</v>
       </c>
@@ -2207,7 +2227,7 @@
         <v>5.4518199999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="24">
         <v>1959</v>
       </c>
@@ -2241,7 +2261,7 @@
         <v>5.4188299999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="24">
         <v>1960</v>
       </c>
@@ -2275,7 +2295,7 @@
         <v>5.3554000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="24">
         <v>1961</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>5.2745600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="24">
         <v>1962</v>
       </c>
@@ -2342,8 +2362,11 @@
         <f t="shared" si="0"/>
         <v>5.1563999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="24">
         <v>1963</v>
       </c>
@@ -2377,7 +2400,7 @@
         <v>5.0460399999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="24">
         <v>1964</v>
       </c>
@@ -2397,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H16" s="25">
         <v>44824</v>
@@ -2411,7 +2434,7 @@
         <v>4.90449</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="24">
         <v>1965</v>
       </c>
@@ -2445,7 +2468,7 @@
         <v>4.7520199999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="24">
         <v>1966</v>
       </c>
@@ -2478,8 +2501,11 @@
         <f t="shared" si="0"/>
         <v>4.5208899999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="24">
         <v>1967</v>
       </c>
@@ -2513,7 +2539,7 @@
         <v>4.26309</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="24">
         <v>1968</v>
       </c>
@@ -2547,7 +2573,7 @@
         <v>3.99152</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="24">
         <v>1969</v>
       </c>
@@ -2581,7 +2607,7 @@
         <v>3.6996899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="24">
         <v>1970</v>
       </c>
@@ -2615,7 +2641,7 @@
         <v>3.3761899999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="24">
         <v>1971</v>
       </c>
@@ -2649,7 +2675,7 @@
         <v>3.0898300000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="24">
         <v>1972</v>
       </c>
@@ -2683,7 +2709,7 @@
         <v>2.74837</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="24">
         <v>1973</v>
       </c>
@@ -2717,7 +2743,7 @@
         <v>2.4851800000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="24">
         <v>1974</v>
       </c>
@@ -2751,7 +2777,7 @@
         <v>2.1557300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="24">
         <v>1975</v>
       </c>
@@ -2785,7 +2811,7 @@
         <v>1.9343600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="24">
         <v>1976</v>
       </c>
@@ -2819,7 +2845,7 @@
         <v>1.7061900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="24">
         <v>1977</v>
       </c>
@@ -2853,7 +2879,7 @@
         <v>1.5952299999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="24">
         <v>1978</v>
       </c>
@@ -2887,7 +2913,7 @@
         <v>1.5354399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="24">
         <v>1979</v>
       </c>
@@ -2921,7 +2947,7 @@
         <v>1.4561599999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="26">
         <v>1980</v>
       </c>
@@ -2971,15 +2997,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="61" thickBot="1">
+    <row r="1" spans="1:12" ht="61" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="46">
         <v>1955</v>
       </c>
@@ -3049,7 +3075,7 @@
         <v>379000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="47">
         <v>1965</v>
       </c>
@@ -3084,7 +3110,7 @@
         <v>1071000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="47">
         <v>1971</v>
       </c>
@@ -3119,7 +3145,7 @@
         <v>1693848</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="47">
         <v>1975</v>
       </c>
@@ -3154,7 +3180,7 @@
         <v>3033308</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="47">
         <v>1977</v>
       </c>
@@ -3187,6 +3213,11 @@
       </c>
       <c r="K6" s="45">
         <v>2834637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="L7" s="48" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Homelessness/data/Deinstitutionalization.xlsx
+++ b/1 - Homelessness/data/Deinstitutionalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17600" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inpatient_Outpatient_Episodes" sheetId="1" r:id="rId1"/>
@@ -841,16 +841,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3000,7 +3000,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/1 - Homelessness/data/Deinstitutionalization.xlsx
+++ b/1 - Homelessness/data/Deinstitutionalization.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inpatient_Outpatient_Episodes" sheetId="1" r:id="rId1"/>
     <sheet name="TableauHomicideResidents" sheetId="2" r:id="rId2"/>
     <sheet name="TableauArea" sheetId="4" r:id="rId3"/>
     <sheet name="HomicideTrends" sheetId="3" r:id="rId4"/>
+    <sheet name="Prison" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>Number of patient care episodes</t>
   </si>
@@ -129,6 +130,156 @@
   </si>
   <si>
     <t>Equal intervals for years</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NewHampshire</t>
+  </si>
+  <si>
+    <t>NewJersey</t>
+  </si>
+  <si>
+    <t>NewMexico</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>NorthCarolina</t>
+  </si>
+  <si>
+    <t>NorthDakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>RhodeIsland</t>
+  </si>
+  <si>
+    <t>SouthCarolina</t>
+  </si>
+  <si>
+    <t>SouthDakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WestVirginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
   </si>
 </sst>
 </file>
@@ -549,6 +700,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -564,17 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -774,11 +925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134396904"/>
-        <c:axId val="-2134442808"/>
+        <c:axId val="2113200008"/>
+        <c:axId val="2113197080"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2134396904"/>
+        <c:axId val="2113200008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134442808"/>
+        <c:crossAx val="2113197080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -796,7 +947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134442808"/>
+        <c:axId val="2113197080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134396904"/>
+        <c:crossAx val="2113200008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,34 +1357,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="61" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -1271,19 +1422,19 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="14">
@@ -1463,19 +1614,19 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
@@ -1653,19 +1804,19 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
@@ -1843,19 +1994,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="61" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2999,7 +3150,7 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -3041,182 +3192,182 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="46">
+      <c r="A2" s="41">
         <v>1955</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="33">
         <v>1675352</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="34">
         <v>1296352</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="35">
         <v>818832</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="35">
         <v>123231</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="35">
         <v>265934</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="35">
         <v>88355</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="36">
         <v>0</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="34">
         <v>379000</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="35">
         <v>0</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="36">
         <v>379000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="47">
+      <c r="A3" s="42">
         <v>1965</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="37">
         <v>2636525</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="38">
         <v>1565525</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="39">
         <v>804926</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="39">
         <v>125428</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="39">
         <v>519328</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="39">
         <v>115843</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="40">
         <v>0</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="38">
         <v>1071000</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="39">
         <v>0</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="40">
         <v>1071000</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="47">
+      <c r="A4" s="42">
         <v>1971</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="37">
         <v>4038143</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="38">
         <v>1721389</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="39">
         <v>745259</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="39">
         <v>126600</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="39">
         <v>542642</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="39">
         <v>176800</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="40">
         <v>130088</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="38">
         <v>2316754</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="39">
         <v>622906</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="40">
         <v>1693848</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="47">
+      <c r="A5" s="42">
         <v>1975</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="37">
         <v>6409447</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="38">
         <v>1791171</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="39">
         <v>598993</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="39">
         <v>165237</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="39">
         <v>565696</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="39">
         <v>214264</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="40">
         <v>246891</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="38">
         <v>4618276</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="39">
         <v>1584968</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="40">
         <v>3033308</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="47">
+      <c r="A6" s="42">
         <v>1977</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="37">
         <v>6392979</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="38">
         <v>1816613</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="39">
         <v>574226</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="39">
         <v>184189</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="39">
         <v>571725</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="39">
         <v>217507</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="40">
         <v>268966</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="38">
         <v>4576366</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="39">
         <v>1741729</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="40">
         <v>2834637</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="43" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3914,4 +4065,1024 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40561</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6490</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1609</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4678</v>
+      </c>
+      <c r="C3">
+        <v>748</v>
+      </c>
+      <c r="D3">
+        <v>206</v>
+      </c>
+      <c r="E3">
+        <v>3.6</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>47974</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7676</v>
+      </c>
+      <c r="D4">
+        <v>827</v>
+      </c>
+      <c r="E4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18693</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2991</v>
+      </c>
+      <c r="D5">
+        <v>920</v>
+      </c>
+      <c r="E5">
+        <v>3.3</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>246317</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39411</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10295</v>
+      </c>
+      <c r="E6">
+        <v>3.8</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>33955</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5433</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1325</v>
+      </c>
+      <c r="E7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19087</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3054</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1571</v>
+      </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6916</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D9">
+        <v>372</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
+        <v>148521</v>
+      </c>
+      <c r="C10" s="1">
+        <v>23763</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4826</v>
+      </c>
+      <c r="E10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1">
+        <v>92647</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14824</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2921</v>
+      </c>
+      <c r="E11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5705</v>
+      </c>
+      <c r="C12">
+        <v>913</v>
+      </c>
+      <c r="D12">
+        <v>311</v>
+      </c>
+      <c r="E12">
+        <v>2.9</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11206</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1793</v>
+      </c>
+      <c r="D13">
+        <v>394</v>
+      </c>
+      <c r="E13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>64735</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10358</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3841</v>
+      </c>
+      <c r="E14">
+        <v>2.7</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>39959</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6393</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2413</v>
+      </c>
+      <c r="E15">
+        <v>2.6</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12215</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1954</v>
+      </c>
+      <c r="D16">
+        <v>744</v>
+      </c>
+      <c r="E16">
+        <v>2.6</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15972</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2556</v>
+      </c>
+      <c r="D17">
+        <v>732</v>
+      </c>
+      <c r="E17">
+        <v>3.5</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30034</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4805</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1638</v>
+      </c>
+      <c r="E18">
+        <v>2.9</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1">
+        <v>51458</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8233</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1807</v>
+      </c>
+      <c r="E19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3608</v>
+      </c>
+      <c r="C20">
+        <v>577</v>
+      </c>
+      <c r="D20">
+        <v>463</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35601</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5696</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2211</v>
+      </c>
+      <c r="E21">
+        <v>2.6</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1">
+        <v>22778</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3644</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2979</v>
+      </c>
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1">
+        <v>67132</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10741</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2496</v>
+      </c>
+      <c r="E23">
+        <v>4.3</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15422</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2468</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1982</v>
+      </c>
+      <c r="E24">
+        <v>1.2</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1">
+        <v>27902</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4464</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2484</v>
+      </c>
+      <c r="E25">
+        <v>1.8</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41461</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6634</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2441</v>
+      </c>
+      <c r="E26">
+        <v>2.7</v>
+      </c>
+      <c r="F26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4923</v>
+      </c>
+      <c r="C27">
+        <v>788</v>
+      </c>
+      <c r="D27">
+        <v>256</v>
+      </c>
+      <c r="E27">
+        <v>3.1</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7406</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1185</v>
+      </c>
+      <c r="D28">
+        <v>688</v>
+      </c>
+      <c r="E28">
+        <v>1.7</v>
+      </c>
+      <c r="F28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18265</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2922</v>
+      </c>
+      <c r="D29">
+        <v>298</v>
+      </c>
+      <c r="E29">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4184</v>
+      </c>
+      <c r="C30">
+        <v>669</v>
+      </c>
+      <c r="D30">
+        <v>337</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1">
+        <v>46411</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7426</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4606</v>
+      </c>
+      <c r="E31">
+        <v>1.6</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15081</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2413</v>
+      </c>
+      <c r="D32">
+        <v>732</v>
+      </c>
+      <c r="E32">
+        <v>3.3</v>
+      </c>
+      <c r="F32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1">
+        <v>92769</v>
+      </c>
+      <c r="C33" s="1">
+        <v>14843</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12142</v>
+      </c>
+      <c r="E33">
+        <v>1.2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1">
+        <v>53854</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8617</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2443</v>
+      </c>
+      <c r="E34">
+        <v>3.5</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2288</v>
+      </c>
+      <c r="C35">
+        <v>366</v>
+      </c>
+      <c r="D35">
+        <v>365</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1">
+        <v>64123</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10260</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2536</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1">
+        <v>32593</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5215</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1463</v>
+      </c>
+      <c r="E37">
+        <v>3.6</v>
+      </c>
+      <c r="F37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>19318</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3091</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1026</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1">
+        <v>75507</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12081</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6128</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3364</v>
+      </c>
+      <c r="C40">
+        <v>538</v>
+      </c>
+      <c r="D40">
+        <v>363</v>
+      </c>
+      <c r="E40">
+        <v>1.5</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1">
+        <v>35298</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5648</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1113</v>
+      </c>
+      <c r="E41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4827</v>
+      </c>
+      <c r="C42">
+        <v>772</v>
+      </c>
+      <c r="D42">
+        <v>319</v>
+      </c>
+      <c r="E42">
+        <v>2.4</v>
+      </c>
+      <c r="F42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6988</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2221</v>
+      </c>
+      <c r="E43">
+        <v>3.1</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1">
+        <v>223195</v>
+      </c>
+      <c r="C44" s="1">
+        <v>35711</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4579</v>
+      </c>
+      <c r="E44">
+        <v>7.8</v>
+      </c>
+      <c r="F44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11514</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1842</v>
+      </c>
+      <c r="D45">
+        <v>462</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1975</v>
+      </c>
+      <c r="C46">
+        <v>316</v>
+      </c>
+      <c r="D46">
+        <v>177</v>
+      </c>
+      <c r="E46">
+        <v>1.8</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1">
+        <v>57444</v>
+      </c>
+      <c r="C47" s="1">
+        <v>9191</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2548</v>
+      </c>
+      <c r="E47">
+        <v>3.6</v>
+      </c>
+      <c r="F47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1">
+        <v>29225</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4676</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1521</v>
+      </c>
+      <c r="E48">
+        <v>3.1</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8043</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1287</v>
+      </c>
+      <c r="D49">
+        <v>609</v>
+      </c>
+      <c r="E49">
+        <v>2.1</v>
+      </c>
+      <c r="F49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1">
+        <v>36154</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5785</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E50">
+        <v>3.9</v>
+      </c>
+      <c r="F50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3515</v>
+      </c>
+      <c r="C51">
+        <v>562</v>
+      </c>
+      <c r="D51">
+        <v>199</v>
+      </c>
+      <c r="E51">
+        <v>2.8</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/1 - Homelessness/data/Deinstitutionalization.xlsx
+++ b/1 - Homelessness/data/Deinstitutionalization.xlsx
@@ -13,6 +13,9 @@
     <sheet name="HomicideTrends" sheetId="3" r:id="rId4"/>
     <sheet name="Prison" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Prison!$A$1:$J$51</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
   <si>
     <t>Number of patient care episodes</t>
   </si>
@@ -132,154 +135,349 @@
     <t>Equal intervals for years</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>NewHampshire</t>
-  </si>
-  <si>
-    <t>NewJersey</t>
-  </si>
-  <si>
-    <t>NewMexico</t>
-  </si>
-  <si>
-    <t>NewYork</t>
-  </si>
-  <si>
-    <t>NorthCarolina</t>
-  </si>
-  <si>
-    <t>NorthDakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>RhodeIsland</t>
-  </si>
-  <si>
-    <t>SouthCarolina</t>
-  </si>
-  <si>
-    <t>SouthDakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WestVirginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Total number of
+prisoners in jails and
+state prisons,
+June 30, 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated number of
+prisoners seriously
+mentally ill
+(16% of total) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of patients in
+state, private, and
+psychiatric units in
+general hospitals,
+2004 </t>
+  </si>
+  <si>
+    <t>Odds of a seriously
+mentally ill person
+being in jail or prison
+compared to in
+hospital</t>
+  </si>
+  <si>
+    <t>State Ranking based on
+per capita expenditures
+by state mental health
+authority, FY 2002
+(lowest no. spends most)</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MONTANA</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VERMONT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>% PRISON</t>
+  </si>
+  <si>
+    <t>% HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -289,7 +487,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -635,45 +840,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -682,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -701,16 +913,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -726,8 +938,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -737,6 +956,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -746,7 +968,11 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4069,1016 +4295,1808 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="6" width="14.5" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:10" ht="150">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18265</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2922</v>
+      </c>
+      <c r="E2">
+        <v>298</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2+E2</f>
+        <v>3220</v>
+      </c>
+      <c r="G2" s="51">
+        <f>D2/F2</f>
+        <v>0.90745341614906827</v>
+      </c>
+      <c r="H2" s="51">
+        <f>E2/F2</f>
+        <v>9.2546583850931674E-2</v>
+      </c>
+      <c r="I2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1">
+        <v>47974</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7676</v>
+      </c>
+      <c r="E3">
+        <v>827</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3+E3</f>
+        <v>8503</v>
+      </c>
+      <c r="G3" s="51">
+        <f>D3/F3</f>
+        <v>0.90274020933788079</v>
+      </c>
+      <c r="H3" s="51">
+        <f>E3/F3</f>
+        <v>9.7259790662119247E-2</v>
+      </c>
+      <c r="I3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1">
+        <v>223195</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35711</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4579</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4+E4</f>
+        <v>40290</v>
+      </c>
+      <c r="G4" s="51">
+        <f>D4/F4</f>
+        <v>0.88634896996773394</v>
+      </c>
+      <c r="H4" s="51">
+        <f>E4/F4</f>
+        <v>0.11365103003226606</v>
+      </c>
+      <c r="I4">
+        <v>7.8</v>
+      </c>
+      <c r="J4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>92647</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14824</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2921</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5+E5</f>
+        <v>17745</v>
+      </c>
+      <c r="G5" s="51">
+        <f>D5/F5</f>
+        <v>0.83539025077486617</v>
+      </c>
+      <c r="H5" s="51">
+        <f>E5/F5</f>
+        <v>0.16460974922513383</v>
+      </c>
+      <c r="I5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35298</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5648</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1113</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6+E6</f>
+        <v>6761</v>
+      </c>
+      <c r="G6" s="51">
+        <f>D6/F6</f>
+        <v>0.8353793817482621</v>
+      </c>
+      <c r="H6" s="51">
+        <f>E6/F6</f>
+        <v>0.1646206182517379</v>
+      </c>
+      <c r="I6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>148521</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23763</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4826</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7+E7</f>
+        <v>28589</v>
+      </c>
+      <c r="G7" s="51">
+        <f>D7/F7</f>
+        <v>0.831193815803281</v>
+      </c>
+      <c r="H7" s="51">
+        <f>E7/F7</f>
+        <v>0.16880618419671903</v>
+      </c>
+      <c r="I7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1">
+        <v>51458</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8233</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1807</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8+E8</f>
+        <v>10040</v>
+      </c>
+      <c r="G8" s="51">
+        <f>D8/F8</f>
+        <v>0.82001992031872506</v>
+      </c>
+      <c r="H8" s="51">
+        <f>E8/F8</f>
+        <v>0.17998007968127491</v>
+      </c>
+      <c r="I8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11206</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1793</v>
+      </c>
+      <c r="E9">
+        <v>394</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9+E9</f>
+        <v>2187</v>
+      </c>
+      <c r="G9" s="51">
+        <f>D9/F9</f>
+        <v>0.81984453589391859</v>
+      </c>
+      <c r="H9" s="51">
+        <f>E9/F9</f>
+        <v>0.18015546410608138</v>
+      </c>
+      <c r="I9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1">
+        <v>67132</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10741</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2496</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10+E10</f>
+        <v>13237</v>
+      </c>
+      <c r="G10" s="51">
+        <f>D10/F10</f>
+        <v>0.81143763692679605</v>
+      </c>
+      <c r="H10" s="51">
+        <f>E10/F10</f>
+        <v>0.1885623630732039</v>
+      </c>
+      <c r="I10">
+        <v>4.3</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>33955</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5433</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1325</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11+E11</f>
+        <v>6758</v>
+      </c>
+      <c r="G11" s="51">
+        <f>D11/F11</f>
+        <v>0.80393607576205983</v>
+      </c>
+      <c r="H11" s="51">
+        <f>E11/F11</f>
+        <v>0.19606392423794022</v>
+      </c>
+      <c r="I11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1">
+        <v>64123</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10260</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2536</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12+E12</f>
+        <v>12796</v>
+      </c>
+      <c r="G12" s="51">
+        <f>D12/F12</f>
+        <v>0.80181306658330731</v>
+      </c>
+      <c r="H12" s="51">
+        <f>E12/F12</f>
+        <v>0.19818693341669272</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40561</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6490</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1609</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D13+E13</f>
+        <v>8099</v>
+      </c>
+      <c r="G13" s="51">
+        <f>D13/F13</f>
+        <v>0.80133349796271147</v>
+      </c>
+      <c r="H13" s="51">
+        <f>E13/F13</f>
+        <v>0.19866650203728856</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
         <v>35</v>
       </c>
-      <c r="B2" s="1">
-        <v>40561</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6490</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1609</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11514</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1842</v>
+      </c>
+      <c r="E14">
+        <v>462</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14+E14</f>
+        <v>2304</v>
+      </c>
+      <c r="G14" s="51">
+        <f>D14/F14</f>
+        <v>0.79947916666666663</v>
+      </c>
+      <c r="H14" s="51">
+        <f>E14/F14</f>
+        <v>0.20052083333333334</v>
+      </c>
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4678</v>
-      </c>
-      <c r="C3">
-        <v>748</v>
-      </c>
-      <c r="D3">
-        <v>206</v>
-      </c>
-      <c r="E3">
-        <v>3.6</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1">
-        <v>47974</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7676</v>
-      </c>
-      <c r="D4">
-        <v>827</v>
-      </c>
-      <c r="E4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
-        <v>18693</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2991</v>
-      </c>
-      <c r="D5">
-        <v>920</v>
-      </c>
-      <c r="E5">
-        <v>3.3</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1">
-        <v>246317</v>
-      </c>
-      <c r="C6" s="1">
-        <v>39411</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10295</v>
-      </c>
-      <c r="E6">
-        <v>3.8</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1">
-        <v>33955</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5433</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1325</v>
-      </c>
-      <c r="E7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19087</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3054</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1571</v>
-      </c>
-      <c r="E8">
-        <v>1.9</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6916</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1107</v>
-      </c>
-      <c r="D9">
-        <v>372</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1">
-        <v>148521</v>
-      </c>
-      <c r="C10" s="1">
-        <v>23763</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4826</v>
-      </c>
-      <c r="E10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1">
-        <v>92647</v>
-      </c>
-      <c r="C11" s="1">
-        <v>14824</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2921</v>
-      </c>
-      <c r="E11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5705</v>
-      </c>
-      <c r="C12">
-        <v>913</v>
-      </c>
-      <c r="D12">
-        <v>311</v>
-      </c>
-      <c r="E12">
-        <v>2.9</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11206</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1793</v>
-      </c>
-      <c r="D13">
-        <v>394</v>
-      </c>
-      <c r="E13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1">
-        <v>64735</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10358</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3841</v>
-      </c>
-      <c r="E14">
-        <v>2.7</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="J14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39959</v>
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
       </c>
       <c r="C15" s="1">
-        <v>6393</v>
+        <v>36154</v>
       </c>
       <c r="D15" s="1">
-        <v>2413</v>
-      </c>
-      <c r="E15">
-        <v>2.6</v>
-      </c>
-      <c r="F15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5785</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="1">
+        <f>D15+E15</f>
+        <v>7285</v>
+      </c>
+      <c r="G15" s="51">
+        <f>D15/F15</f>
+        <v>0.79409746053534658</v>
+      </c>
+      <c r="H15" s="51">
+        <f>E15/F15</f>
+        <v>0.20590253946465339</v>
+      </c>
+      <c r="I15">
+        <v>3.9</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1">
-        <v>12215</v>
+      <c r="B16" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="1">
-        <v>1954</v>
-      </c>
-      <c r="D16">
-        <v>744</v>
-      </c>
-      <c r="E16">
-        <v>2.6</v>
-      </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>246317</v>
+      </c>
+      <c r="D16" s="1">
+        <v>39411</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10295</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16+E16</f>
+        <v>49706</v>
+      </c>
+      <c r="G16" s="51">
+        <f>D16/F16</f>
+        <v>0.7928821470245041</v>
+      </c>
+      <c r="H16" s="51">
+        <f>E16/F16</f>
+        <v>0.20711785297549593</v>
+      </c>
+      <c r="I16">
+        <v>3.8</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4678</v>
+      </c>
+      <c r="D17">
+        <v>748</v>
+      </c>
+      <c r="E17">
+        <v>206</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17+E17</f>
+        <v>954</v>
+      </c>
+      <c r="G17" s="51">
+        <f>D17/F17</f>
+        <v>0.78406708595387842</v>
+      </c>
+      <c r="H17" s="51">
+        <f>E17/F17</f>
+        <v>0.21593291404612158</v>
+      </c>
+      <c r="I17">
+        <v>3.6</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="1">
+        <v>57444</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9191</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2548</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18+E18</f>
+        <v>11739</v>
+      </c>
+      <c r="G18" s="51">
+        <f>D18/F18</f>
+        <v>0.78294573643410847</v>
+      </c>
+      <c r="H18" s="51">
+        <f>E18/F18</f>
+        <v>0.21705426356589147</v>
+      </c>
+      <c r="I18">
+        <v>3.6</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="1">
+        <v>32593</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5215</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1463</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19+E19</f>
+        <v>6678</v>
+      </c>
+      <c r="G19" s="51">
+        <f>D19/F19</f>
+        <v>0.7809224318658281</v>
+      </c>
+      <c r="H19" s="51">
+        <f>E19/F19</f>
+        <v>0.2190775681341719</v>
+      </c>
+      <c r="I19">
+        <v>3.6</v>
+      </c>
+      <c r="J19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="1">
+        <v>53854</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8617</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2443</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20+E20</f>
+        <v>11060</v>
+      </c>
+      <c r="G20" s="51">
+        <f>D20/F20</f>
+        <v>0.77911392405063296</v>
+      </c>
+      <c r="H20" s="51">
+        <f>E20/F20</f>
+        <v>0.2208860759493671</v>
+      </c>
+      <c r="I20">
+        <v>3.5</v>
+      </c>
+      <c r="J20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15972</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2556</v>
+      </c>
+      <c r="E21">
+        <v>732</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21+E21</f>
+        <v>3288</v>
+      </c>
+      <c r="G21" s="51">
+        <f>D21/F21</f>
+        <v>0.77737226277372262</v>
+      </c>
+      <c r="H21" s="51">
+        <f>E21/F21</f>
+        <v>0.22262773722627738</v>
+      </c>
+      <c r="I21">
+        <v>3.5</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15081</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2413</v>
+      </c>
+      <c r="E22">
+        <v>732</v>
+      </c>
+      <c r="F22" s="1">
+        <f>D22+E22</f>
+        <v>3145</v>
+      </c>
+      <c r="G22" s="51">
+        <f>D22/F22</f>
+        <v>0.76724960254372021</v>
+      </c>
+      <c r="H22" s="51">
+        <f>E22/F22</f>
+        <v>0.23275039745627982</v>
+      </c>
+      <c r="I22">
+        <v>3.3</v>
+      </c>
+      <c r="J22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18693</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2991</v>
+      </c>
+      <c r="E23">
+        <v>920</v>
+      </c>
+      <c r="F23" s="1">
+        <f>D23+E23</f>
+        <v>3911</v>
+      </c>
+      <c r="G23" s="51">
+        <f>D23/F23</f>
+        <v>0.76476604448990027</v>
+      </c>
+      <c r="H23" s="51">
+        <f>E23/F23</f>
+        <v>0.23523395551009971</v>
+      </c>
+      <c r="I23">
+        <v>3.3</v>
+      </c>
+      <c r="J23">
         <v>50</v>
       </c>
-      <c r="B17" s="1">
-        <v>15972</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2556</v>
-      </c>
-      <c r="D17">
-        <v>732</v>
-      </c>
-      <c r="E17">
-        <v>3.5</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43678</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6988</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2221</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24+E24</f>
+        <v>9209</v>
+      </c>
+      <c r="G24" s="51">
+        <f>D24/F24</f>
+        <v>0.75882289065045061</v>
+      </c>
+      <c r="H24" s="51">
+        <f>E24/F24</f>
+        <v>0.24117710934954936</v>
+      </c>
+      <c r="I24">
+        <v>3.1</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4923</v>
+      </c>
+      <c r="D25">
+        <v>788</v>
+      </c>
+      <c r="E25">
+        <v>256</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25+E25</f>
+        <v>1044</v>
+      </c>
+      <c r="G25" s="51">
+        <f>D25/F25</f>
+        <v>0.75478927203065138</v>
+      </c>
+      <c r="H25" s="51">
+        <f>E25/F25</f>
+        <v>0.24521072796934865</v>
+      </c>
+      <c r="I25">
+        <v>3.1</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="1">
+        <v>29225</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4676</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1521</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26+E26</f>
+        <v>6197</v>
+      </c>
+      <c r="G26" s="51">
+        <f>D26/F26</f>
+        <v>0.75455865741487815</v>
+      </c>
+      <c r="H26" s="51">
+        <f>E26/F26</f>
+        <v>0.24544134258512185</v>
+      </c>
+      <c r="I26">
+        <v>3.1</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19318</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3091</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1026</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27+E27</f>
+        <v>4117</v>
+      </c>
+      <c r="G27" s="51">
+        <f>D27/F27</f>
+        <v>0.75078940976439157</v>
+      </c>
+      <c r="H27" s="51">
+        <f>E27/F27</f>
+        <v>0.24921059023560846</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6916</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1107</v>
+      </c>
+      <c r="E28">
+        <v>372</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28+E28</f>
+        <v>1479</v>
+      </c>
+      <c r="G28" s="51">
+        <f>D28/F28</f>
+        <v>0.74847870182555776</v>
+      </c>
+      <c r="H28" s="51">
+        <f>E28/F28</f>
+        <v>0.25152129817444219</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5705</v>
+      </c>
+      <c r="D29">
+        <v>913</v>
+      </c>
+      <c r="E29">
+        <v>311</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29+E29</f>
+        <v>1224</v>
+      </c>
+      <c r="G29" s="51">
+        <f>D29/F29</f>
+        <v>0.74591503267973858</v>
+      </c>
+      <c r="H29" s="51">
+        <f>E29/F29</f>
+        <v>0.25408496732026142</v>
+      </c>
+      <c r="I29">
+        <v>2.9</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1">
         <v>30034</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D30" s="1">
         <v>4805</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E30" s="1">
         <v>1638</v>
       </c>
-      <c r="E18">
+      <c r="F30" s="1">
+        <f>D30+E30</f>
+        <v>6443</v>
+      </c>
+      <c r="G30" s="51">
+        <f>D30/F30</f>
+        <v>0.74577060375601423</v>
+      </c>
+      <c r="H30" s="51">
+        <f>E30/F30</f>
+        <v>0.25422939624398572</v>
+      </c>
+      <c r="I30">
         <v>2.9</v>
       </c>
-      <c r="F18">
+      <c r="J30">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1">
-        <v>51458</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8233</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1807</v>
-      </c>
-      <c r="E19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3608</v>
-      </c>
-      <c r="C20">
-        <v>577</v>
-      </c>
-      <c r="D20">
-        <v>463</v>
-      </c>
-      <c r="E20">
-        <v>1.2</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1">
-        <v>35601</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5696</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2211</v>
-      </c>
-      <c r="E21">
-        <v>2.6</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1">
-        <v>22778</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3644</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2979</v>
-      </c>
-      <c r="E22">
-        <v>1.2</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="1">
-        <v>67132</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10741</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E23">
-        <v>4.3</v>
-      </c>
-      <c r="F23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1">
-        <v>15422</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2468</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1982</v>
-      </c>
-      <c r="E24">
-        <v>1.2</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1">
-        <v>27902</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4464</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2484</v>
-      </c>
-      <c r="E25">
-        <v>1.8</v>
-      </c>
-      <c r="F25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3515</v>
+      </c>
+      <c r="D31">
+        <v>562</v>
+      </c>
+      <c r="E31">
+        <v>199</v>
+      </c>
+      <c r="F31" s="1">
+        <f>D31+E31</f>
+        <v>761</v>
+      </c>
+      <c r="G31" s="51">
+        <f>D31/F31</f>
+        <v>0.73850197109067017</v>
+      </c>
+      <c r="H31" s="51">
+        <f>E31/F31</f>
+        <v>0.26149802890932983</v>
+      </c>
+      <c r="I31">
+        <v>2.8</v>
+      </c>
+      <c r="J31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1">
         <v>41461</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D32" s="1">
         <v>6634</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E32" s="1">
         <v>2441</v>
       </c>
-      <c r="E26">
+      <c r="F32" s="1">
+        <f>D32+E32</f>
+        <v>9075</v>
+      </c>
+      <c r="G32" s="51">
+        <f>D32/F32</f>
+        <v>0.73101928374655645</v>
+      </c>
+      <c r="H32" s="51">
+        <f>E32/F32</f>
+        <v>0.26898071625344355</v>
+      </c>
+      <c r="I32">
         <v>2.7</v>
       </c>
-      <c r="F26">
+      <c r="J32">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4923</v>
-      </c>
-      <c r="C27">
-        <v>788</v>
-      </c>
-      <c r="D27">
-        <v>256</v>
-      </c>
-      <c r="E27">
-        <v>3.1</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1">
-        <v>7406</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1185</v>
-      </c>
-      <c r="D28">
-        <v>688</v>
-      </c>
-      <c r="E28">
-        <v>1.7</v>
-      </c>
-      <c r="F28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1">
-        <v>18265</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2922</v>
-      </c>
-      <c r="D29">
-        <v>298</v>
-      </c>
-      <c r="E29">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F29">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="1">
-        <v>4184</v>
-      </c>
-      <c r="C30">
-        <v>669</v>
-      </c>
-      <c r="D30">
-        <v>337</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="1">
-        <v>46411</v>
-      </c>
-      <c r="C31" s="1">
-        <v>7426</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4606</v>
-      </c>
-      <c r="E31">
-        <v>1.6</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1">
-        <v>15081</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2413</v>
-      </c>
-      <c r="D32">
-        <v>732</v>
-      </c>
-      <c r="E32">
-        <v>3.3</v>
-      </c>
-      <c r="F32">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1">
-        <v>92769</v>
-      </c>
       <c r="C33" s="1">
-        <v>14843</v>
+        <v>64735</v>
       </c>
       <c r="D33" s="1">
-        <v>12142</v>
-      </c>
-      <c r="E33">
-        <v>1.2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>10358</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3841</v>
+      </c>
+      <c r="F33" s="1">
+        <f>D33+E33</f>
+        <v>14199</v>
+      </c>
+      <c r="G33" s="51">
+        <f>D33/F33</f>
+        <v>0.72948799211212056</v>
+      </c>
+      <c r="H33" s="51">
+        <f>E33/F33</f>
+        <v>0.27051200788787944</v>
+      </c>
+      <c r="I33">
+        <v>2.7</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1">
-        <v>53854</v>
+      <c r="B34" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="1">
-        <v>8617</v>
+        <v>39959</v>
       </c>
       <c r="D34" s="1">
-        <v>2443</v>
-      </c>
-      <c r="E34">
-        <v>3.5</v>
-      </c>
-      <c r="F34">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>6393</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2413</v>
+      </c>
+      <c r="F34" s="1">
+        <f>D34+E34</f>
+        <v>8806</v>
+      </c>
+      <c r="G34" s="51">
+        <f>D34/F34</f>
+        <v>0.72598228480581417</v>
+      </c>
+      <c r="H34" s="51">
+        <f>E34/F34</f>
+        <v>0.27401771519418577</v>
+      </c>
+      <c r="I34">
+        <v>2.6</v>
+      </c>
+      <c r="J34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12215</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1954</v>
+      </c>
+      <c r="E35">
+        <v>744</v>
+      </c>
+      <c r="F35" s="1">
+        <f>D35+E35</f>
+        <v>2698</v>
+      </c>
+      <c r="G35" s="51">
+        <f>D35/F35</f>
+        <v>0.72424017790956263</v>
+      </c>
+      <c r="H35" s="51">
+        <f>E35/F35</f>
+        <v>0.27575982209043737</v>
+      </c>
+      <c r="I35">
+        <v>2.6</v>
+      </c>
+      <c r="J35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35601</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5696</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2211</v>
+      </c>
+      <c r="F36" s="1">
+        <f>D36+E36</f>
+        <v>7907</v>
+      </c>
+      <c r="G36" s="51">
+        <f>D36/F36</f>
+        <v>0.72037435184014165</v>
+      </c>
+      <c r="H36" s="51">
+        <f>E36/F36</f>
+        <v>0.27962564815985835</v>
+      </c>
+      <c r="I36">
+        <v>2.6</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4827</v>
+      </c>
+      <c r="D37">
+        <v>772</v>
+      </c>
+      <c r="E37">
+        <v>319</v>
+      </c>
+      <c r="F37" s="1">
+        <f>D37+E37</f>
+        <v>1091</v>
+      </c>
+      <c r="G37" s="51">
+        <f>D37/F37</f>
+        <v>0.70760769935838685</v>
+      </c>
+      <c r="H37" s="51">
+        <f>E37/F37</f>
+        <v>0.2923923006416132</v>
+      </c>
+      <c r="I37">
+        <v>2.4</v>
+      </c>
+      <c r="J37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8043</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1287</v>
+      </c>
+      <c r="E38">
+        <v>609</v>
+      </c>
+      <c r="F38" s="1">
+        <f>D38+E38</f>
+        <v>1896</v>
+      </c>
+      <c r="G38" s="51">
+        <f>D38/F38</f>
+        <v>0.67879746835443033</v>
+      </c>
+      <c r="H38" s="51">
+        <f>E38/F38</f>
+        <v>0.32120253164556961</v>
+      </c>
+      <c r="I38">
+        <v>2.1</v>
+      </c>
+      <c r="J38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4184</v>
+      </c>
+      <c r="D39">
+        <v>669</v>
+      </c>
+      <c r="E39">
+        <v>337</v>
+      </c>
+      <c r="F39" s="1">
+        <f>D39+E39</f>
+        <v>1006</v>
+      </c>
+      <c r="G39" s="51">
+        <f>D39/F39</f>
+        <v>0.66500994035785288</v>
+      </c>
+      <c r="H39" s="51">
+        <f>E39/F39</f>
+        <v>0.33499005964214712</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1">
+        <v>75507</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12081</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6128</v>
+      </c>
+      <c r="F40" s="1">
+        <f>D40+E40</f>
+        <v>18209</v>
+      </c>
+      <c r="G40" s="51">
+        <f>D40/F40</f>
+        <v>0.66346312263166562</v>
+      </c>
+      <c r="H40" s="51">
+        <f>E40/F40</f>
+        <v>0.33653687736833432</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1">
+        <v>19087</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3054</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1571</v>
+      </c>
+      <c r="F41" s="1">
+        <f>D41+E41</f>
+        <v>4625</v>
+      </c>
+      <c r="G41" s="51">
+        <f>D41/F41</f>
+        <v>0.66032432432432431</v>
+      </c>
+      <c r="H41" s="51">
+        <f>E41/F41</f>
+        <v>0.33967567567567569</v>
+      </c>
+      <c r="I41">
+        <v>1.9</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1">
+        <v>27902</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4464</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2484</v>
+      </c>
+      <c r="F42" s="1">
+        <f>D42+E42</f>
+        <v>6948</v>
+      </c>
+      <c r="G42" s="51">
+        <f>D42/F42</f>
+        <v>0.6424870466321243</v>
+      </c>
+      <c r="H42" s="51">
+        <f>E42/F42</f>
+        <v>0.35751295336787564</v>
+      </c>
+      <c r="I42">
+        <v>1.8</v>
+      </c>
+      <c r="J42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1975</v>
+      </c>
+      <c r="D43">
+        <v>316</v>
+      </c>
+      <c r="E43">
+        <v>177</v>
+      </c>
+      <c r="F43" s="1">
+        <f>D43+E43</f>
+        <v>493</v>
+      </c>
+      <c r="G43" s="51">
+        <f>D43/F43</f>
+        <v>0.64097363083164305</v>
+      </c>
+      <c r="H43" s="51">
+        <f>E43/F43</f>
+        <v>0.35902636916835701</v>
+      </c>
+      <c r="I43">
+        <v>1.8</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7406</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1185</v>
+      </c>
+      <c r="E44">
+        <v>688</v>
+      </c>
+      <c r="F44" s="1">
+        <f>D44+E44</f>
+        <v>1873</v>
+      </c>
+      <c r="G44" s="51">
+        <f>D44/F44</f>
+        <v>0.63267485317672179</v>
+      </c>
+      <c r="H44" s="51">
+        <f>E44/F44</f>
+        <v>0.36732514682327816</v>
+      </c>
+      <c r="I44">
+        <v>1.7</v>
+      </c>
+      <c r="J44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1">
+        <v>46411</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7426</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4606</v>
+      </c>
+      <c r="F45" s="1">
+        <f>D45+E45</f>
+        <v>12032</v>
+      </c>
+      <c r="G45" s="51">
+        <f>D45/F45</f>
+        <v>0.6171875</v>
+      </c>
+      <c r="H45" s="51">
+        <f>E45/F45</f>
+        <v>0.3828125</v>
+      </c>
+      <c r="I45">
+        <v>1.6</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3364</v>
+      </c>
+      <c r="D46">
+        <v>538</v>
+      </c>
+      <c r="E46">
+        <v>363</v>
+      </c>
+      <c r="F46" s="1">
+        <f>D46+E46</f>
+        <v>901</v>
+      </c>
+      <c r="G46" s="51">
+        <f>D46/F46</f>
+        <v>0.59711431742508325</v>
+      </c>
+      <c r="H46" s="51">
+        <f>E46/F46</f>
+        <v>0.40288568257491675</v>
+      </c>
+      <c r="I46">
+        <v>1.5</v>
+      </c>
+      <c r="J46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3608</v>
+      </c>
+      <c r="D47">
+        <v>577</v>
+      </c>
+      <c r="E47">
+        <v>463</v>
+      </c>
+      <c r="F47" s="1">
+        <f>D47+E47</f>
+        <v>1040</v>
+      </c>
+      <c r="G47" s="51">
+        <f>D47/F47</f>
+        <v>0.55480769230769234</v>
+      </c>
+      <c r="H47" s="51">
+        <f>E47/F47</f>
+        <v>0.44519230769230766</v>
+      </c>
+      <c r="I47">
+        <v>1.2</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15422</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2468</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1982</v>
+      </c>
+      <c r="F48" s="1">
+        <f>D48+E48</f>
+        <v>4450</v>
+      </c>
+      <c r="G48" s="51">
+        <f>D48/F48</f>
+        <v>0.55460674157303369</v>
+      </c>
+      <c r="H48" s="51">
+        <f>E48/F48</f>
+        <v>0.44539325842696631</v>
+      </c>
+      <c r="I48">
+        <v>1.2</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="1">
+        <v>22778</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3644</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2979</v>
+      </c>
+      <c r="F49" s="1">
+        <f>D49+E49</f>
+        <v>6623</v>
+      </c>
+      <c r="G49" s="51">
+        <f>D49/F49</f>
+        <v>0.55020383512003623</v>
+      </c>
+      <c r="H49" s="51">
+        <f>E49/F49</f>
+        <v>0.44979616487996377</v>
+      </c>
+      <c r="I49">
+        <v>1.2</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1">
+        <v>92769</v>
+      </c>
+      <c r="D50" s="1">
+        <v>14843</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12142</v>
+      </c>
+      <c r="F50" s="1">
+        <f>D50+E50</f>
+        <v>26985</v>
+      </c>
+      <c r="G50" s="51">
+        <f>D50/F50</f>
+        <v>0.55004632203075787</v>
+      </c>
+      <c r="H50" s="51">
+        <f>E50/F50</f>
+        <v>0.44995367796924218</v>
+      </c>
+      <c r="I50">
+        <v>1.2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1">
         <v>2288</v>
       </c>
-      <c r="C35">
+      <c r="D51">
         <v>366</v>
       </c>
-      <c r="D35">
+      <c r="E51">
         <v>365</v>
       </c>
-      <c r="E35">
+      <c r="F51" s="1">
+        <f>D51+E51</f>
+        <v>731</v>
+      </c>
+      <c r="G51" s="51">
+        <f>D51/F51</f>
+        <v>0.5006839945280438</v>
+      </c>
+      <c r="H51" s="51">
+        <f>E51/F51</f>
+        <v>0.4993160054719562</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="J51">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1">
-        <v>64123</v>
-      </c>
-      <c r="C36" s="1">
-        <v>10260</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2536</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1">
-        <v>32593</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5215</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1463</v>
-      </c>
-      <c r="E37">
-        <v>3.6</v>
-      </c>
-      <c r="F37">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="1">
-        <v>19318</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3091</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1026</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1">
-        <v>75507</v>
-      </c>
-      <c r="C39" s="1">
-        <v>12081</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6128</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3364</v>
-      </c>
-      <c r="C40">
-        <v>538</v>
-      </c>
-      <c r="D40">
-        <v>363</v>
-      </c>
-      <c r="E40">
-        <v>1.5</v>
-      </c>
-      <c r="F40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="1">
-        <v>35298</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5648</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1113</v>
-      </c>
-      <c r="E41">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4827</v>
-      </c>
-      <c r="C42">
-        <v>772</v>
-      </c>
-      <c r="D42">
-        <v>319</v>
-      </c>
-      <c r="E42">
-        <v>2.4</v>
-      </c>
-      <c r="F42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43678</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6988</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2221</v>
-      </c>
-      <c r="E43">
-        <v>3.1</v>
-      </c>
-      <c r="F43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="1">
-        <v>223195</v>
-      </c>
-      <c r="C44" s="1">
-        <v>35711</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4579</v>
-      </c>
-      <c r="E44">
-        <v>7.8</v>
-      </c>
-      <c r="F44">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1">
-        <v>11514</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1842</v>
-      </c>
-      <c r="D45">
-        <v>462</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1975</v>
-      </c>
-      <c r="C46">
-        <v>316</v>
-      </c>
-      <c r="D46">
-        <v>177</v>
-      </c>
-      <c r="E46">
-        <v>1.8</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57444</v>
-      </c>
-      <c r="C47" s="1">
-        <v>9191</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2548</v>
-      </c>
-      <c r="E47">
-        <v>3.6</v>
-      </c>
-      <c r="F47">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="1">
-        <v>29225</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4676</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1521</v>
-      </c>
-      <c r="E48">
-        <v>3.1</v>
-      </c>
-      <c r="F48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="1">
-        <v>8043</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1287</v>
-      </c>
-      <c r="D49">
-        <v>609</v>
-      </c>
-      <c r="E49">
-        <v>2.1</v>
-      </c>
-      <c r="F49">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="1">
-        <v>36154</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5785</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E50">
-        <v>3.9</v>
-      </c>
-      <c r="F50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3515</v>
-      </c>
-      <c r="C51">
-        <v>562</v>
-      </c>
-      <c r="D51">
-        <v>199</v>
-      </c>
-      <c r="E51">
-        <v>2.8</v>
-      </c>
-      <c r="F51">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:J51">
+    <sortState ref="A2:J51">
+      <sortCondition descending="1" ref="G1:G51"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/1 - Homelessness/data/Deinstitutionalization.xlsx
+++ b/1 - Homelessness/data/Deinstitutionalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35620" windowHeight="20540" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inpatient_Outpatient_Episodes" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="TableauArea" sheetId="4" r:id="rId3"/>
     <sheet name="HomicideTrends" sheetId="3" r:id="rId4"/>
     <sheet name="Prison" sheetId="5" r:id="rId5"/>
+    <sheet name="AnInstitEffect" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Prison!$A$1:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Prison!$B$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
   <si>
     <t>Number of patient care episodes</t>
   </si>
@@ -478,6 +479,396 @@
   </si>
   <si>
     <t>% HOSPITAL</t>
+  </si>
+  <si>
+    <t>prisonrate</t>
+  </si>
+  <si>
+    <t>povertyrate</t>
+  </si>
+  <si>
+    <t>unemployrate</t>
+  </si>
+  <si>
+    <t>youthpoprate</t>
+  </si>
+  <si>
+    <t>homiciderate</t>
+  </si>
+  <si>
+    <t>allresMH</t>
+  </si>
+  <si>
+    <t>sjailpop</t>
+  </si>
+  <si>
+    <t>prisonpop</t>
+  </si>
+  <si>
+    <t>adultpop</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>1/1/1934</t>
+  </si>
+  <si>
+    <t>1/1/1935</t>
+  </si>
+  <si>
+    <t>1/1/1936</t>
+  </si>
+  <si>
+    <t>1/1/1937</t>
+  </si>
+  <si>
+    <t>1/1/1938</t>
+  </si>
+  <si>
+    <t>1/1/1939</t>
+  </si>
+  <si>
+    <t>1/1/1940</t>
+  </si>
+  <si>
+    <t>1/1/1941</t>
+  </si>
+  <si>
+    <t>1/1/1942</t>
+  </si>
+  <si>
+    <t>1/1/1943</t>
+  </si>
+  <si>
+    <t>1/1/1944</t>
+  </si>
+  <si>
+    <t>1/1/1945</t>
+  </si>
+  <si>
+    <t>1/1/1946</t>
+  </si>
+  <si>
+    <t>1/1/1947</t>
+  </si>
+  <si>
+    <t>1/1/1948</t>
+  </si>
+  <si>
+    <t>1/1/1949</t>
+  </si>
+  <si>
+    <t>1/1/1950</t>
+  </si>
+  <si>
+    <t>1/1/1951</t>
+  </si>
+  <si>
+    <t>1/1/1952</t>
+  </si>
+  <si>
+    <t>1/1/1953</t>
+  </si>
+  <si>
+    <t>1/1/1954</t>
+  </si>
+  <si>
+    <t>1/1/1955</t>
+  </si>
+  <si>
+    <t>1/1/1956</t>
+  </si>
+  <si>
+    <t>1/1/1957</t>
+  </si>
+  <si>
+    <t>1/1/1958</t>
+  </si>
+  <si>
+    <t>1/1/1959</t>
+  </si>
+  <si>
+    <t>1/1/1960</t>
+  </si>
+  <si>
+    <t>1/1/1961</t>
+  </si>
+  <si>
+    <t>1/1/1962</t>
+  </si>
+  <si>
+    <t>1/1/1963</t>
+  </si>
+  <si>
+    <t>1/1/1964</t>
+  </si>
+  <si>
+    <t>1/1/1965</t>
+  </si>
+  <si>
+    <t>1/1/1966</t>
+  </si>
+  <si>
+    <t>1/1/1967</t>
+  </si>
+  <si>
+    <t>1/1/1968</t>
+  </si>
+  <si>
+    <t>1/1/1969</t>
+  </si>
+  <si>
+    <t>1/1/1970</t>
+  </si>
+  <si>
+    <t>1/1/1971</t>
+  </si>
+  <si>
+    <t>1/1/1972</t>
+  </si>
+  <si>
+    <t>1/1/1973</t>
+  </si>
+  <si>
+    <t>1/1/1974</t>
+  </si>
+  <si>
+    <t>1/1/1975</t>
+  </si>
+  <si>
+    <t>1/1/1976</t>
+  </si>
+  <si>
+    <t>1/1/1977</t>
+  </si>
+  <si>
+    <t>1/1/1978</t>
+  </si>
+  <si>
+    <t>1/1/1979</t>
+  </si>
+  <si>
+    <t>1/1/1980</t>
+  </si>
+  <si>
+    <t>1/1/1981</t>
+  </si>
+  <si>
+    <t>1/1/1982</t>
+  </si>
+  <si>
+    <t>1/1/1983</t>
+  </si>
+  <si>
+    <t>1/1/1984</t>
+  </si>
+  <si>
+    <t>1/1/1985</t>
+  </si>
+  <si>
+    <t>1/1/1986</t>
+  </si>
+  <si>
+    <t>1/1/1987</t>
+  </si>
+  <si>
+    <t>1/1/1988</t>
+  </si>
+  <si>
+    <t>1/1/1989</t>
+  </si>
+  <si>
+    <t>1/1/1990</t>
+  </si>
+  <si>
+    <t>1/1/1991</t>
+  </si>
+  <si>
+    <t>1/1/1992</t>
+  </si>
+  <si>
+    <t>1/1/1993</t>
+  </si>
+  <si>
+    <t>1/1/1994</t>
+  </si>
+  <si>
+    <t>1/1/1995</t>
+  </si>
+  <si>
+    <t>1/1/1996</t>
+  </si>
+  <si>
+    <t>1/1/1997</t>
+  </si>
+  <si>
+    <t>1/1/1998</t>
+  </si>
+  <si>
+    <t>1/1/1999</t>
+  </si>
+  <si>
+    <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>1/1/2001</t>
+  </si>
+  <si>
+    <t>1/1/NEVADA</t>
+  </si>
+  <si>
+    <t>1/1/ARIZONA</t>
+  </si>
+  <si>
+    <t>1/1/TEXAS</t>
+  </si>
+  <si>
+    <t>1/1/GEORGIA</t>
+  </si>
+  <si>
+    <t>1/1/SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>1/1/FLORIDA</t>
+  </si>
+  <si>
+    <t>1/1/LOUISIANA</t>
+  </si>
+  <si>
+    <t>1/1/IDAHO</t>
+  </si>
+  <si>
+    <t>1/1/MICHIGAN</t>
+  </si>
+  <si>
+    <t>1/1/COLORADO</t>
+  </si>
+  <si>
+    <t>1/1/OHIO</t>
+  </si>
+  <si>
+    <t>1/1/ALABAMA</t>
+  </si>
+  <si>
+    <t>1/1/UTAH</t>
+  </si>
+  <si>
+    <t>1/1/WISCONSIN</t>
+  </si>
+  <si>
+    <t>1/1/CALIFORNIA</t>
+  </si>
+  <si>
+    <t>1/1/ALASKA</t>
+  </si>
+  <si>
+    <t>1/1/VIRGINIA</t>
+  </si>
+  <si>
+    <t>1/1/OKLAHOMA</t>
+  </si>
+  <si>
+    <t>1/1/NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>1/1/KANSAS</t>
+  </si>
+  <si>
+    <t>1/1/NEW MEXICO</t>
+  </si>
+  <si>
+    <t>1/1/ARKANSAS</t>
+  </si>
+  <si>
+    <t>1/1/TENNESSEE</t>
+  </si>
+  <si>
+    <t>1/1/MONTANA</t>
+  </si>
+  <si>
+    <t>1/1/WASHINGTON</t>
+  </si>
+  <si>
+    <t>1/1/OREGON</t>
+  </si>
+  <si>
+    <t>1/1/DELAWARE</t>
+  </si>
+  <si>
+    <t>1/1/HAWAII</t>
+  </si>
+  <si>
+    <t>1/1/KENTUCKY</t>
+  </si>
+  <si>
+    <t>1/1/WYOMING</t>
+  </si>
+  <si>
+    <t>1/1/MISSOURI</t>
+  </si>
+  <si>
+    <t>1/1/ILLINOIS</t>
+  </si>
+  <si>
+    <t>1/1/INDIANA</t>
+  </si>
+  <si>
+    <t>1/1/IOWA</t>
+  </si>
+  <si>
+    <t>1/1/MARYLAND</t>
+  </si>
+  <si>
+    <t>1/1/SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>1/1/WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>1/1/NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>1/1/PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>1/1/CONNECTICUT</t>
+  </si>
+  <si>
+    <t>1/1/MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>1/1/VERMONT</t>
+  </si>
+  <si>
+    <t>1/1/NEBRASKA</t>
+  </si>
+  <si>
+    <t>1/1/NEW JERSEY</t>
+  </si>
+  <si>
+    <t>1/1/RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>1/1/MAINE</t>
+  </si>
+  <si>
+    <t>1/1/MINNESOTA</t>
+  </si>
+  <si>
+    <t>1/1/MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>1/1/NEW YORK</t>
+  </si>
+  <si>
+    <t>1/1/NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>1/1/</t>
+  </si>
+  <si>
+    <t>yeardate</t>
   </si>
 </sst>
 </file>
@@ -487,7 +878,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -840,52 +1238,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -894,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -913,16 +1318,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -938,15 +1350,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -959,6 +1365,9 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -971,8 +1380,12 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1151,11 +1564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113200008"/>
-        <c:axId val="2113197080"/>
+        <c:axId val="2099972072"/>
+        <c:axId val="2099974984"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2113200008"/>
+        <c:axId val="2099972072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113197080"/>
+        <c:crossAx val="2099974984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113197080"/>
+        <c:axId val="2099974984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1605,1442 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113200008"/>
+        <c:crossAx val="2099972072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnInstitEffect!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prisonpop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>AnInstitEffect!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1934.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1935.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1936.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1937.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1939.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1940.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1941.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1942.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1943.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1946.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1947.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1948.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1949.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1950.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1951.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1952.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1953.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1954.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1955.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1956.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1957.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1958.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1959.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1960.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1962.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1963.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1964.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AnInstitEffect!$C$2:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>136126.09375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140093.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138610.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145345.40625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151136.796875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153170.703125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151500.59375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144432.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132069.40625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120465.203125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114320.1015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114649.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122667.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134316.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139905.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146947.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148626.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145987.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147831.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151580.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>160134.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162961.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166477.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172948.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>182030.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>183031.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>187887.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>194501.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>193097.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>192311.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>190994.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>188507.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>178867.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>174049.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>173865.296875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>178402.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>177048.296875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>174513.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>171970.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>179203.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>194033.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>214160.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>245950.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>257943.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>274609.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>285113.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>302313.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>338318.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>380052.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>400585.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>423218.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>455880.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>493946.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>529139.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>568841.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>643239.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>698446.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>743496.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>791366.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>868869.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>948719.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.015824E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.066999E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.118333E6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.166226E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.219803E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.238389E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.247039E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnInstitEffect!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sjailpop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>AnInstitEffect!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1934.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1935.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1936.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1937.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1939.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1940.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1941.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1942.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1943.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1946.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1947.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1948.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1949.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1950.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1951.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1952.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1953.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1954.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1955.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1956.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1957.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1958.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1959.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1960.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1962.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1963.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1964.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AnInstitEffect!$D$2:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>57994.4296875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64790.859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71587.2890625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78383.7109375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85180.140625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91976.5703125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98773.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97436.3984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96099.796875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94763.203125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93426.6015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92090.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90753.3984375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89416.796875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88080.203125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86743.6015625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85407.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88679.8984375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91952.796875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95225.703125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98498.6015625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101771.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105044.3984375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108317.296875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111590.203125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>114863.1015625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118235.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120185.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124336.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128487.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132638.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>136789.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>140940.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145091.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149242.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153393.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157544.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157455.09375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>157388.296875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>157321.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>157254.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>157187.59375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>157120.796875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>157053.90625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>156987.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>169731.203125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>182475.40625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>195219.59375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>207963.796875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>220708.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>244941.59375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269175.1875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>293408.8125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>317642.40625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>341876.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>365124.1875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>388372.40625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>411620.59375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>434868.8125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>458117.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>482479.1875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>506841.3125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>531203.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>555565.6875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>579927.8125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>604290.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>627571.1875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>650852.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnInstitEffect!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>allresMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>AnInstitEffect!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1934.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1935.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1936.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1937.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1939.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1940.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1941.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1942.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1943.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1946.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1947.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1948.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1949.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1950.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1951.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1952.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1953.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1954.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1955.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1956.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1957.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1958.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1959.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1960.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1962.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1963.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1964.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AnInstitEffect!$E$2:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>488397.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>503538.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520657.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>541776.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>558108.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>574049.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579688.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>595001.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>610232.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>611794.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>623378.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>638785.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>649047.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>666136.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>681555.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>644381.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>661083.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>670558.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>682906.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700228.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>713090.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>722804.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>718849.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>718229.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>721023.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>721254.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>714467.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>714985.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>711808.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>702226.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>692508.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>686389.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>655577.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>612282.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>583585.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>506533.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>451644.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>429012.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>406380.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>367564.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>330401.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>287368.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>250208.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>230146.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>208726.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>204505.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>201211.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>190103.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>183778.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>174577.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>164797.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159578.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>155652.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>153887.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150413.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>146942.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>138475.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>132051.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>123211.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>116138.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>107976.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97274.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>94656.72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>91457.13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90293.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>86126.55</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>83858.95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79622.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2021335096"/>
+        <c:axId val="2114704152"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="2021335096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2114704152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114704152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2021335096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1232,6 +3080,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1583,34 +3466,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="61" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -1648,19 +3531,19 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="14">
@@ -1840,19 +3723,19 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
@@ -2030,19 +3913,19 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
@@ -2220,19 +4103,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="61" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3377,7 +5260,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4295,56 +6178,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="6" width="14.5" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="150">
+    <row r="1" spans="1:11" ht="150">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
       <c r="C2" s="1">
         <v>18265</v>
@@ -4355,31 +6247,34 @@
       <c r="E2">
         <v>298</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1">
         <f>D2+E2</f>
         <v>3220</v>
       </c>
-      <c r="G2" s="51">
-        <f>D2/F2</f>
+      <c r="H2" s="46">
+        <f>D2/G2</f>
         <v>0.90745341614906827</v>
       </c>
-      <c r="H2" s="51">
-        <f>E2/F2</f>
+      <c r="I2" s="46">
+        <f>E2/G2</f>
         <v>9.2546583850931674E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>47974</v>
@@ -4390,31 +6285,34 @@
       <c r="E3">
         <v>827</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
         <f>D3+E3</f>
         <v>8503</v>
       </c>
-      <c r="G3" s="51">
-        <f>D3/F3</f>
+      <c r="H3" s="46">
+        <f>D3/G3</f>
         <v>0.90274020933788079</v>
       </c>
-      <c r="H3" s="51">
-        <f>E3/F3</f>
+      <c r="I3" s="46">
+        <f>E3/G3</f>
         <v>9.7259790662119247E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
       </c>
       <c r="C4" s="1">
         <v>223195</v>
@@ -4425,31 +6323,34 @@
       <c r="E4" s="1">
         <v>4579</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="1">
         <f>D4+E4</f>
         <v>40290</v>
       </c>
-      <c r="G4" s="51">
-        <f>D4/F4</f>
+      <c r="H4" s="46">
+        <f>D4/G4</f>
         <v>0.88634896996773394</v>
       </c>
-      <c r="H4" s="51">
-        <f>E4/F4</f>
+      <c r="I4" s="46">
+        <f>E4/G4</f>
         <v>0.11365103003226606</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.8</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>92647</v>
@@ -4460,31 +6361,34 @@
       <c r="E5" s="1">
         <v>2921</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
         <f>D5+E5</f>
         <v>17745</v>
       </c>
-      <c r="G5" s="51">
-        <f>D5/F5</f>
+      <c r="H5" s="46">
+        <f>D5/G5</f>
         <v>0.83539025077486617</v>
       </c>
-      <c r="H5" s="51">
-        <f>E5/F5</f>
+      <c r="I5" s="46">
+        <f>E5/G5</f>
         <v>0.16460974922513383</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>35298</v>
@@ -4495,31 +6399,34 @@
       <c r="E6" s="1">
         <v>1113</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1">
         <f>D6+E6</f>
         <v>6761</v>
       </c>
-      <c r="G6" s="51">
-        <f>D6/F6</f>
+      <c r="H6" s="46">
+        <f>D6/G6</f>
         <v>0.8353793817482621</v>
       </c>
-      <c r="H6" s="51">
-        <f>E6/F6</f>
+      <c r="I6" s="46">
+        <f>E6/G6</f>
         <v>0.1646206182517379</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>148521</v>
@@ -4530,31 +6437,34 @@
       <c r="E7" s="1">
         <v>4826</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1">
         <f>D7+E7</f>
         <v>28589</v>
       </c>
-      <c r="G7" s="51">
-        <f>D7/F7</f>
+      <c r="H7" s="46">
+        <f>D7/G7</f>
         <v>0.831193815803281</v>
       </c>
-      <c r="H7" s="51">
-        <f>E7/F7</f>
+      <c r="I7" s="46">
+        <f>E7/G7</f>
         <v>0.16880618419671903</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>51458</v>
@@ -4565,31 +6475,34 @@
       <c r="E8" s="1">
         <v>1807</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1">
         <f>D8+E8</f>
         <v>10040</v>
       </c>
-      <c r="G8" s="51">
-        <f>D8/F8</f>
+      <c r="H8" s="46">
+        <f>D8/G8</f>
         <v>0.82001992031872506</v>
       </c>
-      <c r="H8" s="51">
-        <f>E8/F8</f>
+      <c r="I8" s="46">
+        <f>E8/G8</f>
         <v>0.17998007968127491</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
       </c>
       <c r="C9" s="1">
         <v>11206</v>
@@ -4600,31 +6513,34 @@
       <c r="E9">
         <v>394</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1">
         <f>D9+E9</f>
         <v>2187</v>
       </c>
-      <c r="G9" s="51">
-        <f>D9/F9</f>
+      <c r="H9" s="46">
+        <f>D9/G9</f>
         <v>0.81984453589391859</v>
       </c>
-      <c r="H9" s="51">
-        <f>E9/F9</f>
+      <c r="I9" s="46">
+        <f>E9/G9</f>
         <v>0.18015546410608138</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
       </c>
       <c r="C10" s="1">
         <v>67132</v>
@@ -4635,31 +6551,34 @@
       <c r="E10" s="1">
         <v>2496</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1">
         <f>D10+E10</f>
         <v>13237</v>
       </c>
-      <c r="G10" s="51">
-        <f>D10/F10</f>
+      <c r="H10" s="46">
+        <f>D10/G10</f>
         <v>0.81143763692679605</v>
       </c>
-      <c r="H10" s="51">
-        <f>E10/F10</f>
+      <c r="I10" s="46">
+        <f>E10/G10</f>
         <v>0.1885623630732039</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>33955</v>
@@ -4670,31 +6589,34 @@
       <c r="E11" s="1">
         <v>1325</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
         <f>D11+E11</f>
         <v>6758</v>
       </c>
-      <c r="G11" s="51">
-        <f>D11/F11</f>
+      <c r="H11" s="46">
+        <f>D11/G11</f>
         <v>0.80393607576205983</v>
       </c>
-      <c r="H11" s="51">
-        <f>E11/F11</f>
+      <c r="I11" s="46">
+        <f>E11/G11</f>
         <v>0.19606392423794022</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
       </c>
       <c r="C12" s="1">
         <v>64123</v>
@@ -4705,31 +6627,34 @@
       <c r="E12" s="1">
         <v>2536</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="1">
         <f>D12+E12</f>
         <v>12796</v>
       </c>
-      <c r="G12" s="51">
-        <f>D12/F12</f>
+      <c r="H12" s="46">
+        <f>D12/G12</f>
         <v>0.80181306658330731</v>
       </c>
-      <c r="H12" s="51">
-        <f>E12/F12</f>
+      <c r="I12" s="46">
+        <f>E12/G12</f>
         <v>0.19818693341669272</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>40561</v>
@@ -4740,31 +6665,34 @@
       <c r="E13" s="1">
         <v>1609</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1">
         <f>D13+E13</f>
         <v>8099</v>
       </c>
-      <c r="G13" s="51">
-        <f>D13/F13</f>
+      <c r="H13" s="46">
+        <f>D13/G13</f>
         <v>0.80133349796271147</v>
       </c>
-      <c r="H13" s="51">
-        <f>E13/F13</f>
+      <c r="I13" s="46">
+        <f>E13/G13</f>
         <v>0.19866650203728856</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
       </c>
       <c r="C14" s="1">
         <v>11514</v>
@@ -4775,31 +6703,34 @@
       <c r="E14">
         <v>462</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="1">
         <f>D14+E14</f>
         <v>2304</v>
       </c>
-      <c r="G14" s="51">
-        <f>D14/F14</f>
+      <c r="H14" s="46">
+        <f>D14/G14</f>
         <v>0.79947916666666663</v>
       </c>
-      <c r="H14" s="51">
-        <f>E14/F14</f>
+      <c r="I14" s="46">
+        <f>E14/G14</f>
         <v>0.20052083333333334</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
         <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
       </c>
       <c r="C15" s="1">
         <v>36154</v>
@@ -4810,31 +6741,34 @@
       <c r="E15" s="1">
         <v>1500</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="1">
         <f>D15+E15</f>
         <v>7285</v>
       </c>
-      <c r="G15" s="51">
-        <f>D15/F15</f>
+      <c r="H15" s="46">
+        <f>D15/G15</f>
         <v>0.79409746053534658</v>
       </c>
-      <c r="H15" s="51">
-        <f>E15/F15</f>
+      <c r="I15" s="46">
+        <f>E15/G15</f>
         <v>0.20590253946465339</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.9</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>246317</v>
@@ -4845,31 +6779,34 @@
       <c r="E16" s="1">
         <v>10295</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
         <f>D16+E16</f>
         <v>49706</v>
       </c>
-      <c r="G16" s="51">
-        <f>D16/F16</f>
+      <c r="H16" s="46">
+        <f>D16/G16</f>
         <v>0.7928821470245041</v>
       </c>
-      <c r="H16" s="51">
-        <f>E16/F16</f>
+      <c r="I16" s="46">
+        <f>E16/G16</f>
         <v>0.20711785297549593</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.8</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>4678</v>
@@ -4880,31 +6817,34 @@
       <c r="E17">
         <v>206</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1">
         <f>D17+E17</f>
         <v>954</v>
       </c>
-      <c r="G17" s="51">
-        <f>D17/F17</f>
+      <c r="H17" s="46">
+        <f>D17/G17</f>
         <v>0.78406708595387842</v>
       </c>
-      <c r="H17" s="51">
-        <f>E17/F17</f>
+      <c r="I17" s="46">
+        <f>E17/G17</f>
         <v>0.21593291404612158</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.6</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
         <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
       </c>
       <c r="C18" s="1">
         <v>57444</v>
@@ -4915,31 +6855,34 @@
       <c r="E18" s="1">
         <v>2548</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="1">
         <f>D18+E18</f>
         <v>11739</v>
       </c>
-      <c r="G18" s="51">
-        <f>D18/F18</f>
+      <c r="H18" s="46">
+        <f>D18/G18</f>
         <v>0.78294573643410847</v>
       </c>
-      <c r="H18" s="51">
-        <f>E18/F18</f>
+      <c r="I18" s="46">
+        <f>E18/G18</f>
         <v>0.21705426356589147</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3.6</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
         <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
       </c>
       <c r="C19" s="1">
         <v>32593</v>
@@ -4950,31 +6893,34 @@
       <c r="E19" s="1">
         <v>1463</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="1">
         <f>D19+E19</f>
         <v>6678</v>
       </c>
-      <c r="G19" s="51">
-        <f>D19/F19</f>
+      <c r="H19" s="46">
+        <f>D19/G19</f>
         <v>0.7809224318658281</v>
       </c>
-      <c r="H19" s="51">
-        <f>E19/F19</f>
+      <c r="I19" s="46">
+        <f>E19/G19</f>
         <v>0.2190775681341719</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.6</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
       </c>
       <c r="C20" s="1">
         <v>53854</v>
@@ -4985,31 +6931,34 @@
       <c r="E20" s="1">
         <v>2443</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="1">
         <f>D20+E20</f>
         <v>11060</v>
       </c>
-      <c r="G20" s="51">
-        <f>D20/F20</f>
+      <c r="H20" s="46">
+        <f>D20/G20</f>
         <v>0.77911392405063296</v>
       </c>
-      <c r="H20" s="51">
-        <f>E20/F20</f>
+      <c r="I20" s="46">
+        <f>E20/G20</f>
         <v>0.2208860759493671</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="1">
         <v>15972</v>
@@ -5020,31 +6969,34 @@
       <c r="E21">
         <v>732</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="1">
         <f>D21+E21</f>
         <v>3288</v>
       </c>
-      <c r="G21" s="51">
-        <f>D21/F21</f>
+      <c r="H21" s="46">
+        <f>D21/G21</f>
         <v>0.77737226277372262</v>
       </c>
-      <c r="H21" s="51">
-        <f>E21/F21</f>
+      <c r="I21" s="46">
+        <f>E21/G21</f>
         <v>0.22262773722627738</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.5</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
       </c>
       <c r="C22" s="1">
         <v>15081</v>
@@ -5055,31 +7007,34 @@
       <c r="E22">
         <v>732</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="1">
         <f>D22+E22</f>
         <v>3145</v>
       </c>
-      <c r="G22" s="51">
-        <f>D22/F22</f>
+      <c r="H22" s="46">
+        <f>D22/G22</f>
         <v>0.76724960254372021</v>
       </c>
-      <c r="H22" s="51">
-        <f>E22/F22</f>
+      <c r="I22" s="46">
+        <f>E22/G22</f>
         <v>0.23275039745627982</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>18693</v>
@@ -5090,31 +7045,34 @@
       <c r="E23">
         <v>920</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1">
         <f>D23+E23</f>
         <v>3911</v>
       </c>
-      <c r="G23" s="51">
-        <f>D23/F23</f>
+      <c r="H23" s="46">
+        <f>D23/G23</f>
         <v>0.76476604448990027</v>
       </c>
-      <c r="H23" s="51">
-        <f>E23/F23</f>
+      <c r="I23" s="46">
+        <f>E23/G23</f>
         <v>0.23523395551009971</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.3</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s">
         <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
       </c>
       <c r="C24" s="1">
         <v>43678</v>
@@ -5125,31 +7083,34 @@
       <c r="E24" s="1">
         <v>2221</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="1">
         <f>D24+E24</f>
         <v>9209</v>
       </c>
-      <c r="G24" s="51">
-        <f>D24/F24</f>
+      <c r="H24" s="46">
+        <f>D24/G24</f>
         <v>0.75882289065045061</v>
       </c>
-      <c r="H24" s="51">
-        <f>E24/F24</f>
+      <c r="I24" s="46">
+        <f>E24/G24</f>
         <v>0.24117710934954936</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.1</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>4923</v>
@@ -5160,31 +7121,34 @@
       <c r="E25">
         <v>256</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="1">
         <f>D25+E25</f>
         <v>1044</v>
       </c>
-      <c r="G25" s="51">
-        <f>D25/F25</f>
+      <c r="H25" s="46">
+        <f>D25/G25</f>
         <v>0.75478927203065138</v>
       </c>
-      <c r="H25" s="51">
-        <f>E25/F25</f>
+      <c r="I25" s="46">
+        <f>E25/G25</f>
         <v>0.24521072796934865</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3.1</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
         <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>134</v>
       </c>
       <c r="C26" s="1">
         <v>29225</v>
@@ -5195,31 +7159,34 @@
       <c r="E26" s="1">
         <v>1521</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="1">
         <f>D26+E26</f>
         <v>6197</v>
       </c>
-      <c r="G26" s="51">
-        <f>D26/F26</f>
+      <c r="H26" s="46">
+        <f>D26/G26</f>
         <v>0.75455865741487815</v>
       </c>
-      <c r="H26" s="51">
-        <f>E26/F26</f>
+      <c r="I26" s="46">
+        <f>E26/G26</f>
         <v>0.24544134258512185</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3.1</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
       </c>
       <c r="C27" s="1">
         <v>19318</v>
@@ -5230,31 +7197,34 @@
       <c r="E27" s="1">
         <v>1026</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="1">
         <f>D27+E27</f>
         <v>4117</v>
       </c>
-      <c r="G27" s="51">
-        <f>D27/F27</f>
+      <c r="H27" s="46">
+        <f>D27/G27</f>
         <v>0.75078940976439157</v>
       </c>
-      <c r="H27" s="51">
-        <f>E27/F27</f>
+      <c r="I27" s="46">
+        <f>E27/G27</f>
         <v>0.24921059023560846</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>6916</v>
@@ -5265,31 +7235,34 @@
       <c r="E28">
         <v>372</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1">
         <f>D28+E28</f>
         <v>1479</v>
       </c>
-      <c r="G28" s="51">
-        <f>D28/F28</f>
+      <c r="H28" s="46">
+        <f>D28/G28</f>
         <v>0.74847870182555776</v>
       </c>
-      <c r="H28" s="51">
-        <f>E28/F28</f>
+      <c r="I28" s="46">
+        <f>E28/G28</f>
         <v>0.25152129817444219</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
       </c>
       <c r="C29" s="1">
         <v>5705</v>
@@ -5300,31 +7273,34 @@
       <c r="E29">
         <v>311</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="1">
         <f>D29+E29</f>
         <v>1224</v>
       </c>
-      <c r="G29" s="51">
-        <f>D29/F29</f>
+      <c r="H29" s="46">
+        <f>D29/G29</f>
         <v>0.74591503267973858</v>
       </c>
-      <c r="H29" s="51">
-        <f>E29/F29</f>
+      <c r="I29" s="46">
+        <f>E29/G29</f>
         <v>0.25408496732026142</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.9</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
       </c>
       <c r="C30" s="1">
         <v>30034</v>
@@ -5335,31 +7311,34 @@
       <c r="E30" s="1">
         <v>1638</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1">
         <f>D30+E30</f>
         <v>6443</v>
       </c>
-      <c r="G30" s="51">
-        <f>D30/F30</f>
+      <c r="H30" s="46">
+        <f>D30/G30</f>
         <v>0.74577060375601423</v>
       </c>
-      <c r="H30" s="51">
-        <f>E30/F30</f>
+      <c r="I30" s="46">
+        <f>E30/G30</f>
         <v>0.25422939624398572</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.9</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" t="s">
         <v>139</v>
-      </c>
-      <c r="B31" t="s">
-        <v>140</v>
       </c>
       <c r="C31" s="1">
         <v>3515</v>
@@ -5370,31 +7349,34 @@
       <c r="E31">
         <v>199</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="1">
         <f>D31+E31</f>
         <v>761</v>
       </c>
-      <c r="G31" s="51">
-        <f>D31/F31</f>
+      <c r="H31" s="46">
+        <f>D31/G31</f>
         <v>0.73850197109067017</v>
       </c>
-      <c r="H31" s="51">
-        <f>E31/F31</f>
+      <c r="I31" s="46">
+        <f>E31/G31</f>
         <v>0.26149802890932983</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.8</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
         <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
       </c>
       <c r="C32" s="1">
         <v>41461</v>
@@ -5405,31 +7387,34 @@
       <c r="E32" s="1">
         <v>2441</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1">
         <f>D32+E32</f>
         <v>9075</v>
       </c>
-      <c r="G32" s="51">
-        <f>D32/F32</f>
+      <c r="H32" s="46">
+        <f>D32/G32</f>
         <v>0.73101928374655645</v>
       </c>
-      <c r="H32" s="51">
-        <f>E32/F32</f>
+      <c r="I32" s="46">
+        <f>E32/G32</f>
         <v>0.26898071625344355</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2.7</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
       </c>
       <c r="C33" s="1">
         <v>64735</v>
@@ -5440,31 +7425,34 @@
       <c r="E33" s="1">
         <v>3841</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="1">
         <f>D33+E33</f>
         <v>14199</v>
       </c>
-      <c r="G33" s="51">
-        <f>D33/F33</f>
+      <c r="H33" s="46">
+        <f>D33/G33</f>
         <v>0.72948799211212056</v>
       </c>
-      <c r="H33" s="51">
-        <f>E33/F33</f>
+      <c r="I33" s="46">
+        <f>E33/G33</f>
         <v>0.27051200788787944</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.7</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
       <c r="C34" s="1">
         <v>39959</v>
@@ -5475,31 +7463,34 @@
       <c r="E34" s="1">
         <v>2413</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="1">
         <f>D34+E34</f>
         <v>8806</v>
       </c>
-      <c r="G34" s="51">
-        <f>D34/F34</f>
+      <c r="H34" s="46">
+        <f>D34/G34</f>
         <v>0.72598228480581417</v>
       </c>
-      <c r="H34" s="51">
-        <f>E34/F34</f>
+      <c r="I34" s="46">
+        <f>E34/G34</f>
         <v>0.27401771519418577</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.6</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>12215</v>
@@ -5510,31 +7501,34 @@
       <c r="E35">
         <v>744</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1">
         <f>D35+E35</f>
         <v>2698</v>
       </c>
-      <c r="G35" s="51">
-        <f>D35/F35</f>
+      <c r="H35" s="46">
+        <f>D35/G35</f>
         <v>0.72424017790956263</v>
       </c>
-      <c r="H35" s="51">
-        <f>E35/F35</f>
+      <c r="I35" s="46">
+        <f>E35/G35</f>
         <v>0.27575982209043737</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.6</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
       </c>
       <c r="C36" s="1">
         <v>35601</v>
@@ -5545,31 +7539,34 @@
       <c r="E36" s="1">
         <v>2211</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1">
         <f>D36+E36</f>
         <v>7907</v>
       </c>
-      <c r="G36" s="51">
-        <f>D36/F36</f>
+      <c r="H36" s="46">
+        <f>D36/G36</f>
         <v>0.72037435184014165</v>
       </c>
-      <c r="H36" s="51">
-        <f>E36/F36</f>
+      <c r="I36" s="46">
+        <f>E36/G36</f>
         <v>0.27962564815985835</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.6</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
         <v>121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
       </c>
       <c r="C37" s="1">
         <v>4827</v>
@@ -5580,31 +7577,34 @@
       <c r="E37">
         <v>319</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="1">
         <f>D37+E37</f>
         <v>1091</v>
       </c>
-      <c r="G37" s="51">
-        <f>D37/F37</f>
+      <c r="H37" s="46">
+        <f>D37/G37</f>
         <v>0.70760769935838685</v>
       </c>
-      <c r="H37" s="51">
-        <f>E37/F37</f>
+      <c r="I37" s="46">
+        <f>E37/G37</f>
         <v>0.2923923006416132</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>2.4</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" t="s">
         <v>135</v>
-      </c>
-      <c r="B38" t="s">
-        <v>136</v>
       </c>
       <c r="C38" s="1">
         <v>8043</v>
@@ -5615,31 +7615,34 @@
       <c r="E38">
         <v>609</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="1">
         <f>D38+E38</f>
         <v>1896</v>
       </c>
-      <c r="G38" s="51">
-        <f>D38/F38</f>
+      <c r="H38" s="46">
+        <f>D38/G38</f>
         <v>0.67879746835443033</v>
       </c>
-      <c r="H38" s="51">
-        <f>E38/F38</f>
+      <c r="I38" s="46">
+        <f>E38/G38</f>
         <v>0.32120253164556961</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2.1</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
       </c>
       <c r="C39" s="1">
         <v>4184</v>
@@ -5650,31 +7653,34 @@
       <c r="E39">
         <v>337</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="1">
         <f>D39+E39</f>
         <v>1006</v>
       </c>
-      <c r="G39" s="51">
-        <f>D39/F39</f>
+      <c r="H39" s="46">
+        <f>D39/G39</f>
         <v>0.66500994035785288</v>
       </c>
-      <c r="H39" s="51">
-        <f>E39/F39</f>
+      <c r="I39" s="46">
+        <f>E39/G39</f>
         <v>0.33499005964214712</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" t="s">
         <v>115</v>
-      </c>
-      <c r="B40" t="s">
-        <v>116</v>
       </c>
       <c r="C40" s="1">
         <v>75507</v>
@@ -5685,31 +7691,34 @@
       <c r="E40" s="1">
         <v>6128</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="1">
         <f>D40+E40</f>
         <v>18209</v>
       </c>
-      <c r="G40" s="51">
-        <f>D40/F40</f>
+      <c r="H40" s="46">
+        <f>D40/G40</f>
         <v>0.66346312263166562</v>
       </c>
-      <c r="H40" s="51">
-        <f>E40/F40</f>
+      <c r="I40" s="46">
+        <f>E40/G40</f>
         <v>0.33653687736833432</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
       </c>
       <c r="J40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" t="s">
         <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
       </c>
       <c r="C41" s="1">
         <v>19087</v>
@@ -5720,31 +7729,34 @@
       <c r="E41" s="1">
         <v>1571</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="1">
         <f>D41+E41</f>
         <v>4625</v>
       </c>
-      <c r="G41" s="51">
-        <f>D41/F41</f>
+      <c r="H41" s="46">
+        <f>D41/G41</f>
         <v>0.66032432432432431</v>
       </c>
-      <c r="H41" s="51">
-        <f>E41/F41</f>
+      <c r="I41" s="46">
+        <f>E41/G41</f>
         <v>0.33967567567567569</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1.9</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
       </c>
       <c r="C42" s="1">
         <v>27902</v>
@@ -5755,31 +7767,34 @@
       <c r="E42" s="1">
         <v>2484</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="1">
         <f>D42+E42</f>
         <v>6948</v>
       </c>
-      <c r="G42" s="51">
-        <f>D42/F42</f>
+      <c r="H42" s="46">
+        <f>D42/G42</f>
         <v>0.6424870466321243</v>
       </c>
-      <c r="H42" s="51">
-        <f>E42/F42</f>
+      <c r="I42" s="46">
+        <f>E42/G42</f>
         <v>0.35751295336787564</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1.8</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
         <v>129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
       </c>
       <c r="C43" s="1">
         <v>1975</v>
@@ -5790,31 +7805,34 @@
       <c r="E43">
         <v>177</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="1">
         <f>D43+E43</f>
         <v>493</v>
       </c>
-      <c r="G43" s="51">
-        <f>D43/F43</f>
+      <c r="H43" s="46">
+        <f>D43/G43</f>
         <v>0.64097363083164305</v>
       </c>
-      <c r="H43" s="51">
-        <f>E43/F43</f>
+      <c r="I43" s="46">
+        <f>E43/G43</f>
         <v>0.35902636916835701</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1.8</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="1">
         <v>7406</v>
@@ -5825,31 +7843,34 @@
       <c r="E44">
         <v>688</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="1">
         <f>D44+E44</f>
         <v>1873</v>
       </c>
-      <c r="G44" s="51">
-        <f>D44/F44</f>
+      <c r="H44" s="46">
+        <f>D44/G44</f>
         <v>0.63267485317672179</v>
       </c>
-      <c r="H44" s="51">
-        <f>E44/F44</f>
+      <c r="I44" s="46">
+        <f>E44/G44</f>
         <v>0.36732514682327816</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1.7</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>100</v>
       </c>
       <c r="C45" s="1">
         <v>46411</v>
@@ -5860,31 +7881,34 @@
       <c r="E45" s="1">
         <v>4606</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
         <f>D45+E45</f>
         <v>12032</v>
       </c>
-      <c r="G45" s="51">
-        <f>D45/F45</f>
+      <c r="H45" s="46">
+        <f>D45/G45</f>
         <v>0.6171875</v>
       </c>
-      <c r="H45" s="51">
-        <f>E45/F45</f>
+      <c r="I45" s="46">
+        <f>E45/G45</f>
         <v>0.3828125</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1.6</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
       </c>
       <c r="C46" s="1">
         <v>3364</v>
@@ -5895,31 +7919,34 @@
       <c r="E46">
         <v>363</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="1">
         <f>D46+E46</f>
         <v>901</v>
       </c>
-      <c r="G46" s="51">
-        <f>D46/F46</f>
+      <c r="H46" s="46">
+        <f>D46/G46</f>
         <v>0.59711431742508325</v>
       </c>
-      <c r="H46" s="51">
-        <f>E46/F46</f>
+      <c r="I46" s="46">
+        <f>E46/G46</f>
         <v>0.40288568257491675</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1.5</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
       </c>
       <c r="C47" s="1">
         <v>3608</v>
@@ -5930,31 +7957,34 @@
       <c r="E47">
         <v>463</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="1">
         <f>D47+E47</f>
         <v>1040</v>
       </c>
-      <c r="G47" s="51">
-        <f>D47/F47</f>
+      <c r="H47" s="46">
+        <f>D47/G47</f>
         <v>0.55480769230769234</v>
       </c>
-      <c r="H47" s="51">
-        <f>E47/F47</f>
+      <c r="I47" s="46">
+        <f>E47/G47</f>
         <v>0.44519230769230766</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>1.2</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
         <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
       </c>
       <c r="C48" s="1">
         <v>15422</v>
@@ -5965,31 +7995,34 @@
       <c r="E48" s="1">
         <v>1982</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="1">
         <f>D48+E48</f>
         <v>4450</v>
       </c>
-      <c r="G48" s="51">
-        <f>D48/F48</f>
+      <c r="H48" s="46">
+        <f>D48/G48</f>
         <v>0.55460674157303369</v>
       </c>
-      <c r="H48" s="51">
-        <f>E48/F48</f>
+      <c r="I48" s="46">
+        <f>E48/G48</f>
         <v>0.44539325842696631</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1.2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
       </c>
       <c r="C49" s="1">
         <v>22778</v>
@@ -6000,31 +8033,34 @@
       <c r="E49" s="1">
         <v>2979</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="1">
         <f>D49+E49</f>
         <v>6623</v>
       </c>
-      <c r="G49" s="51">
-        <f>D49/F49</f>
+      <c r="H49" s="46">
+        <f>D49/G49</f>
         <v>0.55020383512003623</v>
       </c>
-      <c r="H49" s="51">
-        <f>E49/F49</f>
+      <c r="I49" s="46">
+        <f>E49/G49</f>
         <v>0.44979616487996377</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.2</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
       </c>
       <c r="C50" s="1">
         <v>92769</v>
@@ -6035,31 +8071,34 @@
       <c r="E50" s="1">
         <v>12142</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="1">
         <f>D50+E50</f>
         <v>26985</v>
       </c>
-      <c r="G50" s="51">
-        <f>D50/F50</f>
+      <c r="H50" s="46">
+        <f>D50/G50</f>
         <v>0.55004632203075787</v>
       </c>
-      <c r="H50" s="51">
-        <f>E50/F50</f>
+      <c r="I50" s="46">
+        <f>E50/G50</f>
         <v>0.44995367796924218</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1.2</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" t="s">
         <v>107</v>
-      </c>
-      <c r="B51" t="s">
-        <v>108</v>
       </c>
       <c r="C51" s="1">
         <v>2288</v>
@@ -6070,29 +8109,122 @@
       <c r="E51">
         <v>365</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="1">
         <f>D51+E51</f>
         <v>731</v>
       </c>
-      <c r="G51" s="51">
-        <f>D51/F51</f>
+      <c r="H51" s="46">
+        <f>D51/G51</f>
         <v>0.5006839945280438</v>
       </c>
-      <c r="H51" s="51">
-        <f>E51/F51</f>
+      <c r="I51" s="46">
+        <f>E51/G51</f>
         <v>0.4993160054719562</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>23</v>
       </c>
     </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J51">
-    <sortState ref="A2:J51">
-      <sortCondition descending="1" ref="G1:G51"/>
+  <autoFilter ref="B1:K51">
+    <sortState ref="B2:M51">
+      <sortCondition descending="1" ref="H1:H51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6103,4 +8235,2373 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
+  <dimension ref="A1:K69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2">
+        <v>1934</v>
+      </c>
+      <c r="C2">
+        <v>136126.09375</v>
+      </c>
+      <c r="D2">
+        <v>57994.4296875</v>
+      </c>
+      <c r="E2">
+        <v>488397</v>
+      </c>
+      <c r="F2">
+        <v>91641</v>
+      </c>
+      <c r="G2" s="52">
+        <v>9.4775753021240194E-2</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0.25057559967040999</v>
+      </c>
+      <c r="I2" s="52">
+        <v>0.217000007629395</v>
+      </c>
+      <c r="K2">
+        <v>148.54278564453099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <v>1935</v>
+      </c>
+      <c r="C3">
+        <v>140093.5</v>
+      </c>
+      <c r="D3">
+        <v>64790.859375</v>
+      </c>
+      <c r="E3">
+        <v>503538</v>
+      </c>
+      <c r="F3">
+        <v>92867</v>
+      </c>
+      <c r="G3" s="52">
+        <v>8.2670278549194301E-2</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.24906589508056601</v>
+      </c>
+      <c r="I3" s="52">
+        <v>0.20100000381469701</v>
+      </c>
+      <c r="K3">
+        <v>150.85391235351599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>1936</v>
+      </c>
+      <c r="C4">
+        <v>138610</v>
+      </c>
+      <c r="D4">
+        <v>71587.2890625</v>
+      </c>
+      <c r="E4">
+        <v>520657</v>
+      </c>
+      <c r="F4">
+        <v>94067</v>
+      </c>
+      <c r="G4" s="52">
+        <v>7.9391283988952607E-2</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0.24779150009155299</v>
+      </c>
+      <c r="I4" s="52">
+        <v>0.16899999618530298</v>
+      </c>
+      <c r="K4">
+        <v>147.35241699218801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5">
+        <v>1937</v>
+      </c>
+      <c r="C5">
+        <v>145345.40625</v>
+      </c>
+      <c r="D5">
+        <v>78383.7109375</v>
+      </c>
+      <c r="E5">
+        <v>541776</v>
+      </c>
+      <c r="F5">
+        <v>95252</v>
+      </c>
+      <c r="G5" s="52">
+        <v>7.5604448318481399E-2</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.24657749176025401</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0.14300000190734902</v>
+      </c>
+      <c r="K5">
+        <v>152.59039306640599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>1938</v>
+      </c>
+      <c r="C6">
+        <v>151136.796875</v>
+      </c>
+      <c r="D6">
+        <v>85180.140625</v>
+      </c>
+      <c r="E6">
+        <v>558108</v>
+      </c>
+      <c r="F6">
+        <v>96503</v>
+      </c>
+      <c r="G6" s="52">
+        <v>6.7506790161132799E-2</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0.24512189865112302</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0.19</v>
+      </c>
+      <c r="K6">
+        <v>156.61357116699199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7">
+        <v>1939</v>
+      </c>
+      <c r="C7">
+        <v>153170.703125</v>
+      </c>
+      <c r="D7">
+        <v>91976.5703125</v>
+      </c>
+      <c r="E7">
+        <v>574049</v>
+      </c>
+      <c r="F7">
+        <v>97761</v>
+      </c>
+      <c r="G7" s="52">
+        <v>6.3919649124145494E-2</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0.24364519119262698</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0.17200000762939499</v>
+      </c>
+      <c r="K7">
+        <v>156.67874145507801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8">
+        <v>1940</v>
+      </c>
+      <c r="C8">
+        <v>151500.59375</v>
+      </c>
+      <c r="D8">
+        <v>98773</v>
+      </c>
+      <c r="E8">
+        <v>579688</v>
+      </c>
+      <c r="F8">
+        <v>99180</v>
+      </c>
+      <c r="G8" s="52">
+        <v>6.1892971992492704E-2</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0.24231700897216801</v>
+      </c>
+      <c r="I8" s="52">
+        <v>0.14600000381469699</v>
+      </c>
+      <c r="K8">
+        <v>152.753173828125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9">
+        <v>1941</v>
+      </c>
+      <c r="C9">
+        <v>144432.5</v>
+      </c>
+      <c r="D9">
+        <v>97436.3984375</v>
+      </c>
+      <c r="E9">
+        <v>595001</v>
+      </c>
+      <c r="F9">
+        <v>100463</v>
+      </c>
+      <c r="G9" s="52">
+        <v>5.9365978240966795E-2</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.239630508422852</v>
+      </c>
+      <c r="I9" s="52">
+        <v>9.8999996185302697E-2</v>
+      </c>
+      <c r="K9">
+        <v>143.76686096191401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10">
+        <v>1942</v>
+      </c>
+      <c r="C10">
+        <v>132069.40625</v>
+      </c>
+      <c r="D10">
+        <v>96099.796875</v>
+      </c>
+      <c r="E10">
+        <v>610232</v>
+      </c>
+      <c r="F10">
+        <v>101736</v>
+      </c>
+      <c r="G10" s="52">
+        <v>5.7614779472351101E-2</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0.236818809509277</v>
+      </c>
+      <c r="I10" s="52">
+        <v>4.6999998092651402E-2</v>
+      </c>
+      <c r="K10">
+        <v>129.81579589843801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11">
+        <v>1943</v>
+      </c>
+      <c r="C11">
+        <v>120465.203125</v>
+      </c>
+      <c r="D11">
+        <v>94763.203125</v>
+      </c>
+      <c r="E11">
+        <v>611794</v>
+      </c>
+      <c r="F11">
+        <v>103024</v>
+      </c>
+      <c r="G11" s="52">
+        <v>4.9661111831665002E-2</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0.23358629226684599</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1.8999999761581402E-2</v>
+      </c>
+      <c r="K11">
+        <v>116.92926025390599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12">
+        <v>1944</v>
+      </c>
+      <c r="C12">
+        <v>114320.1015625</v>
+      </c>
+      <c r="D12">
+        <v>93426.6015625</v>
+      </c>
+      <c r="E12">
+        <v>623378</v>
+      </c>
+      <c r="F12">
+        <v>104300</v>
+      </c>
+      <c r="G12" s="52">
+        <v>4.93323612213135E-2</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0.23009590148925799</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1.20000004768372E-2</v>
+      </c>
+      <c r="K12">
+        <v>109.60700225830099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>1945</v>
+      </c>
+      <c r="C13">
+        <v>114649</v>
+      </c>
+      <c r="D13">
+        <v>92090</v>
+      </c>
+      <c r="E13">
+        <v>638785</v>
+      </c>
+      <c r="F13">
+        <v>105350</v>
+      </c>
+      <c r="G13" s="52">
+        <v>5.6070275306701695E-2</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.22501190185546899</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1.8999999761581402E-2</v>
+      </c>
+      <c r="K13">
+        <v>108.826766967773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>1946</v>
+      </c>
+      <c r="C14">
+        <v>122667</v>
+      </c>
+      <c r="D14">
+        <v>90753.3984375</v>
+      </c>
+      <c r="E14">
+        <v>649047</v>
+      </c>
+      <c r="F14">
+        <v>106301</v>
+      </c>
+      <c r="G14" s="52">
+        <v>6.2363810539245598E-2</v>
+      </c>
+      <c r="H14" s="52">
+        <v>0.21996030807495098</v>
+      </c>
+      <c r="I14" s="52">
+        <v>3.9000000953674299E-2</v>
+      </c>
+      <c r="K14">
+        <v>115.39590454101599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15">
+        <v>1947</v>
+      </c>
+      <c r="C15">
+        <v>134316</v>
+      </c>
+      <c r="D15">
+        <v>89416.796875</v>
+      </c>
+      <c r="E15">
+        <v>666136</v>
+      </c>
+      <c r="F15">
+        <v>107463</v>
+      </c>
+      <c r="G15" s="52">
+        <v>5.9493246078491199E-2</v>
+      </c>
+      <c r="H15" s="52">
+        <v>0.21516239166259801</v>
+      </c>
+      <c r="I15" s="52">
+        <v>3.9000000953674299E-2</v>
+      </c>
+      <c r="K15">
+        <v>124.98813629150401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16">
+        <v>1948</v>
+      </c>
+      <c r="C16">
+        <v>139905</v>
+      </c>
+      <c r="D16">
+        <v>88080.203125</v>
+      </c>
+      <c r="E16">
+        <v>681555</v>
+      </c>
+      <c r="F16">
+        <v>108623</v>
+      </c>
+      <c r="G16" s="52">
+        <v>5.8550505638122606E-2</v>
+      </c>
+      <c r="H16" s="52">
+        <v>0.21050790786743201</v>
+      </c>
+      <c r="I16" s="52">
+        <v>3.7999999523162804E-2</v>
+      </c>
+      <c r="K16">
+        <v>128.79869079589801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17">
+        <v>1949</v>
+      </c>
+      <c r="C17">
+        <v>146947</v>
+      </c>
+      <c r="D17">
+        <v>86743.6015625</v>
+      </c>
+      <c r="E17">
+        <v>644381</v>
+      </c>
+      <c r="F17">
+        <v>109811</v>
+      </c>
+      <c r="G17" s="52">
+        <v>5.4113330841064497E-2</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.20553499221801799</v>
+      </c>
+      <c r="I17" s="52">
+        <v>5.9000000953674296E-2</v>
+      </c>
+      <c r="K17">
+        <v>133.81809997558599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <v>1950</v>
+      </c>
+      <c r="C18">
+        <v>148626</v>
+      </c>
+      <c r="D18">
+        <v>85407</v>
+      </c>
+      <c r="E18">
+        <v>661083</v>
+      </c>
+      <c r="F18">
+        <v>110876</v>
+      </c>
+      <c r="G18" s="52">
+        <v>5.2044167518615694E-2</v>
+      </c>
+      <c r="H18" s="52">
+        <v>0.20076480865478502</v>
+      </c>
+      <c r="I18" s="52">
+        <v>5.3000001907348597E-2</v>
+      </c>
+      <c r="K18">
+        <v>134.04704284668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19">
+        <v>1951</v>
+      </c>
+      <c r="C19">
+        <v>145987</v>
+      </c>
+      <c r="D19">
+        <v>88679.8984375</v>
+      </c>
+      <c r="E19">
+        <v>670558</v>
+      </c>
+      <c r="F19">
+        <v>111980</v>
+      </c>
+      <c r="G19" s="52">
+        <v>4.8337182998657198E-2</v>
+      </c>
+      <c r="H19" s="52">
+        <v>0.19662439346313501</v>
+      </c>
+      <c r="I19" s="52">
+        <v>3.29999995231628E-2</v>
+      </c>
+      <c r="K19">
+        <v>130.36882019043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20">
+        <v>1952</v>
+      </c>
+      <c r="C20">
+        <v>147831</v>
+      </c>
+      <c r="D20">
+        <v>91952.796875</v>
+      </c>
+      <c r="E20">
+        <v>682906</v>
+      </c>
+      <c r="F20">
+        <v>113070</v>
+      </c>
+      <c r="G20" s="52">
+        <v>5.1289963722229007E-2</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0.192765502929688</v>
+      </c>
+      <c r="I20" s="52">
+        <v>0.03</v>
+      </c>
+      <c r="K20">
+        <v>130.74290466308599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
+        <v>1953</v>
+      </c>
+      <c r="C21">
+        <v>151580</v>
+      </c>
+      <c r="D21">
+        <v>95225.703125</v>
+      </c>
+      <c r="E21">
+        <v>700228</v>
+      </c>
+      <c r="F21">
+        <v>114137</v>
+      </c>
+      <c r="G21" s="52">
+        <v>4.7797298431396504E-2</v>
+      </c>
+      <c r="H21" s="52">
+        <v>0.18975439071655298</v>
+      </c>
+      <c r="I21" s="52">
+        <v>2.9000000953674297E-2</v>
+      </c>
+      <c r="K21">
+        <v>132.80531311035199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22">
+        <v>1954</v>
+      </c>
+      <c r="C22">
+        <v>160134</v>
+      </c>
+      <c r="D22">
+        <v>98498.6015625</v>
+      </c>
+      <c r="E22">
+        <v>713090</v>
+      </c>
+      <c r="F22">
+        <v>115337</v>
+      </c>
+      <c r="G22" s="52">
+        <v>4.7525930404663103E-2</v>
+      </c>
+      <c r="H22" s="52">
+        <v>0.18763280868530299</v>
+      </c>
+      <c r="I22" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K22">
+        <v>138.840087890625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23">
+        <v>1955</v>
+      </c>
+      <c r="C23">
+        <v>162961</v>
+      </c>
+      <c r="D23">
+        <v>101771.5</v>
+      </c>
+      <c r="E23">
+        <v>722804</v>
+      </c>
+      <c r="F23">
+        <v>116560</v>
+      </c>
+      <c r="G23" s="52">
+        <v>4.4800739288330095E-2</v>
+      </c>
+      <c r="H23" s="52">
+        <v>0.18588710784912099</v>
+      </c>
+      <c r="I23" s="52">
+        <v>4.4000000953674297E-2</v>
+      </c>
+      <c r="K23">
+        <v>139.80868530273401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>1956</v>
+      </c>
+      <c r="C24">
+        <v>166477</v>
+      </c>
+      <c r="D24">
+        <v>105044.3984375</v>
+      </c>
+      <c r="E24">
+        <v>718849</v>
+      </c>
+      <c r="F24">
+        <v>117903</v>
+      </c>
+      <c r="G24" s="52">
+        <v>4.5192136764526401E-2</v>
+      </c>
+      <c r="H24" s="52">
+        <v>0.18548299789428702</v>
+      </c>
+      <c r="I24" s="52">
+        <v>4.0999999046325702E-2</v>
+      </c>
+      <c r="K24">
+        <v>141.19827270507801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>1957</v>
+      </c>
+      <c r="C25">
+        <v>172948</v>
+      </c>
+      <c r="D25">
+        <v>108317.296875</v>
+      </c>
+      <c r="E25">
+        <v>718229</v>
+      </c>
+      <c r="F25">
+        <v>119380</v>
+      </c>
+      <c r="G25" s="52">
+        <v>4.4388766288757299E-2</v>
+      </c>
+      <c r="H25" s="52">
+        <v>0.18689060211181602</v>
+      </c>
+      <c r="I25" s="52">
+        <v>4.3000001907348595E-2</v>
+      </c>
+      <c r="K25">
+        <v>144.87184143066401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>1958</v>
+      </c>
+      <c r="C26">
+        <v>182030</v>
+      </c>
+      <c r="D26">
+        <v>111590.203125</v>
+      </c>
+      <c r="E26">
+        <v>721023</v>
+      </c>
+      <c r="F26">
+        <v>121051</v>
+      </c>
+      <c r="G26" s="52">
+        <v>4.45685005187988E-2</v>
+      </c>
+      <c r="H26" s="52">
+        <v>0.19134080886840799</v>
+      </c>
+      <c r="I26" s="52">
+        <v>6.8000001907348603E-2</v>
+      </c>
+      <c r="K26">
+        <v>150.37463378906199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27">
+        <v>1959</v>
+      </c>
+      <c r="C27">
+        <v>183031</v>
+      </c>
+      <c r="D27">
+        <v>114863.1015625</v>
+      </c>
+      <c r="E27">
+        <v>721254</v>
+      </c>
+      <c r="F27">
+        <v>123091</v>
+      </c>
+      <c r="G27" s="52">
+        <v>4.5862507820129406E-2</v>
+      </c>
+      <c r="H27" s="52">
+        <v>0.19408409118652301</v>
+      </c>
+      <c r="I27" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J27" s="52">
+        <v>0.185</v>
+      </c>
+      <c r="K27">
+        <v>148.69567871093801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>1960</v>
+      </c>
+      <c r="C28">
+        <v>187887</v>
+      </c>
+      <c r="D28">
+        <v>118235</v>
+      </c>
+      <c r="E28">
+        <v>714467</v>
+      </c>
+      <c r="F28">
+        <v>124595</v>
+      </c>
+      <c r="G28" s="52">
+        <v>4.6739244461059599E-2</v>
+      </c>
+      <c r="H28" s="52">
+        <v>0.19724710464477499</v>
+      </c>
+      <c r="I28" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J28" s="52">
+        <v>0.18100000381469702</v>
+      </c>
+      <c r="K28">
+        <v>150.79818725585901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29">
+        <v>1961</v>
+      </c>
+      <c r="C29">
+        <v>194501</v>
+      </c>
+      <c r="D29">
+        <v>120185</v>
+      </c>
+      <c r="E29">
+        <v>714985</v>
+      </c>
+      <c r="F29">
+        <v>126138</v>
+      </c>
+      <c r="G29" s="52">
+        <v>4.6592168807983399E-2</v>
+      </c>
+      <c r="H29" s="52">
+        <v>0.20011419296264599</v>
+      </c>
+      <c r="I29" s="52">
+        <v>6.6999998092651405E-2</v>
+      </c>
+      <c r="J29" s="52">
+        <v>0.18100000381469702</v>
+      </c>
+      <c r="K29">
+        <v>154.19699096679699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30">
+        <v>1962</v>
+      </c>
+      <c r="C30">
+        <v>193097</v>
+      </c>
+      <c r="D30">
+        <v>124336</v>
+      </c>
+      <c r="E30">
+        <v>711808</v>
+      </c>
+      <c r="F30">
+        <v>128634</v>
+      </c>
+      <c r="G30" s="52">
+        <v>4.8228993415832505E-2</v>
+      </c>
+      <c r="H30" s="52">
+        <v>0.20919040679931603</v>
+      </c>
+      <c r="I30" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J30" s="52">
+        <v>0.17200000762939499</v>
+      </c>
+      <c r="K30">
+        <v>150.11349487304699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31">
+        <v>1963</v>
+      </c>
+      <c r="C31">
+        <v>192311</v>
+      </c>
+      <c r="D31">
+        <v>128487</v>
+      </c>
+      <c r="E31">
+        <v>702226</v>
+      </c>
+      <c r="F31">
+        <v>130776</v>
+      </c>
+      <c r="G31" s="52">
+        <v>4.8721995353698706E-2</v>
+      </c>
+      <c r="H31" s="52">
+        <v>0.215811805725098</v>
+      </c>
+      <c r="I31" s="52">
+        <v>5.6999998092651404E-2</v>
+      </c>
+      <c r="J31" s="52">
+        <v>0.158999996185303</v>
+      </c>
+      <c r="K31">
+        <v>147.05374145507801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32">
+        <v>1964</v>
+      </c>
+      <c r="C32">
+        <v>190994</v>
+      </c>
+      <c r="D32">
+        <v>132638</v>
+      </c>
+      <c r="E32">
+        <v>692508</v>
+      </c>
+      <c r="F32">
+        <v>132941</v>
+      </c>
+      <c r="G32" s="52">
+        <v>5.0996651649475096E-2</v>
+      </c>
+      <c r="H32" s="52">
+        <v>0.2220458984375</v>
+      </c>
+      <c r="I32" s="52">
+        <v>5.1999998092651406E-2</v>
+      </c>
+      <c r="J32" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="K32">
+        <v>143.66824340820301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33">
+        <v>1965</v>
+      </c>
+      <c r="C33">
+        <v>188507</v>
+      </c>
+      <c r="D33">
+        <v>136789</v>
+      </c>
+      <c r="E33">
+        <v>686389</v>
+      </c>
+      <c r="F33">
+        <v>135053</v>
+      </c>
+      <c r="G33" s="52">
+        <v>5.5050349235534701E-2</v>
+      </c>
+      <c r="H33" s="52">
+        <v>0.227858695983887</v>
+      </c>
+      <c r="I33" s="52">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J33" s="52">
+        <v>0.13899999618530301</v>
+      </c>
+      <c r="K33">
+        <v>139.58001708984401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34">
+        <v>1966</v>
+      </c>
+      <c r="C34">
+        <v>178867</v>
+      </c>
+      <c r="D34">
+        <v>140940</v>
+      </c>
+      <c r="E34">
+        <v>655577</v>
+      </c>
+      <c r="F34">
+        <v>137301</v>
+      </c>
+      <c r="G34" s="52">
+        <v>5.8929266929626502E-2</v>
+      </c>
+      <c r="H34" s="52">
+        <v>0.23315200805664102</v>
+      </c>
+      <c r="I34" s="52">
+        <v>3.7999999523162804E-2</v>
+      </c>
+      <c r="J34" s="52">
+        <v>0.11800000190734901</v>
+      </c>
+      <c r="K34">
+        <v>130.27363586425801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35">
+        <v>1967</v>
+      </c>
+      <c r="C35">
+        <v>174049</v>
+      </c>
+      <c r="D35">
+        <v>145091</v>
+      </c>
+      <c r="E35">
+        <v>612282</v>
+      </c>
+      <c r="F35">
+        <v>139653</v>
+      </c>
+      <c r="G35" s="52">
+        <v>6.7411384582519496E-2</v>
+      </c>
+      <c r="H35" s="52">
+        <v>0.23770349502563501</v>
+      </c>
+      <c r="I35" s="52">
+        <v>3.7999999523162804E-2</v>
+      </c>
+      <c r="J35" s="52">
+        <v>0.113999996185303</v>
+      </c>
+      <c r="K35">
+        <v>124.62961578369099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36">
+        <v>1968</v>
+      </c>
+      <c r="C36">
+        <v>173865.296875</v>
+      </c>
+      <c r="D36">
+        <v>149242</v>
+      </c>
+      <c r="E36">
+        <v>583585</v>
+      </c>
+      <c r="F36">
+        <v>142021</v>
+      </c>
+      <c r="G36" s="52">
+        <v>7.309579372406011E-2</v>
+      </c>
+      <c r="H36" s="52">
+        <v>0.24003490447997999</v>
+      </c>
+      <c r="I36" s="52">
+        <v>3.5999999046325698E-2</v>
+      </c>
+      <c r="J36" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>122.422248840332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37">
+        <v>1969</v>
+      </c>
+      <c r="C37">
+        <v>178402.5</v>
+      </c>
+      <c r="D37">
+        <v>153393</v>
+      </c>
+      <c r="E37">
+        <v>506533</v>
+      </c>
+      <c r="F37">
+        <v>144417</v>
+      </c>
+      <c r="G37" s="52">
+        <v>7.5859041213989301E-2</v>
+      </c>
+      <c r="H37" s="52">
+        <v>0.243987903594971</v>
+      </c>
+      <c r="I37" s="52">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J37" s="52">
+        <v>9.6999998092651404E-2</v>
+      </c>
+      <c r="K37">
+        <v>123.53289794921901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38">
+        <v>1970</v>
+      </c>
+      <c r="C38">
+        <v>177048.296875</v>
+      </c>
+      <c r="D38">
+        <v>157544</v>
+      </c>
+      <c r="E38">
+        <v>451644.5</v>
+      </c>
+      <c r="F38">
+        <v>147114</v>
+      </c>
+      <c r="G38" s="52">
+        <v>8.2318315505981399E-2</v>
+      </c>
+      <c r="H38" s="52">
+        <v>0.248344802856445</v>
+      </c>
+      <c r="I38" s="52">
+        <v>4.9000000953674301E-2</v>
+      </c>
+      <c r="J38" s="52">
+        <v>0.101000003814697</v>
+      </c>
+      <c r="K38">
+        <v>120.347686767578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39">
+        <v>1971</v>
+      </c>
+      <c r="C39">
+        <v>174513</v>
+      </c>
+      <c r="D39">
+        <v>157455.09375</v>
+      </c>
+      <c r="E39">
+        <v>429012.25</v>
+      </c>
+      <c r="F39">
+        <v>149927</v>
+      </c>
+      <c r="G39" s="52">
+        <v>8.9989757537841802E-2</v>
+      </c>
+      <c r="H39" s="52">
+        <v>0.25310989379882798</v>
+      </c>
+      <c r="I39" s="52">
+        <v>5.9000000953674296E-2</v>
+      </c>
+      <c r="J39" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>116.398643493652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40">
+        <v>1972</v>
+      </c>
+      <c r="C40">
+        <v>171970</v>
+      </c>
+      <c r="D40">
+        <v>157388.296875</v>
+      </c>
+      <c r="E40">
+        <v>406380</v>
+      </c>
+      <c r="F40">
+        <v>152849</v>
+      </c>
+      <c r="G40" s="52">
+        <v>9.3162879943847698E-2</v>
+      </c>
+      <c r="H40" s="52">
+        <v>0.251548900604248</v>
+      </c>
+      <c r="I40" s="52">
+        <v>5.5999999046325702E-2</v>
+      </c>
+      <c r="J40" s="52">
+        <v>9.3000001907348598E-2</v>
+      </c>
+      <c r="K40">
+        <v>112.509735107422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41">
+        <v>1973</v>
+      </c>
+      <c r="C41">
+        <v>179203</v>
+      </c>
+      <c r="D41">
+        <v>157321.40625</v>
+      </c>
+      <c r="E41">
+        <v>367564</v>
+      </c>
+      <c r="F41">
+        <v>155749</v>
+      </c>
+      <c r="G41" s="52">
+        <v>9.6045656204223603E-2</v>
+      </c>
+      <c r="H41" s="52">
+        <v>0.25194379806518602</v>
+      </c>
+      <c r="I41" s="52">
+        <v>4.9000000953674301E-2</v>
+      </c>
+      <c r="J41" s="52">
+        <v>8.8000001907348593E-2</v>
+      </c>
+      <c r="K41">
+        <v>115.05884552002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42">
+        <v>1974</v>
+      </c>
+      <c r="C42">
+        <v>194033</v>
+      </c>
+      <c r="D42">
+        <v>157254.5</v>
+      </c>
+      <c r="E42">
+        <v>330401</v>
+      </c>
+      <c r="F42">
+        <v>158651</v>
+      </c>
+      <c r="G42" s="52">
+        <v>9.9790239334106398E-2</v>
+      </c>
+      <c r="H42" s="52">
+        <v>0.25223289489746104</v>
+      </c>
+      <c r="I42" s="52">
+        <v>5.5999999046325702E-2</v>
+      </c>
+      <c r="J42" s="52">
+        <v>8.8000001907348593E-2</v>
+      </c>
+      <c r="K42">
+        <v>122.30178070068401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43">
+        <v>1975</v>
+      </c>
+      <c r="C43">
+        <v>214160</v>
+      </c>
+      <c r="D43">
+        <v>157187.59375</v>
+      </c>
+      <c r="E43">
+        <v>287368</v>
+      </c>
+      <c r="F43">
+        <v>161612</v>
+      </c>
+      <c r="G43" s="52">
+        <v>9.8276691436767594E-2</v>
+      </c>
+      <c r="H43" s="52">
+        <v>0.25253070831298802</v>
+      </c>
+      <c r="I43" s="52">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J43" s="52">
+        <v>9.6999998092651404E-2</v>
+      </c>
+      <c r="K43">
+        <v>132.51490783691401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44">
+        <v>1976</v>
+      </c>
+      <c r="C44">
+        <v>245950</v>
+      </c>
+      <c r="D44">
+        <v>157120.796875</v>
+      </c>
+      <c r="E44">
+        <v>250208</v>
+      </c>
+      <c r="F44">
+        <v>164659</v>
+      </c>
+      <c r="G44" s="52">
+        <v>8.9366483688354495E-2</v>
+      </c>
+      <c r="H44" s="52">
+        <v>0.25215749740600601</v>
+      </c>
+      <c r="I44" s="52">
+        <v>7.69999980926514E-2</v>
+      </c>
+      <c r="J44" s="52">
+        <v>9.3999996185302692E-2</v>
+      </c>
+      <c r="K44">
+        <v>149.36930847168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45">
+        <v>1977</v>
+      </c>
+      <c r="C45">
+        <v>257943</v>
+      </c>
+      <c r="D45">
+        <v>157053.90625</v>
+      </c>
+      <c r="E45">
+        <v>230146</v>
+      </c>
+      <c r="F45">
+        <v>167641</v>
+      </c>
+      <c r="G45" s="52">
+        <v>9.0454301834106396E-2</v>
+      </c>
+      <c r="H45" s="52">
+        <v>0.250767993927002</v>
+      </c>
+      <c r="I45" s="52">
+        <v>7.0999999046325701E-2</v>
+      </c>
+      <c r="J45" s="52">
+        <v>9.3000001907348598E-2</v>
+      </c>
+      <c r="K45">
+        <v>153.86630249023401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46">
+        <v>1978</v>
+      </c>
+      <c r="C46">
+        <v>274609</v>
+      </c>
+      <c r="D46">
+        <v>156987</v>
+      </c>
+      <c r="E46">
+        <v>208726</v>
+      </c>
+      <c r="F46">
+        <v>170630</v>
+      </c>
+      <c r="G46" s="52">
+        <v>9.170802116394039E-2</v>
+      </c>
+      <c r="H46" s="52">
+        <v>0.24873699188232401</v>
+      </c>
+      <c r="I46" s="52">
+        <v>6.0999999046325699E-2</v>
+      </c>
+      <c r="J46" s="52">
+        <v>9.1000003814697306E-2</v>
+      </c>
+      <c r="K46">
+        <v>160.93829345703099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47">
+        <v>1979</v>
+      </c>
+      <c r="C47">
+        <v>285113</v>
+      </c>
+      <c r="D47">
+        <v>169731.203125</v>
+      </c>
+      <c r="E47">
+        <v>204505</v>
+      </c>
+      <c r="F47">
+        <v>173600</v>
+      </c>
+      <c r="G47" s="52">
+        <v>0.10019963264465299</v>
+      </c>
+      <c r="H47" s="52">
+        <v>0.24596200942993199</v>
+      </c>
+      <c r="I47" s="52">
+        <v>5.8000001907348595E-2</v>
+      </c>
+      <c r="J47" s="52">
+        <v>9.19999980926514E-2</v>
+      </c>
+      <c r="K47">
+        <v>164.235595703125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48">
+        <v>1980</v>
+      </c>
+      <c r="C48">
+        <v>302313</v>
+      </c>
+      <c r="D48">
+        <v>182475.40625</v>
+      </c>
+      <c r="E48">
+        <v>201211</v>
+      </c>
+      <c r="F48">
+        <v>175935</v>
+      </c>
+      <c r="G48" s="52">
+        <v>0.10695362091064499</v>
+      </c>
+      <c r="H48" s="52">
+        <v>0.24154769897460898</v>
+      </c>
+      <c r="I48" s="52">
+        <v>7.0999999046325701E-2</v>
+      </c>
+      <c r="J48" s="52">
+        <v>0.10300000190734901</v>
+      </c>
+      <c r="K48">
+        <v>171.83221435546901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49">
+        <v>1981</v>
+      </c>
+      <c r="C49">
+        <v>338318</v>
+      </c>
+      <c r="D49">
+        <v>195219.59375</v>
+      </c>
+      <c r="E49">
+        <v>190103</v>
+      </c>
+      <c r="F49">
+        <v>178213</v>
+      </c>
+      <c r="G49" s="52">
+        <v>0.102644338607788</v>
+      </c>
+      <c r="H49" s="52">
+        <v>0.23681770324706999</v>
+      </c>
+      <c r="I49" s="52">
+        <v>7.5999999046325706E-2</v>
+      </c>
+      <c r="J49" s="52">
+        <v>0.11199999809265099</v>
+      </c>
+      <c r="K49">
+        <v>189.83912658691401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50">
+        <v>1982</v>
+      </c>
+      <c r="C50">
+        <v>380052</v>
+      </c>
+      <c r="D50">
+        <v>207963.796875</v>
+      </c>
+      <c r="E50">
+        <v>183778</v>
+      </c>
+      <c r="F50">
+        <v>180333</v>
+      </c>
+      <c r="G50" s="52">
+        <v>9.6155920028686503E-2</v>
+      </c>
+      <c r="H50" s="52">
+        <v>0.23092830657958999</v>
+      </c>
+      <c r="I50" s="52">
+        <v>9.6999998092651404E-2</v>
+      </c>
+      <c r="J50" s="52">
+        <v>0.121999998092651</v>
+      </c>
+      <c r="K50">
+        <v>210.75010681152301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51">
+        <v>1983</v>
+      </c>
+      <c r="C51">
+        <v>400585</v>
+      </c>
+      <c r="D51">
+        <v>220708</v>
+      </c>
+      <c r="E51">
+        <v>174577</v>
+      </c>
+      <c r="F51">
+        <v>182323</v>
+      </c>
+      <c r="G51" s="52">
+        <v>8.6074676513671899E-2</v>
+      </c>
+      <c r="H51" s="52">
+        <v>0.22498529434204101</v>
+      </c>
+      <c r="I51" s="52">
+        <v>9.6000003814697296E-2</v>
+      </c>
+      <c r="J51" s="52">
+        <v>0.123000001907349</v>
+      </c>
+      <c r="K51">
+        <v>219.71171569824199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <v>1984</v>
+      </c>
+      <c r="C52">
+        <v>423218</v>
+      </c>
+      <c r="D52">
+        <v>244941.59375</v>
+      </c>
+      <c r="E52">
+        <v>164797</v>
+      </c>
+      <c r="F52">
+        <v>184342</v>
+      </c>
+      <c r="G52" s="52">
+        <v>8.3709621429443395E-2</v>
+      </c>
+      <c r="H52" s="52">
+        <v>0.21948339462280297</v>
+      </c>
+      <c r="I52" s="52">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J52" s="52">
+        <v>0.11600000381469699</v>
+      </c>
+      <c r="K52">
+        <v>229.58305358886699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53">
+        <v>1985</v>
+      </c>
+      <c r="C53">
+        <v>455880</v>
+      </c>
+      <c r="D53">
+        <v>269175.1875</v>
+      </c>
+      <c r="E53">
+        <v>159578</v>
+      </c>
+      <c r="F53">
+        <v>186390</v>
+      </c>
+      <c r="G53" s="52">
+        <v>8.3560199737548788E-2</v>
+      </c>
+      <c r="H53" s="52">
+        <v>0.21456090927124</v>
+      </c>
+      <c r="I53" s="52">
+        <v>7.1999998092651396E-2</v>
+      </c>
+      <c r="J53" s="52">
+        <v>0.113999996185303</v>
+      </c>
+      <c r="K53">
+        <v>244.58393859863301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54">
+        <v>1986</v>
+      </c>
+      <c r="C54">
+        <v>493946</v>
+      </c>
+      <c r="D54">
+        <v>293408.8125</v>
+      </c>
+      <c r="E54">
+        <v>155652</v>
+      </c>
+      <c r="F54">
+        <v>188598</v>
+      </c>
+      <c r="G54" s="52">
+        <v>9.0313901901245094E-2</v>
+      </c>
+      <c r="H54" s="52">
+        <v>0.20974239349365198</v>
+      </c>
+      <c r="I54" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J54" s="52">
+        <v>0.108999996185303</v>
+      </c>
+      <c r="K54">
+        <v>261.90414428710898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55">
+        <v>1987</v>
+      </c>
+      <c r="C55">
+        <v>529139</v>
+      </c>
+      <c r="D55">
+        <v>317642.40625</v>
+      </c>
+      <c r="E55">
+        <v>153887</v>
+      </c>
+      <c r="F55">
+        <v>190430</v>
+      </c>
+      <c r="G55" s="52">
+        <v>8.6691131591796894E-2</v>
+      </c>
+      <c r="H55" s="52">
+        <v>0.204221992492676</v>
+      </c>
+      <c r="I55" s="52">
+        <v>6.1999998092651401E-2</v>
+      </c>
+      <c r="J55" s="52">
+        <v>0.106999998092651</v>
+      </c>
+      <c r="K55">
+        <v>277.86535644531199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56">
+        <v>1988</v>
+      </c>
+      <c r="C56">
+        <v>568841</v>
+      </c>
+      <c r="D56">
+        <v>341876</v>
+      </c>
+      <c r="E56">
+        <v>150413</v>
+      </c>
+      <c r="F56">
+        <v>192049</v>
+      </c>
+      <c r="G56" s="52">
+        <v>8.9200630187988295E-2</v>
+      </c>
+      <c r="H56" s="52">
+        <v>0.198652400970459</v>
+      </c>
+      <c r="I56" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J56" s="52">
+        <v>0.10399999618530301</v>
+      </c>
+      <c r="K56">
+        <v>296.19577026367199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57">
+        <v>1989</v>
+      </c>
+      <c r="C57">
+        <v>643239</v>
+      </c>
+      <c r="D57">
+        <v>365124.1875</v>
+      </c>
+      <c r="E57">
+        <v>146942</v>
+      </c>
+      <c r="F57">
+        <v>193597</v>
+      </c>
+      <c r="G57" s="52">
+        <v>9.154163360595699E-2</v>
+      </c>
+      <c r="H57" s="52">
+        <v>0.19313829421997097</v>
+      </c>
+      <c r="I57" s="52">
+        <v>5.3000001907348597E-2</v>
+      </c>
+      <c r="J57" s="52">
+        <v>0.10300000190734901</v>
+      </c>
+      <c r="K57">
+        <v>332.25668334960898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58">
+        <v>1990</v>
+      </c>
+      <c r="C58">
+        <v>698446</v>
+      </c>
+      <c r="D58">
+        <v>388372.40625</v>
+      </c>
+      <c r="E58">
+        <v>138475</v>
+      </c>
+      <c r="F58">
+        <v>195477</v>
+      </c>
+      <c r="G58" s="52">
+        <v>9.8600044250488295E-2</v>
+      </c>
+      <c r="H58" s="52">
+        <v>0.18888170242309599</v>
+      </c>
+      <c r="I58" s="52">
+        <v>5.5999999046325702E-2</v>
+      </c>
+      <c r="J58" s="52">
+        <v>0.106999998092651</v>
+      </c>
+      <c r="K58">
+        <v>357.30340576171898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59">
+        <v>1991</v>
+      </c>
+      <c r="C59">
+        <v>743496</v>
+      </c>
+      <c r="D59">
+        <v>411620.59375</v>
+      </c>
+      <c r="E59">
+        <v>132051</v>
+      </c>
+      <c r="F59">
+        <v>197736</v>
+      </c>
+      <c r="G59" s="52">
+        <v>0.10385202407836899</v>
+      </c>
+      <c r="H59" s="52">
+        <v>0.18460979461669902</v>
+      </c>
+      <c r="I59" s="52">
+        <v>6.8000001907348603E-2</v>
+      </c>
+      <c r="J59" s="52">
+        <v>0.115</v>
+      </c>
+      <c r="K59">
+        <v>376.00436401367199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60">
+        <v>1992</v>
+      </c>
+      <c r="C60">
+        <v>791366</v>
+      </c>
+      <c r="D60">
+        <v>434868.8125</v>
+      </c>
+      <c r="E60">
+        <v>123211</v>
+      </c>
+      <c r="F60">
+        <v>200309</v>
+      </c>
+      <c r="G60" s="52">
+        <v>9.8767700195312502E-2</v>
+      </c>
+      <c r="H60" s="52">
+        <v>0.18188899993896498</v>
+      </c>
+      <c r="I60" s="52">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J60" s="52">
+        <v>0.11899999618530301</v>
+      </c>
+      <c r="K60">
+        <v>395.07260131835898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61">
+        <v>1993</v>
+      </c>
+      <c r="C61">
+        <v>868869</v>
+      </c>
+      <c r="D61">
+        <v>458117</v>
+      </c>
+      <c r="E61">
+        <v>116138</v>
+      </c>
+      <c r="F61">
+        <v>202823</v>
+      </c>
+      <c r="G61" s="52">
+        <v>9.9496021270752008E-2</v>
+      </c>
+      <c r="H61" s="52">
+        <v>0.17978239059448201</v>
+      </c>
+      <c r="I61" s="52">
+        <v>6.9000000953674298E-2</v>
+      </c>
+      <c r="J61" s="52">
+        <v>0.123000001907349</v>
+      </c>
+      <c r="K61">
+        <v>428.38781738281199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62">
+        <v>1994</v>
+      </c>
+      <c r="C62">
+        <v>948719</v>
+      </c>
+      <c r="D62">
+        <v>482479.1875</v>
+      </c>
+      <c r="E62">
+        <v>107976</v>
+      </c>
+      <c r="F62">
+        <v>205323</v>
+      </c>
+      <c r="G62" s="52">
+        <v>9.4609670639038107E-2</v>
+      </c>
+      <c r="H62" s="52">
+        <v>0.17792449951171899</v>
+      </c>
+      <c r="I62" s="52">
+        <v>6.0999999046325699E-2</v>
+      </c>
+      <c r="J62" s="52">
+        <v>0.11600000381469699</v>
+      </c>
+      <c r="K62">
+        <v>462.06173706054699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63">
+        <v>1995</v>
+      </c>
+      <c r="C63">
+        <v>1015824</v>
+      </c>
+      <c r="D63">
+        <v>506841.3125</v>
+      </c>
+      <c r="E63">
+        <v>97274</v>
+      </c>
+      <c r="F63">
+        <v>208006</v>
+      </c>
+      <c r="G63" s="52">
+        <v>8.6100387573242204E-2</v>
+      </c>
+      <c r="H63" s="52">
+        <v>0.17631219863891601</v>
+      </c>
+      <c r="I63" s="52">
+        <v>5.5999999046325702E-2</v>
+      </c>
+      <c r="J63" s="52">
+        <v>0.108000001907349</v>
+      </c>
+      <c r="K63">
+        <v>488.36282348632801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64">
+        <v>1996</v>
+      </c>
+      <c r="C64">
+        <v>1066999</v>
+      </c>
+      <c r="D64">
+        <v>531203.5</v>
+      </c>
+      <c r="E64">
+        <v>94656.72</v>
+      </c>
+      <c r="F64">
+        <v>210690</v>
+      </c>
+      <c r="G64" s="52">
+        <v>7.8000588417053193E-2</v>
+      </c>
+      <c r="H64" s="52">
+        <v>0.17465000152587901</v>
+      </c>
+      <c r="I64" s="52">
+        <v>5.4000000953674299E-2</v>
+      </c>
+      <c r="J64" s="52">
+        <v>0.11</v>
+      </c>
+      <c r="K64">
+        <v>506.43078613281199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65">
+        <v>1997</v>
+      </c>
+      <c r="C65">
+        <v>1118333</v>
+      </c>
+      <c r="D65">
+        <v>555565.6875</v>
+      </c>
+      <c r="E65">
+        <v>91457.13</v>
+      </c>
+      <c r="F65">
+        <v>213559</v>
+      </c>
+      <c r="G65" s="52">
+        <v>7.3304562568664605E-2</v>
+      </c>
+      <c r="H65" s="52">
+        <v>0.17469640731811498</v>
+      </c>
+      <c r="I65" s="52">
+        <v>4.9000000953674301E-2</v>
+      </c>
+      <c r="J65" s="52">
+        <v>0.10300000190734901</v>
+      </c>
+      <c r="K65">
+        <v>523.66467285156205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66">
+        <v>1998</v>
+      </c>
+      <c r="C66">
+        <v>1166226</v>
+      </c>
+      <c r="D66">
+        <v>579927.8125</v>
+      </c>
+      <c r="E66">
+        <v>90293.7</v>
+      </c>
+      <c r="F66">
+        <v>216374</v>
+      </c>
+      <c r="G66" s="52">
+        <v>6.6930737495422402E-2</v>
+      </c>
+      <c r="H66" s="52">
+        <v>0.175654201507568</v>
+      </c>
+      <c r="I66" s="52">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J66" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="K66">
+        <v>538.98620605468795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67">
+        <v>1999</v>
+      </c>
+      <c r="C67">
+        <v>1219803</v>
+      </c>
+      <c r="D67">
+        <v>604290</v>
+      </c>
+      <c r="E67">
+        <v>86126.55</v>
+      </c>
+      <c r="F67">
+        <v>219085</v>
+      </c>
+      <c r="G67" s="52">
+        <v>6.13693237304688E-2</v>
+      </c>
+      <c r="H67" s="52">
+        <v>0.176534194946289</v>
+      </c>
+      <c r="I67" s="52">
+        <v>4.1999998092651404E-2</v>
+      </c>
+      <c r="J67" s="52">
+        <v>9.3000001907348598E-2</v>
+      </c>
+      <c r="K67">
+        <v>556.77154541015602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68">
+        <v>2000</v>
+      </c>
+      <c r="C68">
+        <v>1238389</v>
+      </c>
+      <c r="D68">
+        <v>627571.1875</v>
+      </c>
+      <c r="E68">
+        <v>83858.95</v>
+      </c>
+      <c r="F68">
+        <v>221935</v>
+      </c>
+      <c r="G68" s="52">
+        <v>5.9038662910461399E-2</v>
+      </c>
+      <c r="H68" s="52">
+        <v>0.17733570098877</v>
+      </c>
+      <c r="I68" s="52">
+        <v>0.04</v>
+      </c>
+      <c r="J68" s="52">
+        <v>8.6999998092651409E-2</v>
+      </c>
+      <c r="K68">
+        <v>557.99627685546898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69">
+        <v>2001</v>
+      </c>
+      <c r="C69">
+        <v>1247039</v>
+      </c>
+      <c r="D69">
+        <v>650852.3125</v>
+      </c>
+      <c r="E69">
+        <v>79622.61</v>
+      </c>
+      <c r="F69">
+        <v>224836</v>
+      </c>
+      <c r="G69" s="52">
+        <v>6.4220237731933597E-2</v>
+      </c>
+      <c r="H69" s="52">
+        <v>0.17782739639282202</v>
+      </c>
+      <c r="I69" s="52">
+        <v>4.6999998092651402E-2</v>
+      </c>
+      <c r="J69" s="52">
+        <v>9.19999980926514E-2</v>
+      </c>
+      <c r="K69">
+        <v>554.643798828125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/1 - Homelessness/data/Deinstitutionalization.xlsx
+++ b/1 - Homelessness/data/Deinstitutionalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35620" windowHeight="20540" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inpatient_Outpatient_Episodes" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="AnInstitEffect" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Prison!$B$1:$K$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Prison!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="223">
   <si>
     <t>Number of patient care episodes</t>
   </si>
@@ -172,303 +172,153 @@
 (lowest no. spends most)</t>
   </si>
   <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
-    <t>ALASKA</t>
-  </si>
-  <si>
     <t>AK</t>
   </si>
   <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
-    <t>ARKANSAS</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
-    <t>CONNECTICUT</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
-    <t>DELAWARE</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>FLORIDA</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
     <t>HI</t>
   </si>
   <si>
-    <t>IDAHO</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
-    <t>INDIANA</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
-    <t>IOWA</t>
-  </si>
-  <si>
     <t>IA</t>
   </si>
   <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
     <t>KS</t>
   </si>
   <si>
-    <t>KENTUCKY</t>
-  </si>
-  <si>
     <t>KY</t>
   </si>
   <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
-    <t>MAINE</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
     <t>MI</t>
   </si>
   <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
     <t>MN</t>
   </si>
   <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>MISSOURI</t>
-  </si>
-  <si>
     <t>MO</t>
   </si>
   <si>
-    <t>MONTANA</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
-    <t>NEW HAMPSHIRE</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
-    <t>NEW JERSEY</t>
-  </si>
-  <si>
     <t>NJ</t>
   </si>
   <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
     <t>NM</t>
   </si>
   <si>
-    <t>NEW YORK</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>NORTH DAKOTA</t>
-  </si>
-  <si>
     <t>ND</t>
   </si>
   <si>
-    <t>OHIO</t>
-  </si>
-  <si>
     <t>OH</t>
   </si>
   <si>
-    <t>OKLAHOMA</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>OREGON</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>PENNSYLVANIA</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
-    <t>UTAH</t>
-  </si>
-  <si>
     <t>UT</t>
   </si>
   <si>
-    <t>VERMONT</t>
-  </si>
-  <si>
     <t>VT</t>
   </si>
   <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
     <t>WV</t>
   </si>
   <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
     <t>WI</t>
   </si>
   <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
     <t>WY</t>
   </si>
   <si>
@@ -715,160 +565,157 @@
     <t>1/1/2001</t>
   </si>
   <si>
-    <t>1/1/NEVADA</t>
-  </si>
-  <si>
-    <t>1/1/ARIZONA</t>
-  </si>
-  <si>
-    <t>1/1/TEXAS</t>
-  </si>
-  <si>
-    <t>1/1/GEORGIA</t>
-  </si>
-  <si>
-    <t>1/1/SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>1/1/FLORIDA</t>
-  </si>
-  <si>
-    <t>1/1/LOUISIANA</t>
-  </si>
-  <si>
-    <t>1/1/IDAHO</t>
-  </si>
-  <si>
-    <t>1/1/MICHIGAN</t>
-  </si>
-  <si>
-    <t>1/1/COLORADO</t>
-  </si>
-  <si>
-    <t>1/1/OHIO</t>
-  </si>
-  <si>
-    <t>1/1/ALABAMA</t>
-  </si>
-  <si>
-    <t>1/1/UTAH</t>
-  </si>
-  <si>
-    <t>1/1/WISCONSIN</t>
-  </si>
-  <si>
-    <t>1/1/CALIFORNIA</t>
-  </si>
-  <si>
-    <t>1/1/ALASKA</t>
-  </si>
-  <si>
-    <t>1/1/VIRGINIA</t>
-  </si>
-  <si>
-    <t>1/1/OKLAHOMA</t>
-  </si>
-  <si>
-    <t>1/1/NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>1/1/KANSAS</t>
-  </si>
-  <si>
-    <t>1/1/NEW MEXICO</t>
-  </si>
-  <si>
-    <t>1/1/ARKANSAS</t>
-  </si>
-  <si>
-    <t>1/1/TENNESSEE</t>
-  </si>
-  <si>
-    <t>1/1/MONTANA</t>
-  </si>
-  <si>
-    <t>1/1/WASHINGTON</t>
-  </si>
-  <si>
-    <t>1/1/OREGON</t>
-  </si>
-  <si>
-    <t>1/1/DELAWARE</t>
-  </si>
-  <si>
-    <t>1/1/HAWAII</t>
-  </si>
-  <si>
-    <t>1/1/KENTUCKY</t>
-  </si>
-  <si>
-    <t>1/1/WYOMING</t>
-  </si>
-  <si>
-    <t>1/1/MISSOURI</t>
-  </si>
-  <si>
-    <t>1/1/ILLINOIS</t>
-  </si>
-  <si>
-    <t>1/1/INDIANA</t>
-  </si>
-  <si>
-    <t>1/1/IOWA</t>
-  </si>
-  <si>
-    <t>1/1/MARYLAND</t>
-  </si>
-  <si>
-    <t>1/1/SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>1/1/WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>1/1/NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>1/1/PENNSYLVANIA</t>
-  </si>
-  <si>
-    <t>1/1/CONNECTICUT</t>
-  </si>
-  <si>
-    <t>1/1/MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>1/1/VERMONT</t>
-  </si>
-  <si>
-    <t>1/1/NEBRASKA</t>
-  </si>
-  <si>
-    <t>1/1/NEW JERSEY</t>
-  </si>
-  <si>
-    <t>1/1/RHODE ISLAND</t>
-  </si>
-  <si>
-    <t>1/1/MAINE</t>
-  </si>
-  <si>
-    <t>1/1/MINNESOTA</t>
-  </si>
-  <si>
-    <t>1/1/MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>1/1/NEW YORK</t>
-  </si>
-  <si>
-    <t>1/1/NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>1/1/</t>
-  </si>
-  <si>
     <t>yeardate</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1085,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,6 +1113,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1335,6 +1192,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1350,9 +1208,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1368,6 +1225,11 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1383,6 +1245,11 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="26"/>
@@ -1564,11 +1431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099972072"/>
-        <c:axId val="2099974984"/>
+        <c:axId val="2109273656"/>
+        <c:axId val="2109279992"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2099972072"/>
+        <c:axId val="2109273656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099974984"/>
+        <c:crossAx val="2109279992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1586,7 +1453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099974984"/>
+        <c:axId val="2109279992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,14 +1472,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099972072"/>
+        <c:crossAx val="2109273656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3005,11 +2871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2021335096"/>
-        <c:axId val="2114704152"/>
+        <c:axId val="2029420504"/>
+        <c:axId val="2029444632"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2021335096"/>
+        <c:axId val="2029420504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +2885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114704152"/>
+        <c:crossAx val="2029444632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3029,7 +2895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114704152"/>
+        <c:axId val="2029444632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,14 +2906,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2021335096"/>
+        <c:crossAx val="2029420504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3466,34 +3331,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="61" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -3531,19 +3396,19 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="14">
@@ -3723,19 +3588,19 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
@@ -3913,19 +3778,19 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
@@ -4103,19 +3968,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="61" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4144,8 +4009,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4207,8 +4072,8 @@
       <c r="H2" s="23">
         <v>41280</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>31</v>
+      <c r="I2" s="29">
+        <v>4.5999999999999996</v>
       </c>
       <c r="J2" s="29">
         <f>C2/100000</f>
@@ -5499,8 +5364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6181,2050 +6046,1807 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="150">
+    <row r="1" spans="1:10" ht="150">
       <c r="A1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" t="s">
         <v>35</v>
       </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
       <c r="C1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18265</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2922</v>
+      </c>
+      <c r="D2">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F33" si="0">C2+D2</f>
+        <v>3220</v>
+      </c>
+      <c r="G2" s="46">
+        <f t="shared" ref="G2:G33" si="1">C2/F2</f>
+        <v>0.90745341614906827</v>
+      </c>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2:H33" si="2">D2/F2</f>
+        <v>9.2546583850931674E-2</v>
+      </c>
+      <c r="I2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47974</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7676</v>
+      </c>
+      <c r="D3">
+        <v>827</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>8503</v>
+      </c>
+      <c r="G3" s="46">
+        <f t="shared" si="1"/>
+        <v>0.90274020933788079</v>
+      </c>
+      <c r="H3" s="46">
+        <f t="shared" si="2"/>
+        <v>9.7259790662119247E-2</v>
+      </c>
+      <c r="I3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="1">
+        <v>223195</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35711</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4579</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>40290</v>
+      </c>
+      <c r="G4" s="46">
+        <f t="shared" si="1"/>
+        <v>0.88634896996773394</v>
+      </c>
+      <c r="H4" s="46">
+        <f t="shared" si="2"/>
+        <v>0.11365103003226606</v>
+      </c>
+      <c r="I4">
+        <v>7.8</v>
+      </c>
+      <c r="J4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="1">
+        <v>92647</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14824</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2921</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>17745</v>
+      </c>
+      <c r="G5" s="46">
+        <f t="shared" si="1"/>
+        <v>0.83539025077486617</v>
+      </c>
+      <c r="H5" s="46">
+        <f t="shared" si="2"/>
+        <v>0.16460974922513383</v>
+      </c>
+      <c r="I5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35298</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5648</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>6761</v>
+      </c>
+      <c r="G6" s="46">
+        <f t="shared" si="1"/>
+        <v>0.8353793817482621</v>
+      </c>
+      <c r="H6" s="46">
+        <f t="shared" si="2"/>
+        <v>0.1646206182517379</v>
+      </c>
+      <c r="I6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1">
+        <v>148521</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23763</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4826</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>28589</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="1"/>
+        <v>0.831193815803281</v>
+      </c>
+      <c r="H7" s="46">
+        <f t="shared" si="2"/>
+        <v>0.16880618419671903</v>
+      </c>
+      <c r="I7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="1">
+        <v>51458</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8233</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1807</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>10040</v>
+      </c>
+      <c r="G8" s="46">
+        <f t="shared" si="1"/>
+        <v>0.82001992031872506</v>
+      </c>
+      <c r="H8" s="46">
+        <f t="shared" si="2"/>
+        <v>0.17998007968127491</v>
+      </c>
+      <c r="I8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11206</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1793</v>
+      </c>
+      <c r="D9">
+        <v>394</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2187</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81984453589391859</v>
+      </c>
+      <c r="H9" s="46">
+        <f t="shared" si="2"/>
+        <v>0.18015546410608138</v>
+      </c>
+      <c r="I9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="1">
+        <v>67132</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10741</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2496</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>13237</v>
+      </c>
+      <c r="G10" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81143763692679605</v>
+      </c>
+      <c r="H10" s="46">
+        <f t="shared" si="2"/>
+        <v>0.1885623630732039</v>
+      </c>
+      <c r="I10">
+        <v>4.3</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="1">
+        <v>33955</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5433</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>6758</v>
+      </c>
+      <c r="G11" s="46">
+        <f t="shared" si="1"/>
+        <v>0.80393607576205983</v>
+      </c>
+      <c r="H11" s="46">
+        <f t="shared" si="2"/>
+        <v>0.19606392423794022</v>
+      </c>
+      <c r="I11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="1">
+        <v>64123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10260</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2536</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>12796</v>
+      </c>
+      <c r="G12" s="46">
+        <f t="shared" si="1"/>
+        <v>0.80181306658330731</v>
+      </c>
+      <c r="H12" s="46">
+        <f t="shared" si="2"/>
+        <v>0.19818693341669272</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40561</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6490</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1609</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>8099</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="1"/>
+        <v>0.80133349796271147</v>
+      </c>
+      <c r="H13" s="46">
+        <f t="shared" si="2"/>
+        <v>0.19866650203728856</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11514</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1842</v>
+      </c>
+      <c r="D14">
+        <v>462</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="1"/>
+        <v>0.79947916666666663</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.20052083333333334</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36154</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5785</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>7285</v>
+      </c>
+      <c r="G15" s="46">
+        <f t="shared" si="1"/>
+        <v>0.79409746053534658</v>
+      </c>
+      <c r="H15" s="46">
+        <f t="shared" si="2"/>
+        <v>0.20590253946465339</v>
+      </c>
+      <c r="I15">
+        <v>3.9</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="1">
+        <v>246317</v>
+      </c>
+      <c r="C16" s="1">
+        <v>39411</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10295</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>49706</v>
+      </c>
+      <c r="G16" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7928821470245041</v>
+      </c>
+      <c r="H16" s="46">
+        <f t="shared" si="2"/>
+        <v>0.20711785297549593</v>
+      </c>
+      <c r="I16">
+        <v>3.8</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4678</v>
+      </c>
+      <c r="C17">
+        <v>748</v>
+      </c>
+      <c r="D17">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="1"/>
+        <v>0.78406708595387842</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" si="2"/>
+        <v>0.21593291404612158</v>
+      </c>
+      <c r="I17">
+        <v>3.6</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="1">
+        <v>57444</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9191</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2548</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>11739</v>
+      </c>
+      <c r="G18" s="46">
+        <f t="shared" si="1"/>
+        <v>0.78294573643410847</v>
+      </c>
+      <c r="H18" s="46">
+        <f t="shared" si="2"/>
+        <v>0.21705426356589147</v>
+      </c>
+      <c r="I18">
+        <v>3.6</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="1">
+        <v>32593</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5215</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1463</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>6678</v>
+      </c>
+      <c r="G19" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7809224318658281</v>
+      </c>
+      <c r="H19" s="46">
+        <f t="shared" si="2"/>
+        <v>0.2190775681341719</v>
+      </c>
+      <c r="I19">
+        <v>3.6</v>
+      </c>
+      <c r="J19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="1">
+        <v>53854</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8617</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2443</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>11060</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="1"/>
+        <v>0.77911392405063296</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="2"/>
+        <v>0.2208860759493671</v>
+      </c>
+      <c r="I20">
+        <v>3.5</v>
+      </c>
+      <c r="J20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15972</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2556</v>
+      </c>
+      <c r="D21">
+        <v>732</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>3288</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>0.77737226277372262</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="2"/>
+        <v>0.22262773722627738</v>
+      </c>
+      <c r="I21">
+        <v>3.5</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15081</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2413</v>
+      </c>
+      <c r="D22">
+        <v>732</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>3145</v>
+      </c>
+      <c r="G22" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76724960254372021</v>
+      </c>
+      <c r="H22" s="46">
+        <f t="shared" si="2"/>
+        <v>0.23275039745627982</v>
+      </c>
+      <c r="I22">
+        <v>3.3</v>
+      </c>
+      <c r="J22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="1">
+        <v>18693</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2991</v>
+      </c>
+      <c r="D23">
+        <v>920</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>3911</v>
+      </c>
+      <c r="G23" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76476604448990027</v>
+      </c>
+      <c r="H23" s="46">
+        <f t="shared" si="2"/>
+        <v>0.23523395551009971</v>
+      </c>
+      <c r="I23">
+        <v>3.3</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6988</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>9209</v>
+      </c>
+      <c r="G24" s="46">
+        <f t="shared" si="1"/>
+        <v>0.75882289065045061</v>
+      </c>
+      <c r="H24" s="46">
+        <f t="shared" si="2"/>
+        <v>0.24117710934954936</v>
+      </c>
+      <c r="I24">
+        <v>3.1</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4923</v>
+      </c>
+      <c r="C25">
+        <v>788</v>
+      </c>
+      <c r="D25">
+        <v>256</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1044</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" si="1"/>
+        <v>0.75478927203065138</v>
+      </c>
+      <c r="H25" s="46">
+        <f t="shared" si="2"/>
+        <v>0.24521072796934865</v>
+      </c>
+      <c r="I25">
+        <v>3.1</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="1">
+        <v>29225</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4676</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1521</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>6197</v>
+      </c>
+      <c r="G26" s="46">
+        <f t="shared" si="1"/>
+        <v>0.75455865741487815</v>
+      </c>
+      <c r="H26" s="46">
+        <f t="shared" si="2"/>
+        <v>0.24544134258512185</v>
+      </c>
+      <c r="I26">
+        <v>3.1</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="1">
+        <v>19318</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3091</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1026</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>4117</v>
+      </c>
+      <c r="G27" s="46">
+        <f t="shared" si="1"/>
+        <v>0.75078940976439157</v>
+      </c>
+      <c r="H27" s="46">
+        <f t="shared" si="2"/>
+        <v>0.24921059023560846</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
         <v>36</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="44" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6916</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D28">
+        <v>372</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1479</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="1"/>
+        <v>0.74847870182555776</v>
+      </c>
+      <c r="H28" s="46">
+        <f t="shared" si="2"/>
+        <v>0.25152129817444219</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5705</v>
+      </c>
+      <c r="C29">
+        <v>913</v>
+      </c>
+      <c r="D29">
+        <v>311</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="G29" s="46">
+        <f t="shared" si="1"/>
+        <v>0.74591503267973858</v>
+      </c>
+      <c r="H29" s="46">
+        <f t="shared" si="2"/>
+        <v>0.25408496732026142</v>
+      </c>
+      <c r="I29">
+        <v>2.9</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30034</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4805</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1638</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>6443</v>
+      </c>
+      <c r="G30" s="46">
+        <f t="shared" si="1"/>
+        <v>0.74577060375601423</v>
+      </c>
+      <c r="H30" s="46">
+        <f t="shared" si="2"/>
+        <v>0.25422939624398572</v>
+      </c>
+      <c r="I30">
+        <v>2.9</v>
+      </c>
+      <c r="J30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3515</v>
+      </c>
+      <c r="C31">
+        <v>562</v>
+      </c>
+      <c r="D31">
+        <v>199</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>761</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="1"/>
+        <v>0.73850197109067017</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="2"/>
+        <v>0.26149802890932983</v>
+      </c>
+      <c r="I31">
+        <v>2.8</v>
+      </c>
+      <c r="J31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41461</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6634</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2441</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>9075</v>
+      </c>
+      <c r="G32" s="46">
+        <f t="shared" si="1"/>
+        <v>0.73101928374655645</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="2"/>
+        <v>0.26898071625344355</v>
+      </c>
+      <c r="I32">
+        <v>2.7</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="1">
+        <v>64735</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10358</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3841</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>14199</v>
+      </c>
+      <c r="G33" s="46">
+        <f t="shared" si="1"/>
+        <v>0.72948799211212056</v>
+      </c>
+      <c r="H33" s="46">
+        <f t="shared" si="2"/>
+        <v>0.27051200788787944</v>
+      </c>
+      <c r="I33">
+        <v>2.7</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="1">
+        <v>39959</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6393</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2413</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F51" si="3">C34+D34</f>
+        <v>8806</v>
+      </c>
+      <c r="G34" s="46">
+        <f t="shared" ref="G34:G51" si="4">C34/F34</f>
+        <v>0.72598228480581417</v>
+      </c>
+      <c r="H34" s="46">
+        <f t="shared" ref="H34:H51" si="5">D34/F34</f>
+        <v>0.27401771519418577</v>
+      </c>
+      <c r="I34">
+        <v>2.6</v>
+      </c>
+      <c r="J34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12215</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1954</v>
+      </c>
+      <c r="D35">
+        <v>744</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="3"/>
+        <v>2698</v>
+      </c>
+      <c r="G35" s="46">
+        <f t="shared" si="4"/>
+        <v>0.72424017790956263</v>
+      </c>
+      <c r="H35" s="46">
+        <f t="shared" si="5"/>
+        <v>0.27575982209043737</v>
+      </c>
+      <c r="I35">
+        <v>2.6</v>
+      </c>
+      <c r="J35">
         <v>39</v>
       </c>
-      <c r="K1" s="44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18265</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2922</v>
-      </c>
-      <c r="E2">
-        <v>298</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="1">
-        <f>D2+E2</f>
-        <v>3220</v>
-      </c>
-      <c r="H2" s="46">
-        <f>D2/G2</f>
-        <v>0.90745341614906827</v>
-      </c>
-      <c r="I2" s="46">
-        <f>E2/G2</f>
-        <v>9.2546583850931674E-2</v>
-      </c>
-      <c r="J2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1">
-        <v>47974</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7676</v>
-      </c>
-      <c r="E3">
-        <v>827</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1">
-        <f>D3+E3</f>
-        <v>8503</v>
-      </c>
-      <c r="H3" s="46">
-        <f>D3/G3</f>
-        <v>0.90274020933788079</v>
-      </c>
-      <c r="I3" s="46">
-        <f>E3/G3</f>
-        <v>9.7259790662119247E-2</v>
-      </c>
-      <c r="J3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1">
-        <v>223195</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35711</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4579</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="1">
-        <f>D4+E4</f>
-        <v>40290</v>
-      </c>
-      <c r="H4" s="46">
-        <f>D4/G4</f>
-        <v>0.88634896996773394</v>
-      </c>
-      <c r="I4" s="46">
-        <f>E4/G4</f>
-        <v>0.11365103003226606</v>
-      </c>
-      <c r="J4">
-        <v>7.8</v>
-      </c>
-      <c r="K4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1">
-        <v>92647</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14824</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2921</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35601</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5696</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2211</v>
+      </c>
+      <c r="E36" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="1">
-        <f>D5+E5</f>
-        <v>17745</v>
-      </c>
-      <c r="H5" s="46">
-        <f>D5/G5</f>
-        <v>0.83539025077486617</v>
-      </c>
-      <c r="I5" s="46">
-        <f>E5/G5</f>
-        <v>0.16460974922513383</v>
-      </c>
-      <c r="J5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="1">
-        <v>35298</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5648</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1113</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1">
-        <f>D6+E6</f>
-        <v>6761</v>
-      </c>
-      <c r="H6" s="46">
-        <f>D6/G6</f>
-        <v>0.8353793817482621</v>
-      </c>
-      <c r="I6" s="46">
-        <f>E6/G6</f>
-        <v>0.1646206182517379</v>
-      </c>
-      <c r="J6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1">
-        <v>148521</v>
-      </c>
-      <c r="D7" s="1">
-        <v>23763</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4826</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="1">
-        <f>D7+E7</f>
-        <v>28589</v>
-      </c>
-      <c r="H7" s="46">
-        <f>D7/G7</f>
-        <v>0.831193815803281</v>
-      </c>
-      <c r="I7" s="46">
-        <f>E7/G7</f>
-        <v>0.16880618419671903</v>
-      </c>
-      <c r="J7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1">
-        <v>51458</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8233</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1807</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1">
-        <f>D8+E8</f>
-        <v>10040</v>
-      </c>
-      <c r="H8" s="46">
-        <f>D8/G8</f>
-        <v>0.82001992031872506</v>
-      </c>
-      <c r="I8" s="46">
-        <f>E8/G8</f>
-        <v>0.17998007968127491</v>
-      </c>
-      <c r="J8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11206</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1793</v>
-      </c>
-      <c r="E9">
-        <v>394</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="1">
-        <f>D9+E9</f>
-        <v>2187</v>
-      </c>
-      <c r="H9" s="46">
-        <f>D9/G9</f>
-        <v>0.81984453589391859</v>
-      </c>
-      <c r="I9" s="46">
-        <f>E9/G9</f>
-        <v>0.18015546410608138</v>
-      </c>
-      <c r="J9">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="1">
-        <v>67132</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10741</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2496</v>
-      </c>
-      <c r="F10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="1">
-        <f>D10+E10</f>
-        <v>13237</v>
-      </c>
-      <c r="H10" s="46">
-        <f>D10/G10</f>
-        <v>0.81143763692679605</v>
-      </c>
-      <c r="I10" s="46">
-        <f>E10/G10</f>
-        <v>0.1885623630732039</v>
-      </c>
-      <c r="J10">
-        <v>4.3</v>
-      </c>
-      <c r="K10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1">
-        <v>33955</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5433</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1325</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <f>D11+E11</f>
-        <v>6758</v>
-      </c>
-      <c r="H11" s="46">
-        <f>D11/G11</f>
-        <v>0.80393607576205983</v>
-      </c>
-      <c r="I11" s="46">
-        <f>E11/G11</f>
-        <v>0.19606392423794022</v>
-      </c>
-      <c r="J11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="1">
-        <v>64123</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10260</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2536</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="1">
-        <f>D12+E12</f>
-        <v>12796</v>
-      </c>
-      <c r="H12" s="46">
-        <f>D12/G12</f>
-        <v>0.80181306658330731</v>
-      </c>
-      <c r="I12" s="46">
-        <f>E12/G12</f>
-        <v>0.19818693341669272</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40561</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6490</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1609</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="1">
-        <f>D13+E13</f>
-        <v>8099</v>
-      </c>
-      <c r="H13" s="46">
-        <f>D13/G13</f>
-        <v>0.80133349796271147</v>
-      </c>
-      <c r="I13" s="46">
-        <f>E13/G13</f>
-        <v>0.19866650203728856</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11514</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1842</v>
-      </c>
-      <c r="E14">
-        <v>462</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="1">
-        <f>D14+E14</f>
-        <v>2304</v>
-      </c>
-      <c r="H14" s="46">
-        <f>D14/G14</f>
-        <v>0.79947916666666663</v>
-      </c>
-      <c r="I14" s="46">
-        <f>E14/G14</f>
-        <v>0.20052083333333334</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="1">
-        <v>36154</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5785</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="1">
-        <f>D15+E15</f>
-        <v>7285</v>
-      </c>
-      <c r="H15" s="46">
-        <f>D15/G15</f>
-        <v>0.79409746053534658</v>
-      </c>
-      <c r="I15" s="46">
-        <f>E15/G15</f>
-        <v>0.20590253946465339</v>
-      </c>
-      <c r="J15">
-        <v>3.9</v>
-      </c>
-      <c r="K15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1">
-        <v>246317</v>
-      </c>
-      <c r="D16" s="1">
-        <v>39411</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10295</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="1">
-        <f>D16+E16</f>
-        <v>49706</v>
-      </c>
-      <c r="H16" s="46">
-        <f>D16/G16</f>
-        <v>0.7928821470245041</v>
-      </c>
-      <c r="I16" s="46">
-        <f>E16/G16</f>
-        <v>0.20711785297549593</v>
-      </c>
-      <c r="J16">
-        <v>3.8</v>
-      </c>
-      <c r="K16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4678</v>
-      </c>
-      <c r="D17">
-        <v>748</v>
-      </c>
-      <c r="E17">
-        <v>206</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F36" s="1">
+        <f t="shared" si="3"/>
+        <v>7907</v>
+      </c>
+      <c r="G36" s="46">
+        <f t="shared" si="4"/>
+        <v>0.72037435184014165</v>
+      </c>
+      <c r="H36" s="46">
+        <f t="shared" si="5"/>
+        <v>0.27962564815985835</v>
+      </c>
+      <c r="I36">
+        <v>2.6</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4827</v>
+      </c>
+      <c r="C37">
+        <v>772</v>
+      </c>
+      <c r="D37">
+        <v>319</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>1091</v>
+      </c>
+      <c r="G37" s="46">
+        <f t="shared" si="4"/>
+        <v>0.70760769935838685</v>
+      </c>
+      <c r="H37" s="46">
+        <f t="shared" si="5"/>
+        <v>0.2923923006416132</v>
+      </c>
+      <c r="I37">
+        <v>2.4</v>
+      </c>
+      <c r="J37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8043</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1287</v>
+      </c>
+      <c r="D38">
+        <v>609</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="3"/>
+        <v>1896</v>
+      </c>
+      <c r="G38" s="46">
+        <f t="shared" si="4"/>
+        <v>0.67879746835443033</v>
+      </c>
+      <c r="H38" s="46">
+        <f t="shared" si="5"/>
+        <v>0.32120253164556961</v>
+      </c>
+      <c r="I38">
+        <v>2.1</v>
+      </c>
+      <c r="J38">
         <v>44</v>
       </c>
-      <c r="G17" s="1">
-        <f>D17+E17</f>
-        <v>954</v>
-      </c>
-      <c r="H17" s="46">
-        <f>D17/G17</f>
-        <v>0.78406708595387842</v>
-      </c>
-      <c r="I17" s="46">
-        <f>E17/G17</f>
-        <v>0.21593291404612158</v>
-      </c>
-      <c r="J17">
-        <v>3.6</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="1">
-        <v>57444</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9191</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2548</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="1">
-        <f>D18+E18</f>
-        <v>11739</v>
-      </c>
-      <c r="H18" s="46">
-        <f>D18/G18</f>
-        <v>0.78294573643410847</v>
-      </c>
-      <c r="I18" s="46">
-        <f>E18/G18</f>
-        <v>0.21705426356589147</v>
-      </c>
-      <c r="J18">
-        <v>3.6</v>
-      </c>
-      <c r="K18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="1">
-        <v>32593</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5215</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1463</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="1">
-        <f>D19+E19</f>
-        <v>6678</v>
-      </c>
-      <c r="H19" s="46">
-        <f>D19/G19</f>
-        <v>0.7809224318658281</v>
-      </c>
-      <c r="I19" s="46">
-        <f>E19/G19</f>
-        <v>0.2190775681341719</v>
-      </c>
-      <c r="J19">
-        <v>3.6</v>
-      </c>
-      <c r="K19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="1">
-        <v>53854</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8617</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2443</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="1">
-        <f>D20+E20</f>
-        <v>11060</v>
-      </c>
-      <c r="H20" s="46">
-        <f>D20/G20</f>
-        <v>0.77911392405063296</v>
-      </c>
-      <c r="I20" s="46">
-        <f>E20/G20</f>
-        <v>0.2208860759493671</v>
-      </c>
-      <c r="J20">
-        <v>3.5</v>
-      </c>
-      <c r="K20">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1">
-        <v>15972</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2556</v>
-      </c>
-      <c r="E21">
-        <v>732</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="1">
-        <f>D21+E21</f>
-        <v>3288</v>
-      </c>
-      <c r="H21" s="46">
-        <f>D21/G21</f>
-        <v>0.77737226277372262</v>
-      </c>
-      <c r="I21" s="46">
-        <f>E21/G21</f>
-        <v>0.22262773722627738</v>
-      </c>
-      <c r="J21">
-        <v>3.5</v>
-      </c>
-      <c r="K21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="1">
-        <v>15081</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2413</v>
-      </c>
-      <c r="E22">
-        <v>732</v>
-      </c>
-      <c r="F22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="1">
-        <f>D22+E22</f>
-        <v>3145</v>
-      </c>
-      <c r="H22" s="46">
-        <f>D22/G22</f>
-        <v>0.76724960254372021</v>
-      </c>
-      <c r="I22" s="46">
-        <f>E22/G22</f>
-        <v>0.23275039745627982</v>
-      </c>
-      <c r="J22">
-        <v>3.3</v>
-      </c>
-      <c r="K22">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1">
-        <v>18693</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2991</v>
-      </c>
-      <c r="E23">
-        <v>920</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="1">
-        <f>D23+E23</f>
-        <v>3911</v>
-      </c>
-      <c r="H23" s="46">
-        <f>D23/G23</f>
-        <v>0.76476604448990027</v>
-      </c>
-      <c r="I23" s="46">
-        <f>E23/G23</f>
-        <v>0.23523395551009971</v>
-      </c>
-      <c r="J23">
-        <v>3.3</v>
-      </c>
-      <c r="K23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="1">
-        <v>43678</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6988</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2221</v>
-      </c>
-      <c r="F24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="1">
-        <f>D24+E24</f>
-        <v>9209</v>
-      </c>
-      <c r="H24" s="46">
-        <f>D24/G24</f>
-        <v>0.75882289065045061</v>
-      </c>
-      <c r="I24" s="46">
-        <f>E24/G24</f>
-        <v>0.24117710934954936</v>
-      </c>
-      <c r="J24">
-        <v>3.1</v>
-      </c>
-      <c r="K24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4923</v>
-      </c>
-      <c r="D25">
-        <v>788</v>
-      </c>
-      <c r="E25">
-        <v>256</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="1">
-        <f>D25+E25</f>
-        <v>1044</v>
-      </c>
-      <c r="H25" s="46">
-        <f>D25/G25</f>
-        <v>0.75478927203065138</v>
-      </c>
-      <c r="I25" s="46">
-        <f>E25/G25</f>
-        <v>0.24521072796934865</v>
-      </c>
-      <c r="J25">
-        <v>3.1</v>
-      </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1">
-        <v>29225</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4676</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1521</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="1">
-        <f>D26+E26</f>
-        <v>6197</v>
-      </c>
-      <c r="H26" s="46">
-        <f>D26/G26</f>
-        <v>0.75455865741487815</v>
-      </c>
-      <c r="I26" s="46">
-        <f>E26/G26</f>
-        <v>0.24544134258512185</v>
-      </c>
-      <c r="J26">
-        <v>3.1</v>
-      </c>
-      <c r="K26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="1">
-        <v>19318</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3091</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1026</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="1">
-        <f>D27+E27</f>
-        <v>4117</v>
-      </c>
-      <c r="H27" s="46">
-        <f>D27/G27</f>
-        <v>0.75078940976439157</v>
-      </c>
-      <c r="I27" s="46">
-        <f>E27/G27</f>
-        <v>0.24921059023560846</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>248</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6916</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1107</v>
-      </c>
-      <c r="E28">
-        <v>372</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="1">
-        <f>D28+E28</f>
-        <v>1479</v>
-      </c>
-      <c r="H28" s="46">
-        <f>D28/G28</f>
-        <v>0.74847870182555776</v>
-      </c>
-      <c r="I28" s="46">
-        <f>E28/G28</f>
-        <v>0.25152129817444219</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5705</v>
-      </c>
-      <c r="D29">
-        <v>913</v>
-      </c>
-      <c r="E29">
-        <v>311</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="1">
-        <f>D29+E29</f>
-        <v>1224</v>
-      </c>
-      <c r="H29" s="46">
-        <f>D29/G29</f>
-        <v>0.74591503267973858</v>
-      </c>
-      <c r="I29" s="46">
-        <f>E29/G29</f>
-        <v>0.25408496732026142</v>
-      </c>
-      <c r="J29">
-        <v>2.9</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30034</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4805</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1638</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="1">
-        <f>D30+E30</f>
-        <v>6443</v>
-      </c>
-      <c r="H30" s="46">
-        <f>D30/G30</f>
-        <v>0.74577060375601423</v>
-      </c>
-      <c r="I30" s="46">
-        <f>E30/G30</f>
-        <v>0.25422939624398572</v>
-      </c>
-      <c r="J30">
-        <v>2.9</v>
-      </c>
-      <c r="K30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3515</v>
-      </c>
-      <c r="D31">
-        <v>562</v>
-      </c>
-      <c r="E31">
-        <v>199</v>
-      </c>
-      <c r="F31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="1">
-        <f>D31+E31</f>
-        <v>761</v>
-      </c>
-      <c r="H31" s="46">
-        <f>D31/G31</f>
-        <v>0.73850197109067017</v>
-      </c>
-      <c r="I31" s="46">
-        <f>E31/G31</f>
-        <v>0.26149802890932983</v>
-      </c>
-      <c r="J31">
-        <v>2.8</v>
-      </c>
-      <c r="K31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1">
-        <v>41461</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6634</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2441</v>
-      </c>
-      <c r="F32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="1">
-        <f>D32+E32</f>
-        <v>9075</v>
-      </c>
-      <c r="H32" s="46">
-        <f>D32/G32</f>
-        <v>0.73101928374655645</v>
-      </c>
-      <c r="I32" s="46">
-        <f>E32/G32</f>
-        <v>0.26898071625344355</v>
-      </c>
-      <c r="J32">
-        <v>2.7</v>
-      </c>
-      <c r="K32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1">
-        <v>64735</v>
-      </c>
-      <c r="D33" s="1">
-        <v>10358</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3841</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="1">
-        <f>D33+E33</f>
-        <v>14199</v>
-      </c>
-      <c r="H33" s="46">
-        <f>D33/G33</f>
-        <v>0.72948799211212056</v>
-      </c>
-      <c r="I33" s="46">
-        <f>E33/G33</f>
-        <v>0.27051200788787944</v>
-      </c>
-      <c r="J33">
-        <v>2.7</v>
-      </c>
-      <c r="K33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1">
-        <v>39959</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6393</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2413</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="1">
-        <f>D34+E34</f>
-        <v>8806</v>
-      </c>
-      <c r="H34" s="46">
-        <f>D34/G34</f>
-        <v>0.72598228480581417</v>
-      </c>
-      <c r="I34" s="46">
-        <f>E34/G34</f>
-        <v>0.27401771519418577</v>
-      </c>
-      <c r="J34">
-        <v>2.6</v>
-      </c>
-      <c r="K34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4184</v>
+      </c>
+      <c r="C39">
+        <v>669</v>
+      </c>
+      <c r="D39">
+        <v>337</v>
+      </c>
+      <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="1">
-        <v>12215</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1954</v>
-      </c>
-      <c r="E35">
-        <v>744</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="1">
-        <f>D35+E35</f>
-        <v>2698</v>
-      </c>
-      <c r="H35" s="46">
-        <f>D35/G35</f>
-        <v>0.72424017790956263</v>
-      </c>
-      <c r="I35" s="46">
-        <f>E35/G35</f>
-        <v>0.27575982209043737</v>
-      </c>
-      <c r="J35">
-        <v>2.6</v>
-      </c>
-      <c r="K35">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="1">
-        <v>35601</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5696</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2211</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="1">
-        <f>D36+E36</f>
-        <v>7907</v>
-      </c>
-      <c r="H36" s="46">
-        <f>D36/G36</f>
-        <v>0.72037435184014165</v>
-      </c>
-      <c r="I36" s="46">
-        <f>E36/G36</f>
-        <v>0.27962564815985835</v>
-      </c>
-      <c r="J36">
-        <v>2.6</v>
-      </c>
-      <c r="K36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4827</v>
-      </c>
-      <c r="D37">
-        <v>772</v>
-      </c>
-      <c r="E37">
-        <v>319</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="1">
-        <f>D37+E37</f>
-        <v>1091</v>
-      </c>
-      <c r="H37" s="46">
-        <f>D37/G37</f>
-        <v>0.70760769935838685</v>
-      </c>
-      <c r="I37" s="46">
-        <f>E37/G37</f>
-        <v>0.2923923006416132</v>
-      </c>
-      <c r="J37">
-        <v>2.4</v>
-      </c>
-      <c r="K37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="1">
-        <v>8043</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1287</v>
-      </c>
-      <c r="E38">
-        <v>609</v>
-      </c>
-      <c r="F38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="1">
-        <f>D38+E38</f>
-        <v>1896</v>
-      </c>
-      <c r="H38" s="46">
-        <f>D38/G38</f>
-        <v>0.67879746835443033</v>
-      </c>
-      <c r="I38" s="46">
-        <f>E38/G38</f>
-        <v>0.32120253164556961</v>
-      </c>
-      <c r="J38">
-        <v>2.1</v>
-      </c>
-      <c r="K38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4184</v>
-      </c>
-      <c r="D39">
-        <v>669</v>
-      </c>
-      <c r="E39">
-        <v>337</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="1">
-        <f>D39+E39</f>
+      <c r="F39" s="1">
+        <f t="shared" si="3"/>
         <v>1006</v>
       </c>
+      <c r="G39" s="46">
+        <f t="shared" si="4"/>
+        <v>0.66500994035785288</v>
+      </c>
       <c r="H39" s="46">
-        <f>D39/G39</f>
-        <v>0.66500994035785288</v>
-      </c>
-      <c r="I39" s="46">
-        <f>E39/G39</f>
+        <f t="shared" si="5"/>
         <v>0.33499005964214712</v>
       </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
       <c r="J39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="1">
+        <v>75507</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12081</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="3"/>
+        <v>18209</v>
+      </c>
+      <c r="G40" s="46">
+        <f t="shared" si="4"/>
+        <v>0.66346312263166562</v>
+      </c>
+      <c r="H40" s="46">
+        <f t="shared" si="5"/>
+        <v>0.33653687736833432</v>
+      </c>
+      <c r="I40">
         <v>2</v>
-      </c>
-      <c r="K39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="1">
-        <v>75507</v>
-      </c>
-      <c r="D40" s="1">
-        <v>12081</v>
-      </c>
-      <c r="E40" s="1">
-        <v>6128</v>
-      </c>
-      <c r="F40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="1">
-        <f>D40+E40</f>
-        <v>18209</v>
-      </c>
-      <c r="H40" s="46">
-        <f>D40/G40</f>
-        <v>0.66346312263166562</v>
-      </c>
-      <c r="I40" s="46">
-        <f>E40/G40</f>
-        <v>0.33653687736833432</v>
       </c>
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
+        <v>212</v>
+      </c>
+      <c r="B41" s="1">
+        <v>19087</v>
       </c>
       <c r="C41" s="1">
-        <v>19087</v>
+        <v>3054</v>
       </c>
       <c r="D41" s="1">
-        <v>3054</v>
-      </c>
-      <c r="E41" s="1">
         <v>1571</v>
       </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="1">
-        <f>D41+E41</f>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="3"/>
         <v>4625</v>
       </c>
+      <c r="G41" s="46">
+        <f t="shared" si="4"/>
+        <v>0.66032432432432431</v>
+      </c>
       <c r="H41" s="46">
-        <f>D41/G41</f>
-        <v>0.66032432432432431</v>
-      </c>
-      <c r="I41" s="46">
-        <f>E41/G41</f>
+        <f t="shared" si="5"/>
         <v>0.33967567567567569</v>
       </c>
+      <c r="I41">
+        <v>1.9</v>
+      </c>
       <c r="J41">
-        <v>1.9</v>
-      </c>
-      <c r="K41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
+        <v>213</v>
+      </c>
+      <c r="B42" s="1">
+        <v>27902</v>
       </c>
       <c r="C42" s="1">
-        <v>27902</v>
+        <v>4464</v>
       </c>
       <c r="D42" s="1">
-        <v>4464</v>
-      </c>
-      <c r="E42" s="1">
         <v>2484</v>
       </c>
-      <c r="F42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="1">
-        <f>D42+E42</f>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="3"/>
         <v>6948</v>
       </c>
+      <c r="G42" s="46">
+        <f t="shared" si="4"/>
+        <v>0.6424870466321243</v>
+      </c>
       <c r="H42" s="46">
-        <f>D42/G42</f>
-        <v>0.6424870466321243</v>
-      </c>
-      <c r="I42" s="46">
-        <f>E42/G42</f>
+        <f t="shared" si="5"/>
         <v>0.35751295336787564</v>
       </c>
+      <c r="I42">
+        <v>1.8</v>
+      </c>
       <c r="J42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1975</v>
+      </c>
+      <c r="C43">
+        <v>316</v>
+      </c>
+      <c r="D43">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="G43" s="46">
+        <f t="shared" si="4"/>
+        <v>0.64097363083164305</v>
+      </c>
+      <c r="H43" s="46">
+        <f t="shared" si="5"/>
+        <v>0.35902636916835701</v>
+      </c>
+      <c r="I43">
         <v>1.8</v>
       </c>
-      <c r="K42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1975</v>
-      </c>
-      <c r="D43">
-        <v>316</v>
-      </c>
-      <c r="E43">
-        <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="1">
-        <f>D43+E43</f>
-        <v>493</v>
-      </c>
-      <c r="H43" s="46">
-        <f>D43/G43</f>
-        <v>0.64097363083164305</v>
-      </c>
-      <c r="I43" s="46">
-        <f>E43/G43</f>
-        <v>0.35902636916835701</v>
-      </c>
       <c r="J43">
-        <v>1.8</v>
-      </c>
-      <c r="K43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
+        <v>215</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7406</v>
       </c>
       <c r="C44" s="1">
-        <v>7406</v>
-      </c>
-      <c r="D44" s="1">
         <v>1185</v>
       </c>
-      <c r="E44">
+      <c r="D44">
         <v>688</v>
       </c>
-      <c r="F44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="1">
-        <f>D44+E44</f>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="3"/>
         <v>1873</v>
       </c>
+      <c r="G44" s="46">
+        <f t="shared" si="4"/>
+        <v>0.63267485317672179</v>
+      </c>
       <c r="H44" s="46">
-        <f>D44/G44</f>
-        <v>0.63267485317672179</v>
-      </c>
-      <c r="I44" s="46">
-        <f>E44/G44</f>
+        <f t="shared" si="5"/>
         <v>0.36732514682327816</v>
       </c>
+      <c r="I44">
+        <v>1.7</v>
+      </c>
       <c r="J44">
-        <v>1.7</v>
-      </c>
-      <c r="K44">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
+        <v>216</v>
+      </c>
+      <c r="B45" s="1">
+        <v>46411</v>
       </c>
       <c r="C45" s="1">
-        <v>46411</v>
+        <v>7426</v>
       </c>
       <c r="D45" s="1">
-        <v>7426</v>
-      </c>
-      <c r="E45" s="1">
         <v>4606</v>
       </c>
-      <c r="F45" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="1">
-        <f>D45+E45</f>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="3"/>
         <v>12032</v>
       </c>
+      <c r="G45" s="46">
+        <f t="shared" si="4"/>
+        <v>0.6171875</v>
+      </c>
       <c r="H45" s="46">
-        <f>D45/G45</f>
-        <v>0.6171875</v>
-      </c>
-      <c r="I45" s="46">
-        <f>E45/G45</f>
+        <f t="shared" si="5"/>
         <v>0.3828125</v>
       </c>
+      <c r="I45">
+        <v>1.6</v>
+      </c>
       <c r="J45">
-        <v>1.6</v>
-      </c>
-      <c r="K45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>266</v>
-      </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="1">
+        <v>217</v>
+      </c>
+      <c r="B46" s="1">
         <v>3364</v>
       </c>
+      <c r="C46">
+        <v>538</v>
+      </c>
       <c r="D46">
-        <v>538</v>
-      </c>
-      <c r="E46">
         <v>363</v>
       </c>
-      <c r="F46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="1">
-        <f>D46+E46</f>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="3"/>
         <v>901</v>
       </c>
+      <c r="G46" s="46">
+        <f t="shared" si="4"/>
+        <v>0.59711431742508325</v>
+      </c>
       <c r="H46" s="46">
-        <f>D46/G46</f>
-        <v>0.59711431742508325</v>
-      </c>
-      <c r="I46" s="46">
-        <f>E46/G46</f>
+        <f t="shared" si="5"/>
         <v>0.40288568257491675</v>
       </c>
+      <c r="I46">
+        <v>1.5</v>
+      </c>
       <c r="J46">
-        <v>1.5</v>
-      </c>
-      <c r="K46">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="1">
+        <v>218</v>
+      </c>
+      <c r="B47" s="1">
         <v>3608</v>
       </c>
+      <c r="C47">
+        <v>577</v>
+      </c>
       <c r="D47">
-        <v>577</v>
-      </c>
-      <c r="E47">
         <v>463</v>
       </c>
-      <c r="F47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="1">
-        <f>D47+E47</f>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
+      <c r="G47" s="46">
+        <f t="shared" si="4"/>
+        <v>0.55480769230769234</v>
+      </c>
       <c r="H47" s="46">
-        <f>D47/G47</f>
-        <v>0.55480769230769234</v>
-      </c>
-      <c r="I47" s="46">
-        <f>E47/G47</f>
+        <f t="shared" si="5"/>
         <v>0.44519230769230766</v>
       </c>
+      <c r="I47">
+        <v>1.2</v>
+      </c>
       <c r="J47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="1">
+        <v>15422</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2468</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1982</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="3"/>
+        <v>4450</v>
+      </c>
+      <c r="G48" s="46">
+        <f t="shared" si="4"/>
+        <v>0.55460674157303369</v>
+      </c>
+      <c r="H48" s="46">
+        <f t="shared" si="5"/>
+        <v>0.44539325842696631</v>
+      </c>
+      <c r="I48">
         <v>1.2</v>
       </c>
-      <c r="K47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="1">
-        <v>15422</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2468</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1982</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="1">
-        <f>D48+E48</f>
-        <v>4450</v>
-      </c>
-      <c r="H48" s="46">
-        <f>D48/G48</f>
-        <v>0.55460674157303369</v>
-      </c>
-      <c r="I48" s="46">
-        <f>E48/G48</f>
-        <v>0.44539325842696631</v>
-      </c>
       <c r="J48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="1">
+        <v>22778</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3644</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2979</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="3"/>
+        <v>6623</v>
+      </c>
+      <c r="G49" s="46">
+        <f t="shared" si="4"/>
+        <v>0.55020383512003623</v>
+      </c>
+      <c r="H49" s="46">
+        <f t="shared" si="5"/>
+        <v>0.44979616487996377</v>
+      </c>
+      <c r="I49">
         <v>1.2</v>
       </c>
-      <c r="K48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="1">
-        <v>22778</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3644</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2979</v>
-      </c>
-      <c r="F49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="1">
-        <f>D49+E49</f>
-        <v>6623</v>
-      </c>
-      <c r="H49" s="46">
-        <f>D49/G49</f>
-        <v>0.55020383512003623</v>
-      </c>
-      <c r="I49" s="46">
-        <f>E49/G49</f>
-        <v>0.44979616487996377</v>
-      </c>
       <c r="J49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="1">
+        <v>92769</v>
+      </c>
+      <c r="C50" s="1">
+        <v>14843</v>
+      </c>
+      <c r="D50" s="1">
+        <v>12142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="3"/>
+        <v>26985</v>
+      </c>
+      <c r="G50" s="46">
+        <f t="shared" si="4"/>
+        <v>0.55004632203075787</v>
+      </c>
+      <c r="H50" s="46">
+        <f t="shared" si="5"/>
+        <v>0.44995367796924218</v>
+      </c>
+      <c r="I50">
         <v>1.2</v>
       </c>
-      <c r="K49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1">
-        <v>92769</v>
-      </c>
-      <c r="D50" s="1">
-        <v>14843</v>
-      </c>
-      <c r="E50" s="1">
-        <v>12142</v>
-      </c>
-      <c r="F50" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="1">
-        <f>D50+E50</f>
-        <v>26985</v>
-      </c>
-      <c r="H50" s="46">
-        <f>D50/G50</f>
-        <v>0.55004632203075787</v>
-      </c>
-      <c r="I50" s="46">
-        <f>E50/G50</f>
-        <v>0.44995367796924218</v>
-      </c>
       <c r="J50">
-        <v>1.2</v>
-      </c>
-      <c r="K50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="1">
+        <v>222</v>
+      </c>
+      <c r="B51" s="1">
         <v>2288</v>
       </c>
+      <c r="C51">
+        <v>366</v>
+      </c>
       <c r="D51">
-        <v>366</v>
-      </c>
-      <c r="E51">
         <v>365</v>
       </c>
-      <c r="F51" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="1">
-        <f>D51+E51</f>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="3"/>
         <v>731</v>
       </c>
+      <c r="G51" s="46">
+        <f t="shared" si="4"/>
+        <v>0.5006839945280438</v>
+      </c>
       <c r="H51" s="46">
-        <f>D51/G51</f>
-        <v>0.5006839945280438</v>
-      </c>
-      <c r="I51" s="46">
-        <f>E51/G51</f>
+        <f t="shared" si="5"/>
         <v>0.4993160054719562</v>
       </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
       <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>272</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:K51">
-    <sortState ref="B2:M51">
-      <sortCondition descending="1" ref="H1:H51"/>
+  <autoFilter ref="A1:J51">
+    <sortState ref="A2:L51">
+      <sortCondition descending="1" ref="G1:G51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8244,54 +7866,54 @@
   </sheetPr>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="52"/>
+    <col min="7" max="10" width="10.83203125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>148</v>
+        <v>102</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>1934</v>
@@ -8308,13 +7930,13 @@
       <c r="F2">
         <v>91641</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="47">
         <v>9.4775753021240194E-2</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="47">
         <v>0.25057559967040999</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="47">
         <v>0.217000007629395</v>
       </c>
       <c r="K2">
@@ -8323,7 +7945,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>1935</v>
@@ -8340,13 +7962,13 @@
       <c r="F3">
         <v>92867</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="47">
         <v>8.2670278549194301E-2</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="47">
         <v>0.24906589508056601</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="47">
         <v>0.20100000381469701</v>
       </c>
       <c r="K3">
@@ -8355,7 +7977,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>1936</v>
@@ -8372,13 +7994,13 @@
       <c r="F4">
         <v>94067</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="47">
         <v>7.9391283988952607E-2</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="47">
         <v>0.24779150009155299</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="47">
         <v>0.16899999618530298</v>
       </c>
       <c r="K4">
@@ -8387,7 +8009,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>1937</v>
@@ -8404,13 +8026,13 @@
       <c r="F5">
         <v>95252</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="47">
         <v>7.5604448318481399E-2</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="47">
         <v>0.24657749176025401</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="47">
         <v>0.14300000190734902</v>
       </c>
       <c r="K5">
@@ -8419,7 +8041,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>1938</v>
@@ -8436,13 +8058,13 @@
       <c r="F6">
         <v>96503</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="47">
         <v>6.7506790161132799E-2</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="47">
         <v>0.24512189865112302</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="47">
         <v>0.19</v>
       </c>
       <c r="K6">
@@ -8451,7 +8073,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>1939</v>
@@ -8468,13 +8090,13 @@
       <c r="F7">
         <v>97761</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="47">
         <v>6.3919649124145494E-2</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="47">
         <v>0.24364519119262698</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="47">
         <v>0.17200000762939499</v>
       </c>
       <c r="K7">
@@ -8483,7 +8105,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>1940</v>
@@ -8500,13 +8122,13 @@
       <c r="F8">
         <v>99180</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="47">
         <v>6.1892971992492704E-2</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="47">
         <v>0.24231700897216801</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="47">
         <v>0.14600000381469699</v>
       </c>
       <c r="K8">
@@ -8515,7 +8137,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>1941</v>
@@ -8532,13 +8154,13 @@
       <c r="F9">
         <v>100463</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="47">
         <v>5.9365978240966795E-2</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="47">
         <v>0.239630508422852</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="47">
         <v>9.8999996185302697E-2</v>
       </c>
       <c r="K9">
@@ -8547,7 +8169,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>1942</v>
@@ -8564,13 +8186,13 @@
       <c r="F10">
         <v>101736</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="47">
         <v>5.7614779472351101E-2</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="47">
         <v>0.236818809509277</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="47">
         <v>4.6999998092651402E-2</v>
       </c>
       <c r="K10">
@@ -8579,7 +8201,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>1943</v>
@@ -8596,13 +8218,13 @@
       <c r="F11">
         <v>103024</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="47">
         <v>4.9661111831665002E-2</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="47">
         <v>0.23358629226684599</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="47">
         <v>1.8999999761581402E-2</v>
       </c>
       <c r="K11">
@@ -8611,7 +8233,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>1944</v>
@@ -8628,13 +8250,13 @@
       <c r="F12">
         <v>104300</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="47">
         <v>4.93323612213135E-2</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="47">
         <v>0.23009590148925799</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="47">
         <v>1.20000004768372E-2</v>
       </c>
       <c r="K12">
@@ -8643,7 +8265,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>1945</v>
@@ -8660,13 +8282,13 @@
       <c r="F13">
         <v>105350</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="47">
         <v>5.6070275306701695E-2</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="47">
         <v>0.22501190185546899</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="47">
         <v>1.8999999761581402E-2</v>
       </c>
       <c r="K13">
@@ -8675,7 +8297,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>1946</v>
@@ -8692,13 +8314,13 @@
       <c r="F14">
         <v>106301</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="47">
         <v>6.2363810539245598E-2</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="47">
         <v>0.21996030807495098</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="47">
         <v>3.9000000953674299E-2</v>
       </c>
       <c r="K14">
@@ -8707,7 +8329,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="B15">
         <v>1947</v>
@@ -8724,13 +8346,13 @@
       <c r="F15">
         <v>107463</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="47">
         <v>5.9493246078491199E-2</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="47">
         <v>0.21516239166259801</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="47">
         <v>3.9000000953674299E-2</v>
       </c>
       <c r="K15">
@@ -8739,7 +8361,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>1948</v>
@@ -8756,13 +8378,13 @@
       <c r="F16">
         <v>108623</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="47">
         <v>5.8550505638122606E-2</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="47">
         <v>0.21050790786743201</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="47">
         <v>3.7999999523162804E-2</v>
       </c>
       <c r="K16">
@@ -8771,7 +8393,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>1949</v>
@@ -8788,13 +8410,13 @@
       <c r="F17">
         <v>109811</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="47">
         <v>5.4113330841064497E-2</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="47">
         <v>0.20553499221801799</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="47">
         <v>5.9000000953674296E-2</v>
       </c>
       <c r="K17">
@@ -8803,7 +8425,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B18">
         <v>1950</v>
@@ -8820,13 +8442,13 @@
       <c r="F18">
         <v>110876</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="47">
         <v>5.2044167518615694E-2</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="47">
         <v>0.20076480865478502</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="47">
         <v>5.3000001907348597E-2</v>
       </c>
       <c r="K18">
@@ -8835,7 +8457,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>1951</v>
@@ -8852,13 +8474,13 @@
       <c r="F19">
         <v>111980</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="47">
         <v>4.8337182998657198E-2</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="47">
         <v>0.19662439346313501</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="47">
         <v>3.29999995231628E-2</v>
       </c>
       <c r="K19">
@@ -8867,7 +8489,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B20">
         <v>1952</v>
@@ -8884,13 +8506,13 @@
       <c r="F20">
         <v>113070</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="47">
         <v>5.1289963722229007E-2</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="47">
         <v>0.192765502929688</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="47">
         <v>0.03</v>
       </c>
       <c r="K20">
@@ -8899,7 +8521,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>1953</v>
@@ -8916,13 +8538,13 @@
       <c r="F21">
         <v>114137</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="47">
         <v>4.7797298431396504E-2</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="47">
         <v>0.18975439071655298</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="47">
         <v>2.9000000953674297E-2</v>
       </c>
       <c r="K21">
@@ -8931,7 +8553,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B22">
         <v>1954</v>
@@ -8948,13 +8570,13 @@
       <c r="F22">
         <v>115337</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="47">
         <v>4.7525930404663103E-2</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="47">
         <v>0.18763280868530299</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="47">
         <v>5.5E-2</v>
       </c>
       <c r="K22">
@@ -8963,7 +8585,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B23">
         <v>1955</v>
@@ -8980,13 +8602,13 @@
       <c r="F23">
         <v>116560</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="47">
         <v>4.4800739288330095E-2</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="47">
         <v>0.18588710784912099</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="47">
         <v>4.4000000953674297E-2</v>
       </c>
       <c r="K23">
@@ -8995,7 +8617,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B24">
         <v>1956</v>
@@ -9012,13 +8634,13 @@
       <c r="F24">
         <v>117903</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="47">
         <v>4.5192136764526401E-2</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="47">
         <v>0.18548299789428702</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="47">
         <v>4.0999999046325702E-2</v>
       </c>
       <c r="K24">
@@ -9027,7 +8649,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="B25">
         <v>1957</v>
@@ -9044,13 +8666,13 @@
       <c r="F25">
         <v>119380</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="47">
         <v>4.4388766288757299E-2</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="47">
         <v>0.18689060211181602</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="47">
         <v>4.3000001907348595E-2</v>
       </c>
       <c r="K25">
@@ -9059,7 +8681,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B26">
         <v>1958</v>
@@ -9076,13 +8698,13 @@
       <c r="F26">
         <v>121051</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="47">
         <v>4.45685005187988E-2</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="47">
         <v>0.19134080886840799</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="47">
         <v>6.8000001907348603E-2</v>
       </c>
       <c r="K26">
@@ -9091,7 +8713,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="B27">
         <v>1959</v>
@@ -9108,16 +8730,16 @@
       <c r="F27">
         <v>123091</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="47">
         <v>4.5862507820129406E-2</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="47">
         <v>0.19408409118652301</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="47">
         <v>5.5E-2</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="47">
         <v>0.185</v>
       </c>
       <c r="K27">
@@ -9126,7 +8748,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B28">
         <v>1960</v>
@@ -9143,16 +8765,16 @@
       <c r="F28">
         <v>124595</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="47">
         <v>4.6739244461059599E-2</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="47">
         <v>0.19724710464477499</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="47">
         <v>5.5E-2</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="47">
         <v>0.18100000381469702</v>
       </c>
       <c r="K28">
@@ -9161,7 +8783,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="B29">
         <v>1961</v>
@@ -9178,16 +8800,16 @@
       <c r="F29">
         <v>126138</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="47">
         <v>4.6592168807983399E-2</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="47">
         <v>0.20011419296264599</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="47">
         <v>6.6999998092651405E-2</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="47">
         <v>0.18100000381469702</v>
       </c>
       <c r="K29">
@@ -9196,7 +8818,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B30">
         <v>1962</v>
@@ -9213,16 +8835,16 @@
       <c r="F30">
         <v>128634</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="47">
         <v>4.8228993415832505E-2</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="47">
         <v>0.20919040679931603</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="47">
         <v>5.5E-2</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="47">
         <v>0.17200000762939499</v>
       </c>
       <c r="K30">
@@ -9231,7 +8853,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B31">
         <v>1963</v>
@@ -9248,16 +8870,16 @@
       <c r="F31">
         <v>130776</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="47">
         <v>4.8721995353698706E-2</v>
       </c>
-      <c r="H31" s="52">
+      <c r="H31" s="47">
         <v>0.215811805725098</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="47">
         <v>5.6999998092651404E-2</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="47">
         <v>0.158999996185303</v>
       </c>
       <c r="K31">
@@ -9266,7 +8888,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B32">
         <v>1964</v>
@@ -9283,16 +8905,16 @@
       <c r="F32">
         <v>132941</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G32" s="47">
         <v>5.0996651649475096E-2</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="47">
         <v>0.2220458984375</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="47">
         <v>5.1999998092651406E-2</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="47">
         <v>0.15</v>
       </c>
       <c r="K32">
@@ -9301,7 +8923,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B33">
         <v>1965</v>
@@ -9318,16 +8940,16 @@
       <c r="F33">
         <v>135053</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="47">
         <v>5.5050349235534701E-2</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="47">
         <v>0.227858695983887</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="47">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="47">
         <v>0.13899999618530301</v>
       </c>
       <c r="K33">
@@ -9336,7 +8958,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B34">
         <v>1966</v>
@@ -9353,16 +8975,16 @@
       <c r="F34">
         <v>137301</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="47">
         <v>5.8929266929626502E-2</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="47">
         <v>0.23315200805664102</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="47">
         <v>3.7999999523162804E-2</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="47">
         <v>0.11800000190734901</v>
       </c>
       <c r="K34">
@@ -9371,7 +8993,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B35">
         <v>1967</v>
@@ -9388,16 +9010,16 @@
       <c r="F35">
         <v>139653</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="47">
         <v>6.7411384582519496E-2</v>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="47">
         <v>0.23770349502563501</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="47">
         <v>3.7999999523162804E-2</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="47">
         <v>0.113999996185303</v>
       </c>
       <c r="K35">
@@ -9406,7 +9028,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>1968</v>
@@ -9423,16 +9045,16 @@
       <c r="F36">
         <v>142021</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="47">
         <v>7.309579372406011E-2</v>
       </c>
-      <c r="H36" s="52">
+      <c r="H36" s="47">
         <v>0.24003490447997999</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="47">
         <v>3.5999999046325698E-2</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="47">
         <v>0.1</v>
       </c>
       <c r="K36">
@@ -9441,7 +9063,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>1969</v>
@@ -9458,16 +9080,16 @@
       <c r="F37">
         <v>144417</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="47">
         <v>7.5859041213989301E-2</v>
       </c>
-      <c r="H37" s="52">
+      <c r="H37" s="47">
         <v>0.243987903594971</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="47">
         <v>9.6999998092651404E-2</v>
       </c>
       <c r="K37">
@@ -9476,7 +9098,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B38">
         <v>1970</v>
@@ -9493,16 +9115,16 @@
       <c r="F38">
         <v>147114</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="47">
         <v>8.2318315505981399E-2</v>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="47">
         <v>0.248344802856445</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="47">
         <v>4.9000000953674301E-2</v>
       </c>
-      <c r="J38" s="52">
+      <c r="J38" s="47">
         <v>0.101000003814697</v>
       </c>
       <c r="K38">
@@ -9511,7 +9133,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B39">
         <v>1971</v>
@@ -9528,16 +9150,16 @@
       <c r="F39">
         <v>149927</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="47">
         <v>8.9989757537841802E-2</v>
       </c>
-      <c r="H39" s="52">
+      <c r="H39" s="47">
         <v>0.25310989379882798</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="47">
         <v>5.9000000953674296E-2</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="47">
         <v>0.1</v>
       </c>
       <c r="K39">
@@ -9546,7 +9168,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>1972</v>
@@ -9563,16 +9185,16 @@
       <c r="F40">
         <v>152849</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="47">
         <v>9.3162879943847698E-2</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H40" s="47">
         <v>0.251548900604248</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="47">
         <v>5.5999999046325702E-2</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="47">
         <v>9.3000001907348598E-2</v>
       </c>
       <c r="K40">
@@ -9581,7 +9203,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>1973</v>
@@ -9598,16 +9220,16 @@
       <c r="F41">
         <v>155749</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="47">
         <v>9.6045656204223603E-2</v>
       </c>
-      <c r="H41" s="52">
+      <c r="H41" s="47">
         <v>0.25194379806518602</v>
       </c>
-      <c r="I41" s="52">
+      <c r="I41" s="47">
         <v>4.9000000953674301E-2</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="47">
         <v>8.8000001907348593E-2</v>
       </c>
       <c r="K41">
@@ -9616,7 +9238,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>1974</v>
@@ -9633,16 +9255,16 @@
       <c r="F42">
         <v>158651</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="47">
         <v>9.9790239334106398E-2</v>
       </c>
-      <c r="H42" s="52">
+      <c r="H42" s="47">
         <v>0.25223289489746104</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I42" s="47">
         <v>5.5999999046325702E-2</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J42" s="47">
         <v>8.8000001907348593E-2</v>
       </c>
       <c r="K42">
@@ -9651,7 +9273,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B43">
         <v>1975</v>
@@ -9668,16 +9290,16 @@
       <c r="F43">
         <v>161612</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G43" s="47">
         <v>9.8276691436767594E-2</v>
       </c>
-      <c r="H43" s="52">
+      <c r="H43" s="47">
         <v>0.25253070831298802</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I43" s="47">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="47">
         <v>9.6999998092651404E-2</v>
       </c>
       <c r="K43">
@@ -9686,7 +9308,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>1976</v>
@@ -9703,16 +9325,16 @@
       <c r="F44">
         <v>164659</v>
       </c>
-      <c r="G44" s="52">
+      <c r="G44" s="47">
         <v>8.9366483688354495E-2</v>
       </c>
-      <c r="H44" s="52">
+      <c r="H44" s="47">
         <v>0.25215749740600601</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="47">
         <v>7.69999980926514E-2</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="47">
         <v>9.3999996185302692E-2</v>
       </c>
       <c r="K44">
@@ -9721,7 +9343,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B45">
         <v>1977</v>
@@ -9738,16 +9360,16 @@
       <c r="F45">
         <v>167641</v>
       </c>
-      <c r="G45" s="52">
+      <c r="G45" s="47">
         <v>9.0454301834106396E-2</v>
       </c>
-      <c r="H45" s="52">
+      <c r="H45" s="47">
         <v>0.250767993927002</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="47">
         <v>7.0999999046325701E-2</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="47">
         <v>9.3000001907348598E-2</v>
       </c>
       <c r="K45">
@@ -9756,7 +9378,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B46">
         <v>1978</v>
@@ -9773,16 +9395,16 @@
       <c r="F46">
         <v>170630</v>
       </c>
-      <c r="G46" s="52">
+      <c r="G46" s="47">
         <v>9.170802116394039E-2</v>
       </c>
-      <c r="H46" s="52">
+      <c r="H46" s="47">
         <v>0.24873699188232401</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="47">
         <v>6.0999999046325699E-2</v>
       </c>
-      <c r="J46" s="52">
+      <c r="J46" s="47">
         <v>9.1000003814697306E-2</v>
       </c>
       <c r="K46">
@@ -9791,7 +9413,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="B47">
         <v>1979</v>
@@ -9808,16 +9430,16 @@
       <c r="F47">
         <v>173600</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="47">
         <v>0.10019963264465299</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="47">
         <v>0.24596200942993199</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="47">
         <v>5.8000001907348595E-2</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="47">
         <v>9.19999980926514E-2</v>
       </c>
       <c r="K47">
@@ -9826,7 +9448,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>1980</v>
@@ -9843,16 +9465,16 @@
       <c r="F48">
         <v>175935</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="47">
         <v>0.10695362091064499</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="47">
         <v>0.24154769897460898</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="47">
         <v>7.0999999046325701E-2</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="47">
         <v>0.10300000190734901</v>
       </c>
       <c r="K48">
@@ -9861,7 +9483,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B49">
         <v>1981</v>
@@ -9878,16 +9500,16 @@
       <c r="F49">
         <v>178213</v>
       </c>
-      <c r="G49" s="52">
+      <c r="G49" s="47">
         <v>0.102644338607788</v>
       </c>
-      <c r="H49" s="52">
+      <c r="H49" s="47">
         <v>0.23681770324706999</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="47">
         <v>7.5999999046325706E-2</v>
       </c>
-      <c r="J49" s="52">
+      <c r="J49" s="47">
         <v>0.11199999809265099</v>
       </c>
       <c r="K49">
@@ -9896,7 +9518,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B50">
         <v>1982</v>
@@ -9913,16 +9535,16 @@
       <c r="F50">
         <v>180333</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="47">
         <v>9.6155920028686503E-2</v>
       </c>
-      <c r="H50" s="52">
+      <c r="H50" s="47">
         <v>0.23092830657958999</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="47">
         <v>9.6999998092651404E-2</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="47">
         <v>0.121999998092651</v>
       </c>
       <c r="K50">
@@ -9931,7 +9553,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="B51">
         <v>1983</v>
@@ -9948,16 +9570,16 @@
       <c r="F51">
         <v>182323</v>
       </c>
-      <c r="G51" s="52">
+      <c r="G51" s="47">
         <v>8.6074676513671899E-2</v>
       </c>
-      <c r="H51" s="52">
+      <c r="H51" s="47">
         <v>0.22498529434204101</v>
       </c>
-      <c r="I51" s="52">
+      <c r="I51" s="47">
         <v>9.6000003814697296E-2</v>
       </c>
-      <c r="J51" s="52">
+      <c r="J51" s="47">
         <v>0.123000001907349</v>
       </c>
       <c r="K51">
@@ -9966,7 +9588,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>1984</v>
@@ -9983,16 +9605,16 @@
       <c r="F52">
         <v>184342</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="47">
         <v>8.3709621429443395E-2</v>
       </c>
-      <c r="H52" s="52">
+      <c r="H52" s="47">
         <v>0.21948339462280297</v>
       </c>
-      <c r="I52" s="52">
+      <c r="I52" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J52" s="52">
+      <c r="J52" s="47">
         <v>0.11600000381469699</v>
       </c>
       <c r="K52">
@@ -10001,7 +9623,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="B53">
         <v>1985</v>
@@ -10018,16 +9640,16 @@
       <c r="F53">
         <v>186390</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="47">
         <v>8.3560199737548788E-2</v>
       </c>
-      <c r="H53" s="52">
+      <c r="H53" s="47">
         <v>0.21456090927124</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="47">
         <v>7.1999998092651396E-2</v>
       </c>
-      <c r="J53" s="52">
+      <c r="J53" s="47">
         <v>0.113999996185303</v>
       </c>
       <c r="K53">
@@ -10036,7 +9658,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B54">
         <v>1986</v>
@@ -10053,16 +9675,16 @@
       <c r="F54">
         <v>188598</v>
       </c>
-      <c r="G54" s="52">
+      <c r="G54" s="47">
         <v>9.0313901901245094E-2</v>
       </c>
-      <c r="H54" s="52">
+      <c r="H54" s="47">
         <v>0.20974239349365198</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J54" s="52">
+      <c r="J54" s="47">
         <v>0.108999996185303</v>
       </c>
       <c r="K54">
@@ -10071,7 +9693,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>1987</v>
@@ -10088,16 +9710,16 @@
       <c r="F55">
         <v>190430</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="47">
         <v>8.6691131591796894E-2</v>
       </c>
-      <c r="H55" s="52">
+      <c r="H55" s="47">
         <v>0.204221992492676</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="47">
         <v>6.1999998092651401E-2</v>
       </c>
-      <c r="J55" s="52">
+      <c r="J55" s="47">
         <v>0.106999998092651</v>
       </c>
       <c r="K55">
@@ -10106,7 +9728,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B56">
         <v>1988</v>
@@ -10123,16 +9745,16 @@
       <c r="F56">
         <v>192049</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="47">
         <v>8.9200630187988295E-2</v>
       </c>
-      <c r="H56" s="52">
+      <c r="H56" s="47">
         <v>0.198652400970459</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="47">
         <v>5.5E-2</v>
       </c>
-      <c r="J56" s="52">
+      <c r="J56" s="47">
         <v>0.10399999618530301</v>
       </c>
       <c r="K56">
@@ -10141,7 +9763,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B57">
         <v>1989</v>
@@ -10158,16 +9780,16 @@
       <c r="F57">
         <v>193597</v>
       </c>
-      <c r="G57" s="52">
+      <c r="G57" s="47">
         <v>9.154163360595699E-2</v>
       </c>
-      <c r="H57" s="52">
+      <c r="H57" s="47">
         <v>0.19313829421997097</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="47">
         <v>5.3000001907348597E-2</v>
       </c>
-      <c r="J57" s="52">
+      <c r="J57" s="47">
         <v>0.10300000190734901</v>
       </c>
       <c r="K57">
@@ -10176,7 +9798,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B58">
         <v>1990</v>
@@ -10193,16 +9815,16 @@
       <c r="F58">
         <v>195477</v>
       </c>
-      <c r="G58" s="52">
+      <c r="G58" s="47">
         <v>9.8600044250488295E-2</v>
       </c>
-      <c r="H58" s="52">
+      <c r="H58" s="47">
         <v>0.18888170242309599</v>
       </c>
-      <c r="I58" s="52">
+      <c r="I58" s="47">
         <v>5.5999999046325702E-2</v>
       </c>
-      <c r="J58" s="52">
+      <c r="J58" s="47">
         <v>0.106999998092651</v>
       </c>
       <c r="K58">
@@ -10211,7 +9833,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B59">
         <v>1991</v>
@@ -10228,16 +9850,16 @@
       <c r="F59">
         <v>197736</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="47">
         <v>0.10385202407836899</v>
       </c>
-      <c r="H59" s="52">
+      <c r="H59" s="47">
         <v>0.18460979461669902</v>
       </c>
-      <c r="I59" s="52">
+      <c r="I59" s="47">
         <v>6.8000001907348603E-2</v>
       </c>
-      <c r="J59" s="52">
+      <c r="J59" s="47">
         <v>0.115</v>
       </c>
       <c r="K59">
@@ -10246,7 +9868,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B60">
         <v>1992</v>
@@ -10263,16 +9885,16 @@
       <c r="F60">
         <v>200309</v>
       </c>
-      <c r="G60" s="52">
+      <c r="G60" s="47">
         <v>9.8767700195312502E-2</v>
       </c>
-      <c r="H60" s="52">
+      <c r="H60" s="47">
         <v>0.18188899993896498</v>
       </c>
-      <c r="I60" s="52">
+      <c r="I60" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J60" s="52">
+      <c r="J60" s="47">
         <v>0.11899999618530301</v>
       </c>
       <c r="K60">
@@ -10281,7 +9903,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B61">
         <v>1993</v>
@@ -10298,16 +9920,16 @@
       <c r="F61">
         <v>202823</v>
       </c>
-      <c r="G61" s="52">
+      <c r="G61" s="47">
         <v>9.9496021270752008E-2</v>
       </c>
-      <c r="H61" s="52">
+      <c r="H61" s="47">
         <v>0.17978239059448201</v>
       </c>
-      <c r="I61" s="52">
+      <c r="I61" s="47">
         <v>6.9000000953674298E-2</v>
       </c>
-      <c r="J61" s="52">
+      <c r="J61" s="47">
         <v>0.123000001907349</v>
       </c>
       <c r="K61">
@@ -10316,7 +9938,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B62">
         <v>1994</v>
@@ -10333,16 +9955,16 @@
       <c r="F62">
         <v>205323</v>
       </c>
-      <c r="G62" s="52">
+      <c r="G62" s="47">
         <v>9.4609670639038107E-2</v>
       </c>
-      <c r="H62" s="52">
+      <c r="H62" s="47">
         <v>0.17792449951171899</v>
       </c>
-      <c r="I62" s="52">
+      <c r="I62" s="47">
         <v>6.0999999046325699E-2</v>
       </c>
-      <c r="J62" s="52">
+      <c r="J62" s="47">
         <v>0.11600000381469699</v>
       </c>
       <c r="K62">
@@ -10351,7 +9973,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B63">
         <v>1995</v>
@@ -10368,16 +9990,16 @@
       <c r="F63">
         <v>208006</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G63" s="47">
         <v>8.6100387573242204E-2</v>
       </c>
-      <c r="H63" s="52">
+      <c r="H63" s="47">
         <v>0.17631219863891601</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="47">
         <v>5.5999999046325702E-2</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="47">
         <v>0.108000001907349</v>
       </c>
       <c r="K63">
@@ -10386,7 +10008,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B64">
         <v>1996</v>
@@ -10403,16 +10025,16 @@
       <c r="F64">
         <v>210690</v>
       </c>
-      <c r="G64" s="52">
+      <c r="G64" s="47">
         <v>7.8000588417053193E-2</v>
       </c>
-      <c r="H64" s="52">
+      <c r="H64" s="47">
         <v>0.17465000152587901</v>
       </c>
-      <c r="I64" s="52">
+      <c r="I64" s="47">
         <v>5.4000000953674299E-2</v>
       </c>
-      <c r="J64" s="52">
+      <c r="J64" s="47">
         <v>0.11</v>
       </c>
       <c r="K64">
@@ -10421,7 +10043,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B65">
         <v>1997</v>
@@ -10438,16 +10060,16 @@
       <c r="F65">
         <v>213559</v>
       </c>
-      <c r="G65" s="52">
+      <c r="G65" s="47">
         <v>7.3304562568664605E-2</v>
       </c>
-      <c r="H65" s="52">
+      <c r="H65" s="47">
         <v>0.17469640731811498</v>
       </c>
-      <c r="I65" s="52">
+      <c r="I65" s="47">
         <v>4.9000000953674301E-2</v>
       </c>
-      <c r="J65" s="52">
+      <c r="J65" s="47">
         <v>0.10300000190734901</v>
       </c>
       <c r="K65">
@@ -10456,7 +10078,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="B66">
         <v>1998</v>
@@ -10473,16 +10095,16 @@
       <c r="F66">
         <v>216374</v>
       </c>
-      <c r="G66" s="52">
+      <c r="G66" s="47">
         <v>6.6930737495422402E-2</v>
       </c>
-      <c r="H66" s="52">
+      <c r="H66" s="47">
         <v>0.175654201507568</v>
       </c>
-      <c r="I66" s="52">
+      <c r="I66" s="47">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J66" s="52">
+      <c r="J66" s="47">
         <v>0.1</v>
       </c>
       <c r="K66">
@@ -10491,7 +10113,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B67">
         <v>1999</v>
@@ -10508,16 +10130,16 @@
       <c r="F67">
         <v>219085</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="47">
         <v>6.13693237304688E-2</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="47">
         <v>0.176534194946289</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="47">
         <v>4.1999998092651404E-2</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="47">
         <v>9.3000001907348598E-2</v>
       </c>
       <c r="K67">
@@ -10526,7 +10148,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B68">
         <v>2000</v>
@@ -10543,16 +10165,16 @@
       <c r="F68">
         <v>221935</v>
       </c>
-      <c r="G68" s="52">
+      <c r="G68" s="47">
         <v>5.9038662910461399E-2</v>
       </c>
-      <c r="H68" s="52">
+      <c r="H68" s="47">
         <v>0.17733570098877</v>
       </c>
-      <c r="I68" s="52">
+      <c r="I68" s="47">
         <v>0.04</v>
       </c>
-      <c r="J68" s="52">
+      <c r="J68" s="47">
         <v>8.6999998092651409E-2</v>
       </c>
       <c r="K68">
@@ -10561,7 +10183,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="B69">
         <v>2001</v>
@@ -10578,16 +10200,16 @@
       <c r="F69">
         <v>224836</v>
       </c>
-      <c r="G69" s="52">
+      <c r="G69" s="47">
         <v>6.4220237731933597E-2</v>
       </c>
-      <c r="H69" s="52">
+      <c r="H69" s="47">
         <v>0.17782739639282202</v>
       </c>
-      <c r="I69" s="52">
+      <c r="I69" s="47">
         <v>4.6999998092651402E-2</v>
       </c>
-      <c r="J69" s="52">
+      <c r="J69" s="47">
         <v>9.19999980926514E-2</v>
       </c>
       <c r="K69">
